--- a/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51CAB49-6872-447C-A1D7-492172F7BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B8BE88-AA5B-4C02-A527-B947651F7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="135" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="134" r:id="rId3"/>
+    <sheet name="標音字庫" sheetId="129" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="128" r:id="rId3"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
     <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
     <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1273">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4002,447 +4002,6 @@
   </si>
   <si>
     <t>output7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒹</t>
-  </si>
-  <si>
-    <t>葭</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>露</t>
-  </si>
-  <si>
-    <t>霜</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>溯</t>
-  </si>
-  <si>
-    <t>洄</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>阻</t>
-  </si>
-  <si>
-    <t>且</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>央</t>
-  </si>
-  <si>
-    <t>萋</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>晞</t>
-  </si>
-  <si>
-    <t>湄</t>
-  </si>
-  <si>
-    <t>躋</t>
-  </si>
-  <si>
-    <t>坻</t>
-  </si>
-  <si>
-    <t>采</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>涘</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>沚</t>
-  </si>
-  <si>
-    <t>kiam1</t>
-  </si>
-  <si>
-    <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
-  </si>
-  <si>
-    <t>ka1</t>
-  </si>
-  <si>
-    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
-  </si>
-  <si>
-    <t>cong1</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 7)</t>
-  </si>
-  <si>
-    <t>pik8</t>
-  </si>
-  <si>
-    <t>(9, 9); (25, 9); (41, 9)</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>(9, 10); (25, 10); (41, 10)</t>
-  </si>
-  <si>
-    <t>(9, 11)</t>
-  </si>
-  <si>
-    <t>song1</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>(9, 14); (25, 14); (41, 14)</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>(9, 15); (25, 15); (41, 15)</t>
-  </si>
-  <si>
-    <t>(9, 16); (25, 16); (41, 16)</t>
-  </si>
-  <si>
-    <t>(9, 17); (25, 17); (41, 17)</t>
-  </si>
-  <si>
-    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
-  </si>
-  <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>(13, 7)</t>
-  </si>
-  <si>
-    <t>soo3</t>
-  </si>
-  <si>
-    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
-  </si>
-  <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>(17, 5); (33, 5); (49, 5)</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-  </si>
-  <si>
-    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
-  </si>
-  <si>
-    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
-  </si>
-  <si>
-    <t>to7</t>
-  </si>
-  <si>
-    <t>(17, 9); (33, 9); (49, 9)</t>
-  </si>
-  <si>
-    <t>zoo2</t>
-  </si>
-  <si>
-    <t>(17, 10); (33, 10); (49, 10)</t>
-  </si>
-  <si>
-    <t>cia2</t>
-  </si>
-  <si>
-    <t>(17, 11); (33, 11); (49, 11)</t>
-  </si>
-  <si>
-    <t>(17, 12)</t>
-  </si>
-  <si>
-    <t>(17, 15); (33, 15); (49, 15)</t>
-  </si>
-  <si>
-    <t>(21, 4); (37, 4); (53, 4)</t>
-  </si>
-  <si>
-    <t>(21, 7); (37, 7); (53, 7)</t>
-  </si>
-  <si>
-    <t>iang1</t>
-  </si>
-  <si>
-    <t>(21, 8)</t>
-  </si>
-  <si>
-    <t>ce1</t>
-  </si>
-  <si>
-    <t>(25, 6); (25, 7)</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>(25, 11); (41, 11)</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>(25, 12)</t>
-  </si>
-  <si>
-    <t>(29, 7)</t>
-  </si>
-  <si>
-    <t>ze1</t>
-  </si>
-  <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>cai2</t>
-  </si>
-  <si>
-    <t>(41, 6); (41, 7)</t>
-  </si>
-  <si>
-    <t>(41, 12)</t>
-  </si>
-  <si>
-    <t>zi7</t>
-  </si>
-  <si>
-    <t>iu7</t>
-  </si>
-  <si>
-    <t>(49, 12)</t>
-  </si>
-  <si>
-    <t>(53, 8)</t>
-  </si>
-  <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>從</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>且</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>央</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4457,22 +4016,289 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>注音二式</t>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>蒹</t>
+  </si>
+  <si>
+    <t>葭</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>露</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>溯</t>
+  </si>
+  <si>
+    <t>洄</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>阻</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>央</t>
+  </si>
+  <si>
+    <t>萋</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>晞</t>
+  </si>
+  <si>
+    <t>湄</t>
+  </si>
+  <si>
+    <t>躋</t>
+  </si>
+  <si>
+    <t>坻</t>
+  </si>
+  <si>
+    <t>采</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>涘</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>沚</t>
+  </si>
+  <si>
+    <t>kiam1</t>
+  </si>
+  <si>
+    <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
+  </si>
+  <si>
+    <t>cong1</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 7)</t>
+  </si>
+  <si>
+    <t>pik8</t>
+  </si>
+  <si>
+    <t>(9, 9); (25, 9); (41, 9)</t>
+  </si>
+  <si>
+    <t>loo7</t>
+  </si>
+  <si>
+    <t>(9, 10); (25, 10); (41, 10)</t>
+  </si>
+  <si>
+    <t>(9, 11)</t>
+  </si>
+  <si>
+    <t>song1</t>
+  </si>
+  <si>
+    <t>(9, 12)</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>(9, 14); (25, 14); (41, 14)</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>(9, 15); (25, 15); (41, 15)</t>
+  </si>
+  <si>
+    <t>(9, 16); (25, 16); (41, 16)</t>
+  </si>
+  <si>
+    <t>(9, 17); (25, 17); (41, 17)</t>
+  </si>
+  <si>
+    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
+  </si>
+  <si>
+    <t>(13, 6)</t>
+  </si>
+  <si>
+    <t>(13, 7)</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
+  </si>
+  <si>
+    <t>hue5</t>
+  </si>
+  <si>
+    <t>(17, 5); (33, 5); (49, 5)</t>
+  </si>
+  <si>
+    <t>ziong5</t>
+  </si>
+  <si>
+    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
+  </si>
+  <si>
+    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>(17, 9); (33, 9); (49, 9)</t>
+  </si>
+  <si>
+    <t>zoo2</t>
+  </si>
+  <si>
+    <t>(17, 10); (33, 10); (49, 10)</t>
+  </si>
+  <si>
+    <t>cia2</t>
+  </si>
+  <si>
+    <t>(17, 11); (33, 11); (49, 11)</t>
+  </si>
+  <si>
+    <t>(17, 12)</t>
+  </si>
+  <si>
+    <t>(17, 15); (33, 15); (49, 15)</t>
+  </si>
+  <si>
+    <t>(21, 4); (37, 4); (53, 4)</t>
+  </si>
+  <si>
+    <t>(21, 7); (37, 7); (53, 7)</t>
+  </si>
+  <si>
+    <t>iang1</t>
+  </si>
+  <si>
+    <t>(21, 8)</t>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
+    <t>(25, 6); (25, 7)</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>(25, 11); (41, 11)</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>(25, 12)</t>
+  </si>
+  <si>
+    <t>(29, 7)</t>
+  </si>
+  <si>
+    <t>ze1</t>
+  </si>
+  <si>
+    <t>(33, 12)</t>
+  </si>
+  <si>
+    <t>ti5</t>
+  </si>
+  <si>
+    <t>cai2</t>
+  </si>
+  <si>
+    <t>(41, 6); (41, 7)</t>
+  </si>
+  <si>
+    <t>(41, 12)</t>
+  </si>
+  <si>
+    <t>zi7</t>
+  </si>
+  <si>
+    <t>iu7</t>
+  </si>
+  <si>
+    <t>(49, 12)</t>
+  </si>
+  <si>
+    <t>(53, 8)</t>
   </si>
   <si>
     <t>giam1</t>
-  </si>
-  <si>
-    <t>注音二式</t>
-  </si>
-  <si>
-    <t>kiam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ga1</t>
@@ -4504,6 +4330,9 @@
   <si>
     <t>蒹葭</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.epochtimes.com/assets/uploads/2018/09/346078.jpg</t>
   </si>
 </sst>
 </file>
@@ -5050,9 +4879,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -5067,6 +4893,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6829,7 +6658,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6881,14 +6710,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1314</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="58" t="s">
+        <v>1272</v>
+      </c>
       <c r="D7" s="47"/>
     </row>
     <row r="8" spans="2:4">
@@ -6955,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1302</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -6979,7 +6810,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1302</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -7020,12 +6851,15 @@
       <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{4389A0C3-502F-4806-9CF0-ED9455E75870}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6DF2D8-E89D-4EC5-AE17-E6DFAD237434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E8DE3-B4AD-4C50-B352-965AC35B9305}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7048,72 +6882,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B3" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B4" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B5" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B6" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7127,54 +6961,54 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B8" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B9" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B10" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B11" t="s">
         <v>496</v>
@@ -7183,7 +7017,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7197,7 +7031,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7211,21 +7045,21 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B14" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7239,12 +7073,12 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B16" t="s">
         <v>389</v>
@@ -7253,49 +7087,49 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B18" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B19" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7309,49 +7143,49 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="B21" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B22" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B23" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7365,7 +7199,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7379,12 +7213,12 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B26" t="s">
         <v>347</v>
@@ -7393,12 +7227,12 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B27" t="s">
         <v>319</v>
@@ -7407,68 +7241,68 @@
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B28" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B29" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B30" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B31" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B32" t="s">
         <v>481</v>
@@ -7477,29 +7311,29 @@
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B33" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B34" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
@@ -7510,21 +7344,21 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B35" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -7533,15 +7367,15 @@
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B37" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
@@ -7552,21 +7386,21 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B38" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B39" t="s">
         <v>440</v>
@@ -7575,7 +7409,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -7585,7 +7419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8254A-B27B-4A03-B64E-1573B80FA5B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14B278-FBB0-4A91-A0FB-31C00CF2D55F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7643,73 +7477,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="38">
-        <f t="shared" ref="B1:R1" si="0" xml:space="preserve"> COLUMN()</f>
+        <f t="shared" ref="B1:C1" si="0" xml:space="preserve"> COLUMN()</f>
         <v>2</v>
       </c>
       <c r="C1" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E1" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F1" s="38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G1" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H1" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I1" s="38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J1" s="38">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K1" s="38">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L1" s="38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M1" s="38">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N1" s="38">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O1" s="38">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P1" s="38">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q1" s="38">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R1" s="38">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="9"/>
@@ -7752,18 +7541,18 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
-        <v>1299</v>
+      <c r="V3" s="53" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50" t="s">
-        <v>1303</v>
+        <v>1201</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -7778,23 +7567,23 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="55"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1257</v>
+        <v>1168</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>1258</v>
+        <v>1169</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1259</v>
+        <v>1170</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>1260</v>
+        <v>1171</v>
       </c>
       <c r="H5" s="39" t="str">
         <f>CHAR(10)</f>
@@ -7812,17 +7601,17 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="55"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7837,7 +7626,7 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="55"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -7858,41 +7647,41 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="55"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="50" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="50" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K8" s="50" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="M8" s="50"/>
       <c r="N8" s="50" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P8" s="50" t="s">
         <v>496</v>
@@ -7902,7 +7691,7 @@
       </c>
       <c r="R8" s="50"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="55"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -7910,97 +7699,97 @@
         <v>2</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>1258</v>
+        <v>1169</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>1259</v>
+        <v>1170</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>1261</v>
+        <v>1172</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>1261</v>
+        <v>1172</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>1265</v>
+        <v>273</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>1266</v>
+        <v>1175</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>1268</v>
+        <v>1176</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>1269</v>
+        <v>1177</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>1270</v>
+        <v>1178</v>
       </c>
       <c r="Q9" s="39" t="s">
-        <v>1271</v>
+        <v>37</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="55"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1306</v>
+        <v>1263</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K10" s="51" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P10" s="51" t="s">
         <v>496</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="54"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -8020,7 +7809,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="55"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -8028,7 +7817,7 @@
         <v>342</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>345</v>
@@ -8048,7 +7837,7 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="55"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -8056,19 +7845,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>1274</v>
+        <v>31</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>1275</v>
+        <v>1180</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="I13" s="39" t="str">
         <f>CHAR(10)</f>
@@ -8085,7 +7874,7 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="55"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -8093,7 +7882,7 @@
         <v>342</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>345</v>
@@ -8113,7 +7902,7 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="55"/>
+      <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -8133,51 +7922,51 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="55"/>
+      <c r="V15" s="54"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G16" s="50" t="s">
         <v>338</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L16" s="50" t="s">
         <v>350</v>
       </c>
       <c r="M16" s="50"/>
       <c r="N16" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O16" s="50" t="s">
         <v>437</v>
       </c>
       <c r="P16" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q16" s="50" t="s">
         <v>338</v>
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="54"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -8185,96 +7974,96 @@
         <v>4</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>1277</v>
+        <v>1182</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>1280</v>
+        <v>1184</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>1281</v>
+        <v>1185</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>1282</v>
+        <v>1186</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>1283</v>
+        <v>121</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>1284</v>
+        <v>228</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="Q17" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G18" s="51" t="s">
         <v>338</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1309</v>
+        <v>1266</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O18" s="51" t="s">
         <v>437</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q18" s="51" t="s">
         <v>338</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="54"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -8294,7 +8083,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="55"/>
+      <c r="V19" s="54"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -8305,13 +8094,13 @@
         <v>342</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G20" s="50" t="s">
         <v>319</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -8324,7 +8113,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="55"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -8332,22 +8121,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>1285</v>
+        <v>1187</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>1286</v>
+        <v>1188</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>1287</v>
+        <v>1189</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="J21" s="39" t="str">
         <f>CHAR(10)</f>
@@ -8363,7 +8152,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="54"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -8374,13 +8163,13 @@
         <v>342</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8393,7 +8182,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="55"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -8413,41 +8202,41 @@
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="V23" s="55"/>
+      <c r="V23" s="54"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="50" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="50" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="M24" s="50"/>
       <c r="N24" s="50" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O24" s="50" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P24" s="50" t="s">
         <v>496</v>
@@ -8457,7 +8246,7 @@
       </c>
       <c r="R24" s="50"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="55"/>
+      <c r="V24" s="54"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
@@ -8465,96 +8254,96 @@
         <v>6</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>1258</v>
+        <v>1169</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>1259</v>
+        <v>1170</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>1288</v>
+        <v>1190</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>1288</v>
+        <v>1190</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>1289</v>
+        <v>1191</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>1290</v>
+        <v>1192</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1268</v>
+        <v>1176</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>1269</v>
+        <v>1177</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>1270</v>
+        <v>1178</v>
       </c>
       <c r="Q25" s="39" t="s">
-        <v>1271</v>
+        <v>37</v>
       </c>
       <c r="R25" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="55"/>
+      <c r="V25" s="54"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51" t="s">
-        <v>1306</v>
+        <v>1263</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1311</v>
+        <v>1268</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>496</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="R26" s="51"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="55"/>
+      <c r="V26" s="54"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -8574,11 +8363,7 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="U27" s="33" t="str">
-        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v>2</v>
-      </c>
-      <c r="V27" s="55"/>
+      <c r="V27" s="54"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -8586,7 +8371,7 @@
         <v>342</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>338</v>
@@ -8606,11 +8391,8 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
-      <c r="U28" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V28" s="55"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="54"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
@@ -8618,19 +8400,19 @@
         <v>7</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>1291</v>
+        <v>1193</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="I29" s="39" t="str">
         <f>CHAR(10)</f>
@@ -8647,11 +8429,8 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
-      <c r="U29" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V29" s="55"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="54"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -8659,13 +8438,13 @@
         <v>342</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1312</v>
+        <v>1269</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -8679,11 +8458,8 @@
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
-      <c r="U30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V30" s="55"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="54"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -8703,59 +8479,52 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="U31" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V31" s="55"/>
+      <c r="V31" s="54"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>338</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="50" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L32" s="50" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="M32" s="50"/>
       <c r="N32" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O32" s="50" t="s">
         <v>437</v>
       </c>
       <c r="P32" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q32" s="50" t="s">
         <v>338</v>
       </c>
       <c r="R32" s="50"/>
       <c r="S32" s="18"/>
-      <c r="U32" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V32" s="55"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="54"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
@@ -8763,96 +8532,96 @@
         <v>8</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>1277</v>
+        <v>1182</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>1280</v>
+        <v>1184</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>1281</v>
+        <v>1185</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>1282</v>
+        <v>1186</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>1292</v>
+        <v>1194</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>1284</v>
+        <v>228</v>
       </c>
       <c r="P33" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="Q33" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="R33" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="V33" s="55"/>
+      <c r="V33" s="54"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G34" s="51" t="s">
         <v>338</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="M34" s="51"/>
       <c r="N34" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O34" s="51" t="s">
         <v>437</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q34" s="51" t="s">
         <v>338</v>
       </c>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="55"/>
+      <c r="V34" s="54"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -8872,7 +8641,7 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="55"/>
+      <c r="V35" s="54"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -8883,13 +8652,13 @@
         <v>342</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>319</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -8902,7 +8671,7 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="55"/>
+      <c r="V36" s="54"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
@@ -8910,22 +8679,22 @@
         <v>9</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>1285</v>
+        <v>1187</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>1286</v>
+        <v>1188</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>1293</v>
+        <v>1195</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="J37" s="39" t="str">
         <f>CHAR(10)</f>
@@ -8941,7 +8710,7 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="55"/>
+      <c r="V37" s="54"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -8952,13 +8721,13 @@
         <v>342</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -8971,7 +8740,7 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="55"/>
+      <c r="V38" s="54"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -8991,41 +8760,41 @@
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="V39" s="55"/>
+      <c r="V39" s="54"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="50" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="50" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="L40" s="50" t="s">
         <v>336</v>
       </c>
       <c r="M40" s="50"/>
       <c r="N40" s="50" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O40" s="50" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P40" s="50" t="s">
         <v>496</v>
@@ -9035,7 +8804,7 @@
       </c>
       <c r="R40" s="50"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="55"/>
+      <c r="V40" s="54"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
@@ -9043,96 +8812,96 @@
         <v>10</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>1258</v>
+        <v>1169</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>1259</v>
+        <v>1170</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>1294</v>
+        <v>1196</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>1294</v>
+        <v>1196</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="K41" s="39" t="s">
-        <v>1289</v>
+        <v>1191</v>
       </c>
       <c r="L41" s="39" t="s">
-        <v>1295</v>
+        <v>1197</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N41" s="39" t="s">
-        <v>1268</v>
+        <v>1176</v>
       </c>
       <c r="O41" s="39" t="s">
-        <v>1269</v>
+        <v>1177</v>
       </c>
       <c r="P41" s="39" t="s">
-        <v>1270</v>
+        <v>1178</v>
       </c>
       <c r="Q41" s="39" t="s">
-        <v>1271</v>
+        <v>37</v>
       </c>
       <c r="R41" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="V41" s="55"/>
+      <c r="V41" s="54"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>1306</v>
+        <v>1263</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1311</v>
+        <v>1268</v>
       </c>
       <c r="L42" s="51" t="s">
         <v>336</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="P42" s="51" t="s">
         <v>496</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="55"/>
+      <c r="V42" s="54"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -9152,7 +8921,7 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="55"/>
+      <c r="V43" s="54"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -9160,13 +8929,13 @@
         <v>342</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F44" s="50" t="s">
         <v>338</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -9180,7 +8949,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="55"/>
+      <c r="V44" s="54"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
@@ -9188,19 +8957,19 @@
         <v>11</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>1296</v>
+        <v>1198</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="I45" s="39" t="str">
         <f>CHAR(10)</f>
@@ -9217,7 +8986,7 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="55"/>
+      <c r="V45" s="54"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -9225,13 +8994,13 @@
         <v>342</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F46" s="51" t="s">
         <v>338</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -9245,7 +9014,7 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="55"/>
+      <c r="V46" s="54"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -9265,51 +9034,51 @@
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="V47" s="55"/>
+      <c r="V47" s="54"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G48" s="50" t="s">
         <v>338</v>
       </c>
       <c r="H48" s="50"/>
       <c r="I48" s="50" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="J48" s="50" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K48" s="50" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L48" s="50" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="M48" s="50"/>
       <c r="N48" s="50" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O48" s="50" t="s">
         <v>437</v>
       </c>
       <c r="P48" s="50" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q48" s="50" t="s">
         <v>338</v>
       </c>
       <c r="R48" s="50"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="55"/>
+      <c r="V48" s="54"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
@@ -9317,96 +9086,96 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>1277</v>
+        <v>1182</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>1280</v>
+        <v>1184</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>1281</v>
+        <v>1185</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>1282</v>
+        <v>1186</v>
       </c>
       <c r="L49" s="39" t="s">
-        <v>1297</v>
+        <v>1199</v>
       </c>
       <c r="M49" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>1276</v>
+        <v>1181</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>1284</v>
+        <v>228</v>
       </c>
       <c r="P49" s="39" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="Q49" s="39" t="s">
-        <v>1279</v>
+        <v>108</v>
       </c>
       <c r="R49" s="39" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="S49" s="20"/>
-      <c r="V49" s="55"/>
+      <c r="V49" s="54"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G50" s="51" t="s">
         <v>338</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="O50" s="51" t="s">
         <v>437</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Q50" s="51" t="s">
         <v>338</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="55"/>
+      <c r="V50" s="54"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -9426,7 +9195,7 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="55"/>
+      <c r="V51" s="54"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -9437,7 +9206,7 @@
         <v>342</v>
       </c>
       <c r="F52" s="50" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G52" s="50" t="s">
         <v>319</v>
@@ -9456,7 +9225,7 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="55"/>
+      <c r="V52" s="54"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
@@ -9464,22 +9233,22 @@
         <v>13</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>1285</v>
+        <v>1187</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>1272</v>
+        <v>113</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>1286</v>
+        <v>1188</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>1298</v>
+        <v>1200</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>1267</v>
+        <v>30</v>
       </c>
       <c r="J53" s="39" t="str">
         <f>CHAR(10)</f>
@@ -9495,7 +9264,7 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="55"/>
+      <c r="V53" s="54"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -9506,10 +9275,10 @@
         <v>342</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="H54" s="51" t="s">
         <v>440</v>
@@ -9525,7 +9294,7 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="55"/>
+      <c r="V54" s="54"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -9545,7 +9314,7 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="55"/>
+      <c r="V55" s="54"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -9565,7 +9334,7 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="55"/>
+      <c r="V56" s="54"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
@@ -9573,7 +9342,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>1300</v>
+        <v>38</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -9590,7 +9359,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="55"/>
+      <c r="V57" s="54"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -9610,7 +9379,7 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="55"/>
+      <c r="V58" s="54"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -9630,7 +9399,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="55"/>
+      <c r="V59" s="54"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -9650,7 +9419,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="55"/>
+      <c r="V60" s="54"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -9673,7 +9442,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="55"/>
+      <c r="V61" s="54"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -9693,7 +9462,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="55"/>
+      <c r="V62" s="54"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -9713,7 +9482,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="55"/>
+      <c r="V63" s="54"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -9733,7 +9502,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="55"/>
+      <c r="V64" s="54"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -9756,7 +9525,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="55"/>
+      <c r="V65" s="54"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -9776,7 +9545,7 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="55"/>
+      <c r="V66" s="54"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -9796,7 +9565,7 @@
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="55"/>
+      <c r="V67" s="54"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -9816,7 +9585,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="55"/>
+      <c r="V68" s="54"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -9839,7 +9608,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="55"/>
+      <c r="V69" s="54"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -9859,7 +9628,7 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="55"/>
+      <c r="V70" s="54"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -9879,7 +9648,7 @@
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="55"/>
+      <c r="V71" s="54"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -9899,7 +9668,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="55"/>
+      <c r="V72" s="54"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -9922,7 +9691,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="55"/>
+      <c r="V73" s="54"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -9942,7 +9711,7 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="55"/>
+      <c r="V74" s="54"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -9962,7 +9731,7 @@
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="55"/>
+      <c r="V75" s="54"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -9982,7 +9751,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="55"/>
+      <c r="V76" s="54"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -10005,7 +9774,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="55"/>
+      <c r="V77" s="54"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -10025,7 +9794,7 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="55"/>
+      <c r="V78" s="54"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -10045,7 +9814,7 @@
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
       <c r="R79" s="52"/>
-      <c r="V79" s="55"/>
+      <c r="V79" s="54"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -10065,7 +9834,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="55"/>
+      <c r="V80" s="54"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -10088,7 +9857,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="55"/>
+      <c r="V81" s="54"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -10108,7 +9877,7 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="56"/>
+      <c r="V82" s="55"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -10704,7 +10473,7 @@
     </row>
     <row r="113" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B113" s="19">
-        <f t="shared" ref="B113" si="2">B109+1</f>
+        <f t="shared" ref="B113" si="1">B109+1</f>
         <v>28</v>
       </c>
       <c r="D113" s="39"/>
@@ -10780,7 +10549,7 @@
     </row>
     <row r="117" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B117" s="19">
-        <f t="shared" ref="B117" si="3">B113+1</f>
+        <f t="shared" ref="B117" si="2">B113+1</f>
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
@@ -10856,7 +10625,7 @@
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
-        <f t="shared" ref="B121" si="4">B117+1</f>
+        <f t="shared" ref="B121" si="3">B117+1</f>
         <v>30</v>
       </c>
       <c r="D121" s="39"/>
@@ -10932,7 +10701,7 @@
     </row>
     <row r="125" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="5">B121+1</f>
+        <f t="shared" ref="B125" si="4">B121+1</f>
         <v>31</v>
       </c>
       <c r="D125" s="39"/>
@@ -11008,7 +10777,7 @@
     </row>
     <row r="129" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B129" s="19">
-        <f t="shared" ref="B129" si="6">B125+1</f>
+        <f t="shared" ref="B129" si="5">B125+1</f>
         <v>32</v>
       </c>
       <c r="D129" s="39"/>
@@ -11084,7 +10853,7 @@
     </row>
     <row r="133" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B133" s="19">
-        <f t="shared" ref="B133" si="7">B129+1</f>
+        <f t="shared" ref="B133" si="6">B129+1</f>
         <v>33</v>
       </c>
       <c r="D133" s="39"/>
@@ -11160,7 +10929,7 @@
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
-        <f t="shared" ref="B137" si="8">B133+1</f>
+        <f t="shared" ref="B137" si="7">B133+1</f>
         <v>34</v>
       </c>
       <c r="D137" s="39"/>
@@ -11236,7 +11005,7 @@
     </row>
     <row r="141" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B141" s="19">
-        <f t="shared" ref="B141" si="9">B137+1</f>
+        <f t="shared" ref="B141" si="8">B137+1</f>
         <v>35</v>
       </c>
       <c r="D141" s="39"/>
@@ -11312,7 +11081,7 @@
     </row>
     <row r="145" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="19">
-        <f t="shared" ref="B145" si="10">B141+1</f>
+        <f t="shared" ref="B145" si="9">B141+1</f>
         <v>36</v>
       </c>
       <c r="D145" s="39"/>
@@ -11388,7 +11157,7 @@
     </row>
     <row r="149" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="19">
-        <f t="shared" ref="B149" si="11">B145+1</f>
+        <f t="shared" ref="B149" si="10">B145+1</f>
         <v>37</v>
       </c>
       <c r="D149" s="39"/>
@@ -11464,7 +11233,7 @@
     </row>
     <row r="153" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="19">
-        <f t="shared" ref="B153" si="12">B149+1</f>
+        <f t="shared" ref="B153" si="11">B149+1</f>
         <v>38</v>
       </c>
       <c r="D153" s="39"/>
@@ -11540,7 +11309,7 @@
     </row>
     <row r="157" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="19">
-        <f t="shared" ref="B157" si="13">B153+1</f>
+        <f t="shared" ref="B157" si="12">B153+1</f>
         <v>39</v>
       </c>
       <c r="D157" s="39"/>
@@ -11617,7 +11386,7 @@
     </row>
     <row r="161" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B161" s="19">
-        <f t="shared" ref="B161" si="14">B157+1</f>
+        <f t="shared" ref="B161" si="13">B157+1</f>
         <v>40</v>
       </c>
       <c r="D161" s="39"/>
@@ -11693,7 +11462,7 @@
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
-        <f t="shared" ref="B165" si="15">B161+1</f>
+        <f t="shared" ref="B165" si="14">B161+1</f>
         <v>41</v>
       </c>
       <c r="D165" s="39"/>
@@ -11770,7 +11539,7 @@
     </row>
     <row r="169" spans="2:18" ht="58.5">
       <c r="B169" s="19">
-        <f t="shared" ref="B169" si="16">B165+1</f>
+        <f t="shared" ref="B169" si="15">B165+1</f>
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
@@ -11849,7 +11618,7 @@
     </row>
     <row r="173" spans="2:18" ht="58.5">
       <c r="B173" s="19">
-        <f t="shared" ref="B173" si="17">B169+1</f>
+        <f t="shared" ref="B173" si="16">B169+1</f>
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
@@ -11928,7 +11697,7 @@
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
-        <f t="shared" ref="B177" si="18">B173+1</f>
+        <f t="shared" ref="B177" si="17">B173+1</f>
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
@@ -12007,7 +11776,7 @@
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
-        <f t="shared" ref="B181" si="19">B177+1</f>
+        <f t="shared" ref="B181" si="18">B177+1</f>
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
@@ -12086,7 +11855,7 @@
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
-        <f t="shared" ref="B185" si="20">B181+1</f>
+        <f t="shared" ref="B185" si="19">B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
@@ -12165,7 +11934,7 @@
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
-        <f t="shared" ref="B189" si="21">B185+1</f>
+        <f t="shared" ref="B189" si="20">B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
@@ -12244,7 +12013,7 @@
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
-        <f t="shared" ref="B193" si="22">B189+1</f>
+        <f t="shared" ref="B193" si="21">B189+1</f>
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
@@ -12323,7 +12092,7 @@
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
-        <f t="shared" ref="B197" si="23">B193+1</f>
+        <f t="shared" ref="B197" si="22">B193+1</f>
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
@@ -12402,7 +12171,7 @@
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
-        <f t="shared" ref="B201" si="24">B197+1</f>
+        <f t="shared" ref="B201" si="23">B197+1</f>
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
@@ -14614,7 +14383,7 @@
     </row>
     <row r="313" spans="2:18" ht="58.5">
       <c r="B313" s="19">
-        <f t="shared" ref="B313" si="25">B309+1</f>
+        <f t="shared" ref="B313" si="24">B309+1</f>
         <v>78</v>
       </c>
       <c r="C313" s="6"/>
@@ -14693,7 +14462,7 @@
     </row>
     <row r="317" spans="2:18" ht="58.5">
       <c r="B317" s="19">
-        <f t="shared" ref="B317" si="26">B313+1</f>
+        <f t="shared" ref="B317" si="25">B313+1</f>
         <v>79</v>
       </c>
       <c r="C317" s="6"/>
@@ -14772,7 +14541,7 @@
     </row>
     <row r="321" spans="2:18" ht="58.5">
       <c r="B321" s="19">
-        <f t="shared" ref="B321" si="27">B317+1</f>
+        <f t="shared" ref="B321" si="26">B317+1</f>
         <v>80</v>
       </c>
       <c r="C321" s="6"/>
@@ -14851,7 +14620,7 @@
     </row>
     <row r="325" spans="2:18" ht="58.5">
       <c r="B325" s="19">
-        <f t="shared" ref="B325" si="28">B321+1</f>
+        <f t="shared" ref="B325" si="27">B321+1</f>
         <v>81</v>
       </c>
       <c r="C325" s="6"/>
@@ -14930,7 +14699,7 @@
     </row>
     <row r="329" spans="2:18" ht="58.5">
       <c r="B329" s="19">
-        <f t="shared" ref="B329" si="29">B325+1</f>
+        <f t="shared" ref="B329" si="28">B325+1</f>
         <v>82</v>
       </c>
       <c r="C329" s="6"/>
@@ -15009,7 +14778,7 @@
     </row>
     <row r="333" spans="2:18" ht="58.5">
       <c r="B333" s="19">
-        <f t="shared" ref="B333" si="30">B329+1</f>
+        <f t="shared" ref="B333" si="29">B329+1</f>
         <v>83</v>
       </c>
       <c r="C333" s="6"/>
@@ -15088,7 +14857,7 @@
     </row>
     <row r="337" spans="2:18" ht="58.5">
       <c r="B337" s="19">
-        <f t="shared" ref="B337" si="31">B333+1</f>
+        <f t="shared" ref="B337" si="30">B333+1</f>
         <v>84</v>
       </c>
       <c r="C337" s="6"/>
@@ -15167,7 +14936,7 @@
     </row>
     <row r="341" spans="2:18" ht="58.5">
       <c r="B341" s="19">
-        <f t="shared" ref="B341" si="32">B337+1</f>
+        <f t="shared" ref="B341" si="31">B337+1</f>
         <v>85</v>
       </c>
       <c r="C341" s="6"/>
@@ -15246,7 +15015,7 @@
     </row>
     <row r="345" spans="2:18" ht="58.5">
       <c r="B345" s="19">
-        <f t="shared" ref="B345" si="33">B341+1</f>
+        <f t="shared" ref="B345" si="32">B341+1</f>
         <v>86</v>
       </c>
       <c r="C345" s="6"/>
@@ -15325,7 +15094,7 @@
     </row>
     <row r="349" spans="2:18" ht="58.5">
       <c r="B349" s="19">
-        <f t="shared" ref="B349" si="34">B345+1</f>
+        <f t="shared" ref="B349" si="33">B345+1</f>
         <v>87</v>
       </c>
       <c r="C349" s="6"/>
@@ -15404,7 +15173,7 @@
     </row>
     <row r="353" spans="2:18" ht="58.5">
       <c r="B353" s="19">
-        <f t="shared" ref="B353" si="35">B349+1</f>
+        <f t="shared" ref="B353" si="34">B349+1</f>
         <v>88</v>
       </c>
       <c r="C353" s="6"/>
@@ -15483,7 +15252,7 @@
     </row>
     <row r="357" spans="2:18" ht="58.5">
       <c r="B357" s="19">
-        <f t="shared" ref="B357" si="36">B353+1</f>
+        <f t="shared" ref="B357" si="35">B353+1</f>
         <v>89</v>
       </c>
       <c r="C357" s="6"/>
@@ -15562,7 +15331,7 @@
     </row>
     <row r="361" spans="2:18" ht="58.5">
       <c r="B361" s="19">
-        <f t="shared" ref="B361" si="37">B357+1</f>
+        <f t="shared" ref="B361" si="36">B357+1</f>
         <v>90</v>
       </c>
       <c r="C361" s="6"/>
@@ -15641,7 +15410,7 @@
     </row>
     <row r="365" spans="2:18" ht="58.5">
       <c r="B365" s="19">
-        <f t="shared" ref="B365" si="38">B361+1</f>
+        <f t="shared" ref="B365" si="37">B361+1</f>
         <v>91</v>
       </c>
       <c r="C365" s="6"/>
@@ -15720,7 +15489,7 @@
     </row>
     <row r="369" spans="2:18" ht="58.5">
       <c r="B369" s="19">
-        <f t="shared" ref="B369" si="39">B365+1</f>
+        <f t="shared" ref="B369" si="38">B365+1</f>
         <v>92</v>
       </c>
       <c r="C369" s="6"/>
@@ -15799,7 +15568,7 @@
     </row>
     <row r="373" spans="2:18" ht="58.5">
       <c r="B373" s="19">
-        <f t="shared" ref="B373" si="40">B369+1</f>
+        <f t="shared" ref="B373" si="39">B369+1</f>
         <v>93</v>
       </c>
       <c r="C373" s="6"/>
@@ -15878,7 +15647,7 @@
     </row>
     <row r="377" spans="2:18" ht="58.5">
       <c r="B377" s="19">
-        <f t="shared" ref="B377" si="41">B373+1</f>
+        <f t="shared" ref="B377" si="40">B373+1</f>
         <v>94</v>
       </c>
       <c r="C377" s="6"/>
@@ -15957,7 +15726,7 @@
     </row>
     <row r="381" spans="2:18" ht="58.5">
       <c r="B381" s="19">
-        <f t="shared" ref="B381" si="42">B377+1</f>
+        <f t="shared" ref="B381" si="41">B377+1</f>
         <v>95</v>
       </c>
       <c r="C381" s="6"/>
@@ -16036,7 +15805,7 @@
     </row>
     <row r="385" spans="2:18" ht="58.5">
       <c r="B385" s="19">
-        <f t="shared" ref="B385" si="43">B381+1</f>
+        <f t="shared" ref="B385" si="42">B381+1</f>
         <v>96</v>
       </c>
       <c r="C385" s="6"/>
@@ -16115,7 +15884,7 @@
     </row>
     <row r="389" spans="2:18" ht="58.5">
       <c r="B389" s="19">
-        <f t="shared" ref="B389" si="44">B385+1</f>
+        <f t="shared" ref="B389" si="43">B385+1</f>
         <v>97</v>
       </c>
       <c r="C389" s="6"/>
@@ -16194,7 +15963,7 @@
     </row>
     <row r="393" spans="2:18" ht="58.5">
       <c r="B393" s="19">
-        <f t="shared" ref="B393" si="45">B389+1</f>
+        <f t="shared" ref="B393" si="44">B389+1</f>
         <v>98</v>
       </c>
       <c r="C393" s="6"/>
@@ -16273,7 +16042,7 @@
     </row>
     <row r="397" spans="2:18" ht="58.5">
       <c r="B397" s="19">
-        <f t="shared" ref="B397" si="46">B393+1</f>
+        <f t="shared" ref="B397" si="45">B393+1</f>
         <v>99</v>
       </c>
       <c r="C397" s="6"/>
@@ -16352,7 +16121,7 @@
     </row>
     <row r="401" spans="2:18" ht="58.5">
       <c r="B401" s="19">
-        <f t="shared" ref="B401" si="47">B397+1</f>
+        <f t="shared" ref="B401" si="46">B397+1</f>
         <v>100</v>
       </c>
       <c r="C401" s="6"/>
@@ -18564,7 +18333,7 @@
     </row>
     <row r="513" spans="2:18" ht="58.5">
       <c r="B513" s="19">
-        <f t="shared" ref="B513" si="48">B509+1</f>
+        <f t="shared" ref="B513" si="47">B509+1</f>
         <v>128</v>
       </c>
       <c r="C513" s="6"/>
@@ -18643,7 +18412,7 @@
     </row>
     <row r="517" spans="2:18" ht="58.5">
       <c r="B517" s="19">
-        <f t="shared" ref="B517" si="49">B513+1</f>
+        <f t="shared" ref="B517" si="48">B513+1</f>
         <v>129</v>
       </c>
       <c r="C517" s="6"/>
@@ -18722,7 +18491,7 @@
     </row>
     <row r="521" spans="2:18" ht="58.5">
       <c r="B521" s="19">
-        <f t="shared" ref="B521" si="50">B517+1</f>
+        <f t="shared" ref="B521" si="49">B517+1</f>
         <v>130</v>
       </c>
       <c r="C521" s="6"/>
@@ -18801,7 +18570,7 @@
     </row>
     <row r="525" spans="2:18" ht="58.5">
       <c r="B525" s="19">
-        <f t="shared" ref="B525" si="51">B521+1</f>
+        <f t="shared" ref="B525" si="50">B521+1</f>
         <v>131</v>
       </c>
       <c r="C525" s="6"/>
@@ -18880,7 +18649,7 @@
     </row>
     <row r="529" spans="2:18" ht="58.5">
       <c r="B529" s="19">
-        <f t="shared" ref="B529" si="52">B525+1</f>
+        <f t="shared" ref="B529" si="51">B525+1</f>
         <v>132</v>
       </c>
       <c r="C529" s="6"/>
@@ -18959,7 +18728,7 @@
     </row>
     <row r="533" spans="2:18" ht="58.5">
       <c r="B533" s="19">
-        <f t="shared" ref="B533" si="53">B529+1</f>
+        <f t="shared" ref="B533" si="52">B529+1</f>
         <v>133</v>
       </c>
       <c r="C533" s="6"/>
@@ -19038,7 +18807,7 @@
     </row>
     <row r="537" spans="2:18" ht="58.5">
       <c r="B537" s="19">
-        <f t="shared" ref="B537" si="54">B533+1</f>
+        <f t="shared" ref="B537" si="53">B533+1</f>
         <v>134</v>
       </c>
       <c r="C537" s="6"/>
@@ -19117,7 +18886,7 @@
     </row>
     <row r="541" spans="2:18" ht="58.5">
       <c r="B541" s="19">
-        <f t="shared" ref="B541" si="55">B537+1</f>
+        <f t="shared" ref="B541" si="54">B537+1</f>
         <v>135</v>
       </c>
       <c r="C541" s="6"/>
@@ -19196,7 +18965,7 @@
     </row>
     <row r="545" spans="2:18" ht="58.5">
       <c r="B545" s="19">
-        <f t="shared" ref="B545" si="56">B541+1</f>
+        <f t="shared" ref="B545" si="55">B541+1</f>
         <v>136</v>
       </c>
       <c r="C545" s="6"/>
@@ -19275,7 +19044,7 @@
     </row>
     <row r="549" spans="2:18" ht="58.5">
       <c r="B549" s="19">
-        <f t="shared" ref="B549" si="57">B545+1</f>
+        <f t="shared" ref="B549" si="56">B545+1</f>
         <v>137</v>
       </c>
       <c r="C549" s="6"/>
@@ -19354,7 +19123,7 @@
     </row>
     <row r="553" spans="2:18" ht="58.5">
       <c r="B553" s="19">
-        <f t="shared" ref="B553" si="58">B549+1</f>
+        <f t="shared" ref="B553" si="57">B549+1</f>
         <v>138</v>
       </c>
       <c r="C553" s="6"/>
@@ -19433,7 +19202,7 @@
     </row>
     <row r="557" spans="2:18" ht="58.5">
       <c r="B557" s="19">
-        <f t="shared" ref="B557" si="59">B553+1</f>
+        <f t="shared" ref="B557" si="58">B553+1</f>
         <v>139</v>
       </c>
       <c r="C557" s="6"/>
@@ -19512,7 +19281,7 @@
     </row>
     <row r="561" spans="2:18" ht="58.5">
       <c r="B561" s="19">
-        <f t="shared" ref="B561" si="60">B557+1</f>
+        <f t="shared" ref="B561" si="59">B557+1</f>
         <v>140</v>
       </c>
       <c r="C561" s="6"/>
@@ -19591,7 +19360,7 @@
     </row>
     <row r="565" spans="2:18" ht="58.5">
       <c r="B565" s="19">
-        <f t="shared" ref="B565" si="61">B561+1</f>
+        <f t="shared" ref="B565" si="60">B561+1</f>
         <v>141</v>
       </c>
       <c r="C565" s="6"/>
@@ -19670,7 +19439,7 @@
     </row>
     <row r="569" spans="2:18" ht="58.5">
       <c r="B569" s="19">
-        <f t="shared" ref="B569" si="62">B565+1</f>
+        <f t="shared" ref="B569" si="61">B565+1</f>
         <v>142</v>
       </c>
       <c r="C569" s="6"/>
@@ -19749,7 +19518,7 @@
     </row>
     <row r="573" spans="2:18" ht="58.5">
       <c r="B573" s="19">
-        <f t="shared" ref="B573" si="63">B569+1</f>
+        <f t="shared" ref="B573" si="62">B569+1</f>
         <v>143</v>
       </c>
       <c r="C573" s="6"/>
@@ -19828,7 +19597,7 @@
     </row>
     <row r="577" spans="2:18" ht="58.5">
       <c r="B577" s="19">
-        <f t="shared" ref="B577" si="64">B573+1</f>
+        <f t="shared" ref="B577" si="63">B573+1</f>
         <v>144</v>
       </c>
       <c r="C577" s="6"/>
@@ -19907,7 +19676,7 @@
     </row>
     <row r="581" spans="2:18" ht="58.5">
       <c r="B581" s="19">
-        <f t="shared" ref="B581" si="65">B577+1</f>
+        <f t="shared" ref="B581" si="64">B577+1</f>
         <v>145</v>
       </c>
       <c r="C581" s="6"/>
@@ -19986,7 +19755,7 @@
     </row>
     <row r="585" spans="2:18" ht="58.5">
       <c r="B585" s="19">
-        <f t="shared" ref="B585" si="66">B581+1</f>
+        <f t="shared" ref="B585" si="65">B581+1</f>
         <v>146</v>
       </c>
       <c r="C585" s="6"/>
@@ -20065,7 +19834,7 @@
     </row>
     <row r="589" spans="2:18" ht="58.5">
       <c r="B589" s="19">
-        <f t="shared" ref="B589" si="67">B585+1</f>
+        <f t="shared" ref="B589" si="66">B585+1</f>
         <v>147</v>
       </c>
       <c r="C589" s="6"/>
@@ -20144,7 +19913,7 @@
     </row>
     <row r="593" spans="2:18" ht="58.5">
       <c r="B593" s="19">
-        <f t="shared" ref="B593" si="68">B589+1</f>
+        <f t="shared" ref="B593" si="67">B589+1</f>
         <v>148</v>
       </c>
       <c r="C593" s="6"/>
@@ -20223,7 +19992,7 @@
     </row>
     <row r="597" spans="2:18" ht="58.5">
       <c r="B597" s="19">
-        <f t="shared" ref="B597" si="69">B593+1</f>
+        <f t="shared" ref="B597" si="68">B593+1</f>
         <v>149</v>
       </c>
       <c r="C597" s="6"/>
@@ -20302,7 +20071,7 @@
     </row>
     <row r="601" spans="2:18" ht="58.5">
       <c r="B601" s="19">
-        <f t="shared" ref="B601" si="70">B597+1</f>
+        <f t="shared" ref="B601" si="69">B597+1</f>
         <v>150</v>
       </c>
       <c r="C601" s="6"/>
@@ -22514,7 +22283,7 @@
     </row>
     <row r="713" spans="2:18" ht="58.5">
       <c r="B713" s="19">
-        <f t="shared" ref="B713" si="71">B709+1</f>
+        <f t="shared" ref="B713" si="70">B709+1</f>
         <v>178</v>
       </c>
       <c r="C713" s="6"/>
@@ -22593,7 +22362,7 @@
     </row>
     <row r="717" spans="2:18" ht="58.5">
       <c r="B717" s="19">
-        <f t="shared" ref="B717" si="72">B713+1</f>
+        <f t="shared" ref="B717" si="71">B713+1</f>
         <v>179</v>
       </c>
       <c r="C717" s="6"/>
@@ -22672,7 +22441,7 @@
     </row>
     <row r="721" spans="2:18" ht="58.5">
       <c r="B721" s="19">
-        <f t="shared" ref="B721" si="73">B717+1</f>
+        <f t="shared" ref="B721" si="72">B717+1</f>
         <v>180</v>
       </c>
       <c r="C721" s="6"/>
@@ -22751,7 +22520,7 @@
     </row>
     <row r="725" spans="2:18" ht="58.5">
       <c r="B725" s="19">
-        <f t="shared" ref="B725" si="74">B721+1</f>
+        <f t="shared" ref="B725" si="73">B721+1</f>
         <v>181</v>
       </c>
       <c r="C725" s="6"/>
@@ -22830,7 +22599,7 @@
     </row>
     <row r="729" spans="2:18" ht="58.5">
       <c r="B729" s="19">
-        <f t="shared" ref="B729" si="75">B725+1</f>
+        <f t="shared" ref="B729" si="74">B725+1</f>
         <v>182</v>
       </c>
       <c r="C729" s="6"/>
@@ -22909,7 +22678,7 @@
     </row>
     <row r="733" spans="2:18" ht="58.5">
       <c r="B733" s="19">
-        <f t="shared" ref="B733" si="76">B729+1</f>
+        <f t="shared" ref="B733" si="75">B729+1</f>
         <v>183</v>
       </c>
       <c r="C733" s="6"/>
@@ -22988,7 +22757,7 @@
     </row>
     <row r="737" spans="2:18" ht="58.5">
       <c r="B737" s="19">
-        <f t="shared" ref="B737" si="77">B733+1</f>
+        <f t="shared" ref="B737" si="76">B733+1</f>
         <v>184</v>
       </c>
       <c r="C737" s="6"/>
@@ -23067,7 +22836,7 @@
     </row>
     <row r="741" spans="2:18" ht="58.5">
       <c r="B741" s="19">
-        <f t="shared" ref="B741" si="78">B737+1</f>
+        <f t="shared" ref="B741" si="77">B737+1</f>
         <v>185</v>
       </c>
       <c r="C741" s="6"/>
@@ -23146,7 +22915,7 @@
     </row>
     <row r="745" spans="2:18" ht="58.5">
       <c r="B745" s="19">
-        <f t="shared" ref="B745" si="79">B741+1</f>
+        <f t="shared" ref="B745" si="78">B741+1</f>
         <v>186</v>
       </c>
       <c r="C745" s="6"/>
@@ -23225,7 +22994,7 @@
     </row>
     <row r="749" spans="2:18" ht="58.5">
       <c r="B749" s="19">
-        <f t="shared" ref="B749" si="80">B745+1</f>
+        <f t="shared" ref="B749" si="79">B745+1</f>
         <v>187</v>
       </c>
       <c r="C749" s="6"/>
@@ -23304,7 +23073,7 @@
     </row>
     <row r="753" spans="2:18" ht="58.5">
       <c r="B753" s="19">
-        <f t="shared" ref="B753" si="81">B749+1</f>
+        <f t="shared" ref="B753" si="80">B749+1</f>
         <v>188</v>
       </c>
       <c r="C753" s="6"/>
@@ -23383,7 +23152,7 @@
     </row>
     <row r="757" spans="2:18" ht="58.5">
       <c r="B757" s="19">
-        <f t="shared" ref="B757" si="82">B753+1</f>
+        <f t="shared" ref="B757" si="81">B753+1</f>
         <v>189</v>
       </c>
       <c r="C757" s="6"/>
@@ -23462,7 +23231,7 @@
     </row>
     <row r="761" spans="2:18" ht="58.5">
       <c r="B761" s="19">
-        <f t="shared" ref="B761" si="83">B757+1</f>
+        <f t="shared" ref="B761" si="82">B757+1</f>
         <v>190</v>
       </c>
       <c r="C761" s="6"/>
@@ -23541,7 +23310,7 @@
     </row>
     <row r="765" spans="2:18" ht="58.5">
       <c r="B765" s="19">
-        <f t="shared" ref="B765" si="84">B761+1</f>
+        <f t="shared" ref="B765" si="83">B761+1</f>
         <v>191</v>
       </c>
       <c r="C765" s="6"/>
@@ -23620,7 +23389,7 @@
     </row>
     <row r="769" spans="2:18" ht="58.5">
       <c r="B769" s="19">
-        <f t="shared" ref="B769" si="85">B765+1</f>
+        <f t="shared" ref="B769" si="84">B765+1</f>
         <v>192</v>
       </c>
       <c r="C769" s="6"/>
@@ -23699,7 +23468,7 @@
     </row>
     <row r="773" spans="2:18" ht="58.5">
       <c r="B773" s="19">
-        <f t="shared" ref="B773" si="86">B769+1</f>
+        <f t="shared" ref="B773" si="85">B769+1</f>
         <v>193</v>
       </c>
       <c r="C773" s="6"/>
@@ -23778,7 +23547,7 @@
     </row>
     <row r="777" spans="2:18" ht="58.5">
       <c r="B777" s="19">
-        <f t="shared" ref="B777" si="87">B773+1</f>
+        <f t="shared" ref="B777" si="86">B773+1</f>
         <v>194</v>
       </c>
       <c r="C777" s="6"/>
@@ -23857,7 +23626,7 @@
     </row>
     <row r="781" spans="2:18" ht="58.5">
       <c r="B781" s="19">
-        <f t="shared" ref="B781" si="88">B777+1</f>
+        <f t="shared" ref="B781" si="87">B777+1</f>
         <v>195</v>
       </c>
       <c r="C781" s="6"/>
@@ -23936,7 +23705,7 @@
     </row>
     <row r="785" spans="2:18" ht="58.5">
       <c r="B785" s="19">
-        <f t="shared" ref="B785" si="89">B781+1</f>
+        <f t="shared" ref="B785" si="88">B781+1</f>
         <v>196</v>
       </c>
       <c r="C785" s="6"/>
@@ -24015,7 +23784,7 @@
     </row>
     <row r="789" spans="2:18" ht="58.5">
       <c r="B789" s="19">
-        <f t="shared" ref="B789" si="90">B785+1</f>
+        <f t="shared" ref="B789" si="89">B785+1</f>
         <v>197</v>
       </c>
       <c r="C789" s="6"/>
@@ -24094,7 +23863,7 @@
     </row>
     <row r="793" spans="2:18" ht="58.5">
       <c r="B793" s="19">
-        <f t="shared" ref="B793" si="91">B789+1</f>
+        <f t="shared" ref="B793" si="90">B789+1</f>
         <v>198</v>
       </c>
       <c r="C793" s="6"/>
@@ -24173,7 +23942,7 @@
     </row>
     <row r="797" spans="2:18" ht="58.5">
       <c r="B797" s="19">
-        <f t="shared" ref="B797" si="92">B793+1</f>
+        <f t="shared" ref="B797" si="91">B793+1</f>
         <v>199</v>
       </c>
       <c r="C797" s="6"/>
@@ -24252,7 +24021,7 @@
     </row>
     <row r="801" spans="2:18" ht="58.5">
       <c r="B801" s="19">
-        <f t="shared" ref="B801" si="93">B797+1</f>
+        <f t="shared" ref="B801" si="92">B797+1</f>
         <v>200</v>
       </c>
       <c r="C801" s="6"/>
@@ -24331,7 +24100,7 @@
     </row>
     <row r="805" spans="2:18" ht="58.5">
       <c r="B805" s="19">
-        <f t="shared" ref="B805" si="94">B801+1</f>
+        <f t="shared" ref="B805" si="93">B801+1</f>
         <v>201</v>
       </c>
       <c r="C805" s="6"/>
@@ -26464,7 +26233,7 @@
     </row>
     <row r="913" spans="2:18" ht="58.5">
       <c r="B913" s="19">
-        <f t="shared" ref="B913" si="95">B909+1</f>
+        <f t="shared" ref="B913" si="94">B909+1</f>
         <v>228</v>
       </c>
       <c r="C913" s="6"/>
@@ -26543,7 +26312,7 @@
     </row>
     <row r="917" spans="2:18" ht="58.5">
       <c r="B917" s="19">
-        <f t="shared" ref="B917" si="96">B913+1</f>
+        <f t="shared" ref="B917" si="95">B913+1</f>
         <v>229</v>
       </c>
       <c r="C917" s="6"/>
@@ -26622,7 +26391,7 @@
     </row>
     <row r="921" spans="2:18" ht="58.5">
       <c r="B921" s="19">
-        <f t="shared" ref="B921" si="97">B917+1</f>
+        <f t="shared" ref="B921" si="96">B917+1</f>
         <v>230</v>
       </c>
       <c r="C921" s="6"/>
@@ -26701,7 +26470,7 @@
     </row>
     <row r="925" spans="2:18" ht="58.5">
       <c r="B925" s="19">
-        <f t="shared" ref="B925" si="98">B921+1</f>
+        <f t="shared" ref="B925" si="97">B921+1</f>
         <v>231</v>
       </c>
       <c r="C925" s="6"/>
@@ -26780,7 +26549,7 @@
     </row>
     <row r="929" spans="2:18" ht="58.5">
       <c r="B929" s="19">
-        <f t="shared" ref="B929" si="99">B925+1</f>
+        <f t="shared" ref="B929" si="98">B925+1</f>
         <v>232</v>
       </c>
       <c r="C929" s="6"/>
@@ -26859,7 +26628,7 @@
     </row>
     <row r="933" spans="2:18" ht="58.5">
       <c r="B933" s="19">
-        <f t="shared" ref="B933" si="100">B929+1</f>
+        <f t="shared" ref="B933" si="99">B929+1</f>
         <v>233</v>
       </c>
       <c r="C933" s="6"/>
@@ -26938,7 +26707,7 @@
     </row>
     <row r="937" spans="2:18" ht="58.5">
       <c r="B937" s="19">
-        <f t="shared" ref="B937" si="101">B933+1</f>
+        <f t="shared" ref="B937" si="100">B933+1</f>
         <v>234</v>
       </c>
       <c r="C937" s="6"/>
@@ -27017,7 +26786,7 @@
     </row>
     <row r="941" spans="2:18" ht="58.5">
       <c r="B941" s="19">
-        <f t="shared" ref="B941" si="102">B937+1</f>
+        <f t="shared" ref="B941" si="101">B937+1</f>
         <v>235</v>
       </c>
       <c r="C941" s="6"/>
@@ -27096,7 +26865,7 @@
     </row>
     <row r="945" spans="2:18" ht="58.5">
       <c r="B945" s="19">
-        <f t="shared" ref="B945" si="103">B941+1</f>
+        <f t="shared" ref="B945" si="102">B941+1</f>
         <v>236</v>
       </c>
       <c r="C945" s="6"/>
@@ -27175,7 +26944,7 @@
     </row>
     <row r="949" spans="2:18" ht="58.5">
       <c r="B949" s="19">
-        <f t="shared" ref="B949" si="104">B945+1</f>
+        <f t="shared" ref="B949" si="103">B945+1</f>
         <v>237</v>
       </c>
       <c r="C949" s="6"/>
@@ -27254,7 +27023,7 @@
     </row>
     <row r="953" spans="2:18" ht="58.5">
       <c r="B953" s="19">
-        <f t="shared" ref="B953" si="105">B949+1</f>
+        <f t="shared" ref="B953" si="104">B949+1</f>
         <v>238</v>
       </c>
       <c r="C953" s="6"/>
@@ -27333,7 +27102,7 @@
     </row>
     <row r="957" spans="2:18" ht="58.5">
       <c r="B957" s="19">
-        <f t="shared" ref="B957" si="106">B953+1</f>
+        <f t="shared" ref="B957" si="105">B953+1</f>
         <v>239</v>
       </c>
       <c r="C957" s="6"/>
@@ -27412,7 +27181,7 @@
     </row>
     <row r="961" spans="2:18" ht="58.5">
       <c r="B961" s="19">
-        <f t="shared" ref="B961" si="107">B957+1</f>
+        <f t="shared" ref="B961" si="106">B957+1</f>
         <v>240</v>
       </c>
       <c r="C961" s="6"/>
@@ -27491,7 +27260,7 @@
     </row>
     <row r="965" spans="2:18" ht="58.5">
       <c r="B965" s="19">
-        <f t="shared" ref="B965" si="108">B961+1</f>
+        <f t="shared" ref="B965" si="107">B961+1</f>
         <v>241</v>
       </c>
       <c r="C965" s="6"/>
@@ -27570,7 +27339,7 @@
     </row>
     <row r="969" spans="2:18" ht="58.5">
       <c r="B969" s="19">
-        <f t="shared" ref="B969" si="109">B965+1</f>
+        <f t="shared" ref="B969" si="108">B965+1</f>
         <v>242</v>
       </c>
       <c r="C969" s="6"/>
@@ -27649,7 +27418,7 @@
     </row>
     <row r="973" spans="2:18" ht="58.5">
       <c r="B973" s="19">
-        <f t="shared" ref="B973" si="110">B969+1</f>
+        <f t="shared" ref="B973" si="109">B969+1</f>
         <v>243</v>
       </c>
       <c r="C973" s="6"/>
@@ -27728,7 +27497,7 @@
     </row>
     <row r="977" spans="2:18" ht="58.5">
       <c r="B977" s="19">
-        <f t="shared" ref="B977" si="111">B973+1</f>
+        <f t="shared" ref="B977" si="110">B973+1</f>
         <v>244</v>
       </c>
       <c r="C977" s="6"/>
@@ -27807,7 +27576,7 @@
     </row>
     <row r="981" spans="2:18" ht="58.5">
       <c r="B981" s="19">
-        <f t="shared" ref="B981" si="112">B977+1</f>
+        <f t="shared" ref="B981" si="111">B977+1</f>
         <v>245</v>
       </c>
       <c r="C981" s="6"/>
@@ -27886,7 +27655,7 @@
     </row>
     <row r="985" spans="2:18" ht="58.5">
       <c r="B985" s="19">
-        <f t="shared" ref="B985" si="113">B981+1</f>
+        <f t="shared" ref="B985" si="112">B981+1</f>
         <v>246</v>
       </c>
       <c r="C985" s="6"/>
@@ -27965,7 +27734,7 @@
     </row>
     <row r="989" spans="2:18" ht="58.5">
       <c r="B989" s="19">
-        <f t="shared" ref="B989" si="114">B985+1</f>
+        <f t="shared" ref="B989" si="113">B985+1</f>
         <v>247</v>
       </c>
       <c r="C989" s="6"/>
@@ -28044,7 +27813,7 @@
     </row>
     <row r="993" spans="2:18" ht="58.5">
       <c r="B993" s="19">
-        <f t="shared" ref="B993" si="115">B989+1</f>
+        <f t="shared" ref="B993" si="114">B989+1</f>
         <v>248</v>
       </c>
       <c r="C993" s="6"/>
@@ -28123,7 +27892,7 @@
     </row>
     <row r="997" spans="2:18" ht="58.5">
       <c r="B997" s="19">
-        <f t="shared" ref="B997" si="116">B993+1</f>
+        <f t="shared" ref="B997" si="115">B993+1</f>
         <v>249</v>
       </c>
       <c r="C997" s="6"/>
@@ -28202,7 +27971,7 @@
     </row>
     <row r="1001" spans="2:18" ht="58.5">
       <c r="B1001" s="19">
-        <f t="shared" ref="B1001" si="117">B997+1</f>
+        <f t="shared" ref="B1001" si="116">B997+1</f>
         <v>250</v>
       </c>
       <c r="C1001" s="6"/>
@@ -30414,7 +30183,7 @@
     </row>
     <row r="1113" spans="2:18" ht="58.5">
       <c r="B1113" s="19">
-        <f t="shared" ref="B1113" si="118">B1109+1</f>
+        <f t="shared" ref="B1113" si="117">B1109+1</f>
         <v>278</v>
       </c>
       <c r="C1113" s="6"/>
@@ -30493,7 +30262,7 @@
     </row>
     <row r="1117" spans="2:18" ht="58.5">
       <c r="B1117" s="19">
-        <f t="shared" ref="B1117" si="119">B1113+1</f>
+        <f t="shared" ref="B1117" si="118">B1113+1</f>
         <v>279</v>
       </c>
       <c r="C1117" s="6"/>
@@ -30572,7 +30341,7 @@
     </row>
     <row r="1121" spans="2:18" ht="58.5">
       <c r="B1121" s="19">
-        <f t="shared" ref="B1121" si="120">B1117+1</f>
+        <f t="shared" ref="B1121" si="119">B1117+1</f>
         <v>280</v>
       </c>
       <c r="C1121" s="6"/>
@@ -30651,7 +30420,7 @@
     </row>
     <row r="1125" spans="2:18" ht="58.5">
       <c r="B1125" s="19">
-        <f t="shared" ref="B1125" si="121">B1121+1</f>
+        <f t="shared" ref="B1125" si="120">B1121+1</f>
         <v>281</v>
       </c>
       <c r="C1125" s="6"/>
@@ -30730,7 +30499,7 @@
     </row>
     <row r="1129" spans="2:18" ht="58.5">
       <c r="B1129" s="19">
-        <f t="shared" ref="B1129" si="122">B1125+1</f>
+        <f t="shared" ref="B1129" si="121">B1125+1</f>
         <v>282</v>
       </c>
       <c r="C1129" s="6"/>
@@ -30809,7 +30578,7 @@
     </row>
     <row r="1133" spans="2:18" ht="58.5">
       <c r="B1133" s="19">
-        <f t="shared" ref="B1133" si="123">B1129+1</f>
+        <f t="shared" ref="B1133" si="122">B1129+1</f>
         <v>283</v>
       </c>
       <c r="C1133" s="6"/>
@@ -30888,7 +30657,7 @@
     </row>
     <row r="1137" spans="2:18" ht="58.5">
       <c r="B1137" s="19">
-        <f t="shared" ref="B1137" si="124">B1133+1</f>
+        <f t="shared" ref="B1137" si="123">B1133+1</f>
         <v>284</v>
       </c>
       <c r="C1137" s="6"/>
@@ -30967,7 +30736,7 @@
     </row>
     <row r="1141" spans="2:18" ht="58.5">
       <c r="B1141" s="19">
-        <f t="shared" ref="B1141" si="125">B1137+1</f>
+        <f t="shared" ref="B1141" si="124">B1137+1</f>
         <v>285</v>
       </c>
       <c r="C1141" s="6"/>
@@ -31046,7 +30815,7 @@
     </row>
     <row r="1145" spans="2:18" ht="58.5">
       <c r="B1145" s="19">
-        <f t="shared" ref="B1145" si="126">B1141+1</f>
+        <f t="shared" ref="B1145" si="125">B1141+1</f>
         <v>286</v>
       </c>
       <c r="C1145" s="6"/>
@@ -31125,7 +30894,7 @@
     </row>
     <row r="1149" spans="2:18" ht="58.5">
       <c r="B1149" s="19">
-        <f t="shared" ref="B1149" si="127">B1145+1</f>
+        <f t="shared" ref="B1149" si="126">B1145+1</f>
         <v>287</v>
       </c>
       <c r="C1149" s="6"/>
@@ -31204,7 +30973,7 @@
     </row>
     <row r="1153" spans="2:18" ht="58.5">
       <c r="B1153" s="19">
-        <f t="shared" ref="B1153" si="128">B1149+1</f>
+        <f t="shared" ref="B1153" si="127">B1149+1</f>
         <v>288</v>
       </c>
       <c r="C1153" s="6"/>
@@ -31283,7 +31052,7 @@
     </row>
     <row r="1157" spans="2:18" ht="58.5">
       <c r="B1157" s="19">
-        <f t="shared" ref="B1157" si="129">B1153+1</f>
+        <f t="shared" ref="B1157" si="128">B1153+1</f>
         <v>289</v>
       </c>
       <c r="C1157" s="6"/>
@@ -31362,7 +31131,7 @@
     </row>
     <row r="1161" spans="2:18" ht="58.5">
       <c r="B1161" s="19">
-        <f t="shared" ref="B1161" si="130">B1157+1</f>
+        <f t="shared" ref="B1161" si="129">B1157+1</f>
         <v>290</v>
       </c>
       <c r="C1161" s="6"/>
@@ -31441,7 +31210,7 @@
     </row>
     <row r="1165" spans="2:18" ht="58.5">
       <c r="B1165" s="19">
-        <f t="shared" ref="B1165" si="131">B1161+1</f>
+        <f t="shared" ref="B1165" si="130">B1161+1</f>
         <v>291</v>
       </c>
       <c r="C1165" s="6"/>
@@ -31520,7 +31289,7 @@
     </row>
     <row r="1169" spans="2:18" ht="58.5">
       <c r="B1169" s="19">
-        <f t="shared" ref="B1169" si="132">B1165+1</f>
+        <f t="shared" ref="B1169" si="131">B1165+1</f>
         <v>292</v>
       </c>
       <c r="C1169" s="6"/>
@@ -31599,7 +31368,7 @@
     </row>
     <row r="1173" spans="2:18" ht="58.5">
       <c r="B1173" s="19">
-        <f t="shared" ref="B1173" si="133">B1169+1</f>
+        <f t="shared" ref="B1173" si="132">B1169+1</f>
         <v>293</v>
       </c>
       <c r="C1173" s="6"/>
@@ -31678,7 +31447,7 @@
     </row>
     <row r="1177" spans="2:18" ht="58.5">
       <c r="B1177" s="19">
-        <f t="shared" ref="B1177" si="134">B1173+1</f>
+        <f t="shared" ref="B1177" si="133">B1173+1</f>
         <v>294</v>
       </c>
       <c r="C1177" s="6"/>
@@ -31757,7 +31526,7 @@
     </row>
     <row r="1181" spans="2:18" ht="58.5">
       <c r="B1181" s="19">
-        <f t="shared" ref="B1181" si="135">B1177+1</f>
+        <f t="shared" ref="B1181" si="134">B1177+1</f>
         <v>295</v>
       </c>
       <c r="C1181" s="6"/>
@@ -31836,7 +31605,7 @@
     </row>
     <row r="1185" spans="2:18" ht="58.5">
       <c r="B1185" s="19">
-        <f t="shared" ref="B1185" si="136">B1181+1</f>
+        <f t="shared" ref="B1185" si="135">B1181+1</f>
         <v>296</v>
       </c>
       <c r="C1185" s="6"/>
@@ -31915,7 +31684,7 @@
     </row>
     <row r="1189" spans="2:18" ht="58.5">
       <c r="B1189" s="19">
-        <f t="shared" ref="B1189" si="137">B1185+1</f>
+        <f t="shared" ref="B1189" si="136">B1185+1</f>
         <v>297</v>
       </c>
       <c r="C1189" s="6"/>
@@ -31994,7 +31763,7 @@
     </row>
     <row r="1193" spans="2:18" ht="58.5">
       <c r="B1193" s="19">
-        <f t="shared" ref="B1193" si="138">B1189+1</f>
+        <f t="shared" ref="B1193" si="137">B1189+1</f>
         <v>298</v>
       </c>
       <c r="C1193" s="6"/>
@@ -32073,7 +31842,7 @@
     </row>
     <row r="1197" spans="2:18" ht="58.5">
       <c r="B1197" s="19">
-        <f t="shared" ref="B1197" si="139">B1193+1</f>
+        <f t="shared" ref="B1197" si="138">B1193+1</f>
         <v>299</v>
       </c>
       <c r="C1197" s="6"/>
@@ -32152,7 +31921,7 @@
     </row>
     <row r="1201" spans="2:18" ht="58.5">
       <c r="B1201" s="19">
-        <f t="shared" ref="B1201" si="140">B1197+1</f>
+        <f t="shared" ref="B1201" si="139">B1197+1</f>
         <v>300</v>
       </c>
       <c r="C1201" s="6"/>
@@ -32231,7 +32000,7 @@
     </row>
     <row r="1205" spans="2:18" ht="58.5">
       <c r="B1205" s="19">
-        <f t="shared" ref="B1205" si="141">B1201+1</f>
+        <f t="shared" ref="B1205" si="140">B1201+1</f>
         <v>301</v>
       </c>
       <c r="C1205" s="6"/>
@@ -34364,7 +34133,7 @@
     </row>
     <row r="1313" spans="2:18" ht="58.5">
       <c r="B1313" s="19">
-        <f t="shared" ref="B1313" si="142">B1309+1</f>
+        <f t="shared" ref="B1313" si="141">B1309+1</f>
         <v>328</v>
       </c>
       <c r="C1313" s="6"/>
@@ -34443,7 +34212,7 @@
     </row>
     <row r="1317" spans="2:18" ht="58.5">
       <c r="B1317" s="19">
-        <f t="shared" ref="B1317" si="143">B1313+1</f>
+        <f t="shared" ref="B1317" si="142">B1313+1</f>
         <v>329</v>
       </c>
       <c r="C1317" s="6"/>
@@ -34522,7 +34291,7 @@
     </row>
     <row r="1321" spans="2:18" ht="58.5">
       <c r="B1321" s="19">
-        <f t="shared" ref="B1321" si="144">B1317+1</f>
+        <f t="shared" ref="B1321" si="143">B1317+1</f>
         <v>330</v>
       </c>
       <c r="C1321" s="6"/>
@@ -34601,7 +34370,7 @@
     </row>
     <row r="1325" spans="2:18" ht="58.5">
       <c r="B1325" s="19">
-        <f t="shared" ref="B1325" si="145">B1321+1</f>
+        <f t="shared" ref="B1325" si="144">B1321+1</f>
         <v>331</v>
       </c>
       <c r="C1325" s="6"/>
@@ -34680,7 +34449,7 @@
     </row>
     <row r="1329" spans="2:18" ht="58.5">
       <c r="B1329" s="19">
-        <f t="shared" ref="B1329" si="146">B1325+1</f>
+        <f t="shared" ref="B1329" si="145">B1325+1</f>
         <v>332</v>
       </c>
       <c r="C1329" s="6"/>
@@ -34759,7 +34528,7 @@
     </row>
     <row r="1333" spans="2:18" ht="58.5">
       <c r="B1333" s="19">
-        <f t="shared" ref="B1333" si="147">B1329+1</f>
+        <f t="shared" ref="B1333" si="146">B1329+1</f>
         <v>333</v>
       </c>
       <c r="C1333" s="6"/>
@@ -34838,7 +34607,7 @@
     </row>
     <row r="1337" spans="2:18" ht="58.5">
       <c r="B1337" s="19">
-        <f t="shared" ref="B1337" si="148">B1333+1</f>
+        <f t="shared" ref="B1337" si="147">B1333+1</f>
         <v>334</v>
       </c>
       <c r="C1337" s="6"/>
@@ -34917,7 +34686,7 @@
     </row>
     <row r="1341" spans="2:18" ht="58.5">
       <c r="B1341" s="19">
-        <f t="shared" ref="B1341" si="149">B1337+1</f>
+        <f t="shared" ref="B1341" si="148">B1337+1</f>
         <v>335</v>
       </c>
       <c r="C1341" s="6"/>
@@ -34996,7 +34765,7 @@
     </row>
     <row r="1345" spans="2:18" ht="58.5">
       <c r="B1345" s="19">
-        <f t="shared" ref="B1345" si="150">B1341+1</f>
+        <f t="shared" ref="B1345" si="149">B1341+1</f>
         <v>336</v>
       </c>
       <c r="C1345" s="6"/>
@@ -35075,7 +34844,7 @@
     </row>
     <row r="1349" spans="2:18" ht="58.5">
       <c r="B1349" s="19">
-        <f t="shared" ref="B1349" si="151">B1345+1</f>
+        <f t="shared" ref="B1349" si="150">B1345+1</f>
         <v>337</v>
       </c>
       <c r="C1349" s="6"/>
@@ -35154,7 +34923,7 @@
     </row>
     <row r="1353" spans="2:18" ht="58.5">
       <c r="B1353" s="19">
-        <f t="shared" ref="B1353" si="152">B1349+1</f>
+        <f t="shared" ref="B1353" si="151">B1349+1</f>
         <v>338</v>
       </c>
       <c r="C1353" s="6"/>
@@ -35233,7 +35002,7 @@
     </row>
     <row r="1357" spans="2:18" ht="58.5">
       <c r="B1357" s="19">
-        <f t="shared" ref="B1357" si="153">B1353+1</f>
+        <f t="shared" ref="B1357" si="152">B1353+1</f>
         <v>339</v>
       </c>
       <c r="C1357" s="6"/>
@@ -35312,7 +35081,7 @@
     </row>
     <row r="1361" spans="2:18" ht="58.5">
       <c r="B1361" s="19">
-        <f t="shared" ref="B1361" si="154">B1357+1</f>
+        <f t="shared" ref="B1361" si="153">B1357+1</f>
         <v>340</v>
       </c>
       <c r="C1361" s="6"/>
@@ -35391,7 +35160,7 @@
     </row>
     <row r="1365" spans="2:18" ht="58.5">
       <c r="B1365" s="19">
-        <f t="shared" ref="B1365" si="155">B1361+1</f>
+        <f t="shared" ref="B1365" si="154">B1361+1</f>
         <v>341</v>
       </c>
       <c r="C1365" s="6"/>
@@ -35470,7 +35239,7 @@
     </row>
     <row r="1369" spans="2:18" ht="58.5">
       <c r="B1369" s="19">
-        <f t="shared" ref="B1369" si="156">B1365+1</f>
+        <f t="shared" ref="B1369" si="155">B1365+1</f>
         <v>342</v>
       </c>
       <c r="C1369" s="6"/>
@@ -35549,7 +35318,7 @@
     </row>
     <row r="1373" spans="2:18" ht="58.5">
       <c r="B1373" s="19">
-        <f t="shared" ref="B1373" si="157">B1369+1</f>
+        <f t="shared" ref="B1373" si="156">B1369+1</f>
         <v>343</v>
       </c>
       <c r="C1373" s="6"/>
@@ -35628,7 +35397,7 @@
     </row>
     <row r="1377" spans="2:18" ht="58.5">
       <c r="B1377" s="19">
-        <f t="shared" ref="B1377" si="158">B1373+1</f>
+        <f t="shared" ref="B1377" si="157">B1373+1</f>
         <v>344</v>
       </c>
       <c r="C1377" s="6"/>
@@ -35707,7 +35476,7 @@
     </row>
     <row r="1381" spans="2:18" ht="58.5">
       <c r="B1381" s="19">
-        <f t="shared" ref="B1381" si="159">B1377+1</f>
+        <f t="shared" ref="B1381" si="158">B1377+1</f>
         <v>345</v>
       </c>
       <c r="C1381" s="6"/>
@@ -35786,7 +35555,7 @@
     </row>
     <row r="1385" spans="2:18" ht="58.5">
       <c r="B1385" s="19">
-        <f t="shared" ref="B1385" si="160">B1381+1</f>
+        <f t="shared" ref="B1385" si="159">B1381+1</f>
         <v>346</v>
       </c>
       <c r="C1385" s="6"/>
@@ -35865,7 +35634,7 @@
     </row>
     <row r="1389" spans="2:18" ht="58.5">
       <c r="B1389" s="19">
-        <f t="shared" ref="B1389" si="161">B1385+1</f>
+        <f t="shared" ref="B1389" si="160">B1385+1</f>
         <v>347</v>
       </c>
       <c r="C1389" s="6"/>
@@ -35944,7 +35713,7 @@
     </row>
     <row r="1393" spans="2:18" ht="58.5">
       <c r="B1393" s="19">
-        <f t="shared" ref="B1393" si="162">B1389+1</f>
+        <f t="shared" ref="B1393" si="161">B1389+1</f>
         <v>348</v>
       </c>
       <c r="C1393" s="6"/>
@@ -36023,7 +35792,7 @@
     </row>
     <row r="1397" spans="2:18" ht="58.5">
       <c r="B1397" s="19">
-        <f t="shared" ref="B1397" si="163">B1393+1</f>
+        <f t="shared" ref="B1397" si="162">B1393+1</f>
         <v>349</v>
       </c>
       <c r="C1397" s="6"/>
@@ -36102,7 +35871,7 @@
     </row>
     <row r="1401" spans="2:18" ht="58.5">
       <c r="B1401" s="19">
-        <f t="shared" ref="B1401" si="164">B1397+1</f>
+        <f t="shared" ref="B1401" si="163">B1397+1</f>
         <v>350</v>
       </c>
       <c r="C1401" s="6"/>
@@ -38314,7 +38083,7 @@
     </row>
     <row r="1513" spans="2:18" ht="58.5">
       <c r="B1513" s="19">
-        <f t="shared" ref="B1513" si="165">B1509+1</f>
+        <f t="shared" ref="B1513" si="164">B1509+1</f>
         <v>378</v>
       </c>
       <c r="C1513" s="6"/>
@@ -38393,7 +38162,7 @@
     </row>
     <row r="1517" spans="2:18" ht="58.5">
       <c r="B1517" s="19">
-        <f t="shared" ref="B1517" si="166">B1513+1</f>
+        <f t="shared" ref="B1517" si="165">B1513+1</f>
         <v>379</v>
       </c>
       <c r="C1517" s="6"/>
@@ -38472,7 +38241,7 @@
     </row>
     <row r="1521" spans="2:18" ht="58.5">
       <c r="B1521" s="19">
-        <f t="shared" ref="B1521" si="167">B1517+1</f>
+        <f t="shared" ref="B1521" si="166">B1517+1</f>
         <v>380</v>
       </c>
       <c r="C1521" s="6"/>
@@ -38551,7 +38320,7 @@
     </row>
     <row r="1525" spans="2:18" ht="58.5">
       <c r="B1525" s="19">
-        <f t="shared" ref="B1525" si="168">B1521+1</f>
+        <f t="shared" ref="B1525" si="167">B1521+1</f>
         <v>381</v>
       </c>
       <c r="C1525" s="6"/>
@@ -38630,7 +38399,7 @@
     </row>
     <row r="1529" spans="2:18" ht="58.5">
       <c r="B1529" s="19">
-        <f t="shared" ref="B1529" si="169">B1525+1</f>
+        <f t="shared" ref="B1529" si="168">B1525+1</f>
         <v>382</v>
       </c>
       <c r="C1529" s="6"/>
@@ -38709,7 +38478,7 @@
     </row>
     <row r="1533" spans="2:18" ht="58.5">
       <c r="B1533" s="19">
-        <f t="shared" ref="B1533" si="170">B1529+1</f>
+        <f t="shared" ref="B1533" si="169">B1529+1</f>
         <v>383</v>
       </c>
       <c r="C1533" s="6"/>
@@ -38788,7 +38557,7 @@
     </row>
     <row r="1537" spans="2:18" ht="58.5">
       <c r="B1537" s="19">
-        <f t="shared" ref="B1537" si="171">B1533+1</f>
+        <f t="shared" ref="B1537" si="170">B1533+1</f>
         <v>384</v>
       </c>
       <c r="C1537" s="6"/>
@@ -38867,7 +38636,7 @@
     </row>
     <row r="1541" spans="2:18" ht="58.5">
       <c r="B1541" s="19">
-        <f t="shared" ref="B1541" si="172">B1537+1</f>
+        <f t="shared" ref="B1541" si="171">B1537+1</f>
         <v>385</v>
       </c>
       <c r="C1541" s="6"/>
@@ -38946,7 +38715,7 @@
     </row>
     <row r="1545" spans="2:18" ht="58.5">
       <c r="B1545" s="19">
-        <f t="shared" ref="B1545" si="173">B1541+1</f>
+        <f t="shared" ref="B1545" si="172">B1541+1</f>
         <v>386</v>
       </c>
       <c r="C1545" s="6"/>
@@ -39025,7 +38794,7 @@
     </row>
     <row r="1549" spans="2:18" ht="58.5">
       <c r="B1549" s="19">
-        <f t="shared" ref="B1549" si="174">B1545+1</f>
+        <f t="shared" ref="B1549" si="173">B1545+1</f>
         <v>387</v>
       </c>
       <c r="C1549" s="6"/>
@@ -39104,7 +38873,7 @@
     </row>
     <row r="1553" spans="2:18" ht="58.5">
       <c r="B1553" s="19">
-        <f t="shared" ref="B1553" si="175">B1549+1</f>
+        <f t="shared" ref="B1553" si="174">B1549+1</f>
         <v>388</v>
       </c>
       <c r="C1553" s="6"/>
@@ -39183,7 +38952,7 @@
     </row>
     <row r="1557" spans="2:18" ht="58.5">
       <c r="B1557" s="19">
-        <f t="shared" ref="B1557" si="176">B1553+1</f>
+        <f t="shared" ref="B1557" si="175">B1553+1</f>
         <v>389</v>
       </c>
       <c r="C1557" s="6"/>
@@ -39262,7 +39031,7 @@
     </row>
     <row r="1561" spans="2:18" ht="58.5">
       <c r="B1561" s="19">
-        <f t="shared" ref="B1561" si="177">B1557+1</f>
+        <f t="shared" ref="B1561" si="176">B1557+1</f>
         <v>390</v>
       </c>
       <c r="C1561" s="6"/>
@@ -39341,7 +39110,7 @@
     </row>
     <row r="1565" spans="2:18" ht="58.5">
       <c r="B1565" s="19">
-        <f t="shared" ref="B1565" si="178">B1561+1</f>
+        <f t="shared" ref="B1565" si="177">B1561+1</f>
         <v>391</v>
       </c>
       <c r="C1565" s="6"/>
@@ -39420,7 +39189,7 @@
     </row>
     <row r="1569" spans="2:18" ht="58.5">
       <c r="B1569" s="19">
-        <f t="shared" ref="B1569" si="179">B1565+1</f>
+        <f t="shared" ref="B1569" si="178">B1565+1</f>
         <v>392</v>
       </c>
       <c r="C1569" s="6"/>
@@ -39499,7 +39268,7 @@
     </row>
     <row r="1573" spans="2:18" ht="58.5">
       <c r="B1573" s="19">
-        <f t="shared" ref="B1573" si="180">B1569+1</f>
+        <f t="shared" ref="B1573" si="179">B1569+1</f>
         <v>393</v>
       </c>
       <c r="C1573" s="6"/>
@@ -39578,7 +39347,7 @@
     </row>
     <row r="1577" spans="2:18" ht="58.5">
       <c r="B1577" s="19">
-        <f t="shared" ref="B1577" si="181">B1573+1</f>
+        <f t="shared" ref="B1577" si="180">B1573+1</f>
         <v>394</v>
       </c>
       <c r="C1577" s="6"/>
@@ -39657,7 +39426,7 @@
     </row>
     <row r="1581" spans="2:18" ht="58.5">
       <c r="B1581" s="19">
-        <f t="shared" ref="B1581" si="182">B1577+1</f>
+        <f t="shared" ref="B1581" si="181">B1577+1</f>
         <v>395</v>
       </c>
       <c r="C1581" s="6"/>
@@ -39736,7 +39505,7 @@
     </row>
     <row r="1585" spans="2:18" ht="58.5">
       <c r="B1585" s="19">
-        <f t="shared" ref="B1585" si="183">B1581+1</f>
+        <f t="shared" ref="B1585" si="182">B1581+1</f>
         <v>396</v>
       </c>
       <c r="C1585" s="6"/>
@@ -39815,7 +39584,7 @@
     </row>
     <row r="1589" spans="2:18" ht="58.5">
       <c r="B1589" s="19">
-        <f t="shared" ref="B1589" si="184">B1585+1</f>
+        <f t="shared" ref="B1589" si="183">B1585+1</f>
         <v>397</v>
       </c>
       <c r="C1589" s="6"/>
@@ -39894,7 +39663,7 @@
     </row>
     <row r="1593" spans="2:18" ht="58.5">
       <c r="B1593" s="19">
-        <f t="shared" ref="B1593" si="185">B1589+1</f>
+        <f t="shared" ref="B1593" si="184">B1589+1</f>
         <v>398</v>
       </c>
       <c r="C1593" s="6"/>
@@ -39973,7 +39742,7 @@
     </row>
     <row r="1597" spans="2:18" ht="58.5">
       <c r="B1597" s="19">
-        <f t="shared" ref="B1597" si="186">B1593+1</f>
+        <f t="shared" ref="B1597" si="185">B1593+1</f>
         <v>399</v>
       </c>
       <c r="C1597" s="6"/>
@@ -40052,7 +39821,7 @@
     </row>
     <row r="1601" spans="2:18" ht="58.5">
       <c r="B1601" s="19">
-        <f t="shared" ref="B1601" si="187">B1597+1</f>
+        <f t="shared" ref="B1601" si="186">B1597+1</f>
         <v>400</v>
       </c>
       <c r="C1601" s="6"/>
@@ -40131,7 +39900,7 @@
     </row>
     <row r="1605" spans="2:18" ht="58.5">
       <c r="B1605" s="19">
-        <f t="shared" ref="B1605" si="188">B1601+1</f>
+        <f t="shared" ref="B1605" si="187">B1601+1</f>
         <v>401</v>
       </c>
       <c r="C1605" s="6"/>
@@ -42264,7 +42033,7 @@
     </row>
     <row r="1713" spans="2:18" ht="58.5">
       <c r="B1713" s="19">
-        <f t="shared" ref="B1713" si="189">B1709+1</f>
+        <f t="shared" ref="B1713" si="188">B1709+1</f>
         <v>428</v>
       </c>
       <c r="C1713" s="6"/>
@@ -42343,7 +42112,7 @@
     </row>
     <row r="1717" spans="2:18" ht="58.5">
       <c r="B1717" s="19">
-        <f t="shared" ref="B1717" si="190">B1713+1</f>
+        <f t="shared" ref="B1717" si="189">B1713+1</f>
         <v>429</v>
       </c>
       <c r="C1717" s="6"/>
@@ -42422,7 +42191,7 @@
     </row>
     <row r="1721" spans="2:18" ht="58.5">
       <c r="B1721" s="19">
-        <f t="shared" ref="B1721" si="191">B1717+1</f>
+        <f t="shared" ref="B1721" si="190">B1717+1</f>
         <v>430</v>
       </c>
       <c r="C1721" s="6"/>
@@ -42501,7 +42270,7 @@
     </row>
     <row r="1725" spans="2:18" ht="58.5">
       <c r="B1725" s="19">
-        <f t="shared" ref="B1725" si="192">B1721+1</f>
+        <f t="shared" ref="B1725" si="191">B1721+1</f>
         <v>431</v>
       </c>
       <c r="C1725" s="6"/>
@@ -42580,7 +42349,7 @@
     </row>
     <row r="1729" spans="2:18" ht="58.5">
       <c r="B1729" s="19">
-        <f t="shared" ref="B1729" si="193">B1725+1</f>
+        <f t="shared" ref="B1729" si="192">B1725+1</f>
         <v>432</v>
       </c>
       <c r="C1729" s="6"/>
@@ -42659,7 +42428,7 @@
     </row>
     <row r="1733" spans="2:18" ht="58.5">
       <c r="B1733" s="19">
-        <f t="shared" ref="B1733" si="194">B1729+1</f>
+        <f t="shared" ref="B1733" si="193">B1729+1</f>
         <v>433</v>
       </c>
       <c r="C1733" s="6"/>
@@ -42738,7 +42507,7 @@
     </row>
     <row r="1737" spans="2:18" ht="58.5">
       <c r="B1737" s="19">
-        <f t="shared" ref="B1737" si="195">B1733+1</f>
+        <f t="shared" ref="B1737" si="194">B1733+1</f>
         <v>434</v>
       </c>
       <c r="C1737" s="6"/>
@@ -42817,7 +42586,7 @@
     </row>
     <row r="1741" spans="2:18" ht="58.5">
       <c r="B1741" s="19">
-        <f t="shared" ref="B1741" si="196">B1737+1</f>
+        <f t="shared" ref="B1741" si="195">B1737+1</f>
         <v>435</v>
       </c>
       <c r="C1741" s="6"/>
@@ -42896,7 +42665,7 @@
     </row>
     <row r="1745" spans="2:18" ht="58.5">
       <c r="B1745" s="19">
-        <f t="shared" ref="B1745" si="197">B1741+1</f>
+        <f t="shared" ref="B1745" si="196">B1741+1</f>
         <v>436</v>
       </c>
       <c r="C1745" s="6"/>
@@ -42975,7 +42744,7 @@
     </row>
     <row r="1749" spans="2:18" ht="58.5">
       <c r="B1749" s="19">
-        <f t="shared" ref="B1749" si="198">B1745+1</f>
+        <f t="shared" ref="B1749" si="197">B1745+1</f>
         <v>437</v>
       </c>
       <c r="C1749" s="6"/>
@@ -43054,7 +42823,7 @@
     </row>
     <row r="1753" spans="2:18" ht="58.5">
       <c r="B1753" s="19">
-        <f t="shared" ref="B1753" si="199">B1749+1</f>
+        <f t="shared" ref="B1753" si="198">B1749+1</f>
         <v>438</v>
       </c>
       <c r="C1753" s="6"/>
@@ -43133,7 +42902,7 @@
     </row>
     <row r="1757" spans="2:18" ht="58.5">
       <c r="B1757" s="19">
-        <f t="shared" ref="B1757" si="200">B1753+1</f>
+        <f t="shared" ref="B1757" si="199">B1753+1</f>
         <v>439</v>
       </c>
       <c r="C1757" s="6"/>
@@ -43212,7 +42981,7 @@
     </row>
     <row r="1761" spans="2:18" ht="58.5">
       <c r="B1761" s="19">
-        <f t="shared" ref="B1761" si="201">B1757+1</f>
+        <f t="shared" ref="B1761" si="200">B1757+1</f>
         <v>440</v>
       </c>
       <c r="C1761" s="6"/>
@@ -43291,7 +43060,7 @@
     </row>
     <row r="1765" spans="2:18" ht="58.5">
       <c r="B1765" s="19">
-        <f t="shared" ref="B1765" si="202">B1761+1</f>
+        <f t="shared" ref="B1765" si="201">B1761+1</f>
         <v>441</v>
       </c>
       <c r="C1765" s="6"/>
@@ -43370,7 +43139,7 @@
     </row>
     <row r="1769" spans="2:18" ht="58.5">
       <c r="B1769" s="19">
-        <f t="shared" ref="B1769" si="203">B1765+1</f>
+        <f t="shared" ref="B1769" si="202">B1765+1</f>
         <v>442</v>
       </c>
       <c r="C1769" s="6"/>
@@ -43449,7 +43218,7 @@
     </row>
     <row r="1773" spans="2:18" ht="58.5">
       <c r="B1773" s="19">
-        <f t="shared" ref="B1773" si="204">B1769+1</f>
+        <f t="shared" ref="B1773" si="203">B1769+1</f>
         <v>443</v>
       </c>
       <c r="C1773" s="6"/>
@@ -43528,7 +43297,7 @@
     </row>
     <row r="1777" spans="2:18" ht="58.5">
       <c r="B1777" s="19">
-        <f t="shared" ref="B1777" si="205">B1773+1</f>
+        <f t="shared" ref="B1777" si="204">B1773+1</f>
         <v>444</v>
       </c>
       <c r="C1777" s="6"/>
@@ -43607,7 +43376,7 @@
     </row>
     <row r="1781" spans="2:18" ht="58.5">
       <c r="B1781" s="19">
-        <f t="shared" ref="B1781" si="206">B1777+1</f>
+        <f t="shared" ref="B1781" si="205">B1777+1</f>
         <v>445</v>
       </c>
       <c r="C1781" s="6"/>
@@ -43686,7 +43455,7 @@
     </row>
     <row r="1785" spans="2:18" ht="58.5">
       <c r="B1785" s="19">
-        <f t="shared" ref="B1785" si="207">B1781+1</f>
+        <f t="shared" ref="B1785" si="206">B1781+1</f>
         <v>446</v>
       </c>
       <c r="C1785" s="6"/>
@@ -43765,7 +43534,7 @@
     </row>
     <row r="1789" spans="2:18" ht="58.5">
       <c r="B1789" s="19">
-        <f t="shared" ref="B1789" si="208">B1785+1</f>
+        <f t="shared" ref="B1789" si="207">B1785+1</f>
         <v>447</v>
       </c>
       <c r="C1789" s="6"/>
@@ -43844,7 +43613,7 @@
     </row>
     <row r="1793" spans="2:18" ht="58.5">
       <c r="B1793" s="19">
-        <f t="shared" ref="B1793" si="209">B1789+1</f>
+        <f t="shared" ref="B1793" si="208">B1789+1</f>
         <v>448</v>
       </c>
       <c r="C1793" s="6"/>
@@ -43923,7 +43692,7 @@
     </row>
     <row r="1797" spans="2:18" ht="58.5">
       <c r="B1797" s="19">
-        <f t="shared" ref="B1797" si="210">B1793+1</f>
+        <f t="shared" ref="B1797" si="209">B1793+1</f>
         <v>449</v>
       </c>
       <c r="C1797" s="6"/>
@@ -44002,7 +43771,7 @@
     </row>
     <row r="1801" spans="2:18" ht="58.5">
       <c r="B1801" s="19">
-        <f t="shared" ref="B1801" si="211">B1797+1</f>
+        <f t="shared" ref="B1801" si="210">B1797+1</f>
         <v>450</v>
       </c>
       <c r="C1801" s="6"/>
@@ -46214,7 +45983,7 @@
     </row>
     <row r="1913" spans="2:18" ht="58.5">
       <c r="B1913" s="19">
-        <f t="shared" ref="B1913" si="212">B1909+1</f>
+        <f t="shared" ref="B1913" si="211">B1909+1</f>
         <v>478</v>
       </c>
       <c r="C1913" s="6"/>
@@ -46293,7 +46062,7 @@
     </row>
     <row r="1917" spans="2:18" ht="58.5">
       <c r="B1917" s="19">
-        <f t="shared" ref="B1917" si="213">B1913+1</f>
+        <f t="shared" ref="B1917" si="212">B1913+1</f>
         <v>479</v>
       </c>
       <c r="C1917" s="6"/>
@@ -46372,7 +46141,7 @@
     </row>
     <row r="1921" spans="2:18" ht="58.5">
       <c r="B1921" s="19">
-        <f t="shared" ref="B1921" si="214">B1917+1</f>
+        <f t="shared" ref="B1921" si="213">B1917+1</f>
         <v>480</v>
       </c>
       <c r="C1921" s="6"/>
@@ -46451,7 +46220,7 @@
     </row>
     <row r="1925" spans="2:18" ht="58.5">
       <c r="B1925" s="19">
-        <f t="shared" ref="B1925" si="215">B1921+1</f>
+        <f t="shared" ref="B1925" si="214">B1921+1</f>
         <v>481</v>
       </c>
       <c r="C1925" s="6"/>
@@ -46530,7 +46299,7 @@
     </row>
     <row r="1929" spans="2:18" ht="58.5">
       <c r="B1929" s="19">
-        <f t="shared" ref="B1929" si="216">B1925+1</f>
+        <f t="shared" ref="B1929" si="215">B1925+1</f>
         <v>482</v>
       </c>
       <c r="C1929" s="6"/>
@@ -46609,7 +46378,7 @@
     </row>
     <row r="1933" spans="2:18" ht="58.5">
       <c r="B1933" s="19">
-        <f t="shared" ref="B1933" si="217">B1929+1</f>
+        <f t="shared" ref="B1933" si="216">B1929+1</f>
         <v>483</v>
       </c>
       <c r="C1933" s="6"/>
@@ -46688,7 +46457,7 @@
     </row>
     <row r="1937" spans="2:18" ht="58.5">
       <c r="B1937" s="19">
-        <f t="shared" ref="B1937" si="218">B1933+1</f>
+        <f t="shared" ref="B1937" si="217">B1933+1</f>
         <v>484</v>
       </c>
       <c r="C1937" s="6"/>
@@ -46767,7 +46536,7 @@
     </row>
     <row r="1941" spans="2:18" ht="58.5">
       <c r="B1941" s="19">
-        <f t="shared" ref="B1941" si="219">B1937+1</f>
+        <f t="shared" ref="B1941" si="218">B1937+1</f>
         <v>485</v>
       </c>
       <c r="C1941" s="6"/>
@@ -46846,7 +46615,7 @@
     </row>
     <row r="1945" spans="2:18" ht="58.5">
       <c r="B1945" s="19">
-        <f t="shared" ref="B1945" si="220">B1941+1</f>
+        <f t="shared" ref="B1945" si="219">B1941+1</f>
         <v>486</v>
       </c>
       <c r="C1945" s="6"/>
@@ -46925,7 +46694,7 @@
     </row>
     <row r="1949" spans="2:18" ht="58.5">
       <c r="B1949" s="19">
-        <f t="shared" ref="B1949" si="221">B1945+1</f>
+        <f t="shared" ref="B1949" si="220">B1945+1</f>
         <v>487</v>
       </c>
       <c r="C1949" s="6"/>
@@ -47004,7 +46773,7 @@
     </row>
     <row r="1953" spans="2:18" ht="58.5">
       <c r="B1953" s="19">
-        <f t="shared" ref="B1953" si="222">B1949+1</f>
+        <f t="shared" ref="B1953" si="221">B1949+1</f>
         <v>488</v>
       </c>
       <c r="C1953" s="6"/>
@@ -47083,7 +46852,7 @@
     </row>
     <row r="1957" spans="2:18" ht="58.5">
       <c r="B1957" s="19">
-        <f t="shared" ref="B1957" si="223">B1953+1</f>
+        <f t="shared" ref="B1957" si="222">B1953+1</f>
         <v>489</v>
       </c>
       <c r="C1957" s="6"/>
@@ -47162,7 +46931,7 @@
     </row>
     <row r="1961" spans="2:18" ht="58.5">
       <c r="B1961" s="19">
-        <f t="shared" ref="B1961" si="224">B1957+1</f>
+        <f t="shared" ref="B1961" si="223">B1957+1</f>
         <v>490</v>
       </c>
       <c r="C1961" s="6"/>
@@ -47241,7 +47010,7 @@
     </row>
     <row r="1965" spans="2:18" ht="58.5">
       <c r="B1965" s="19">
-        <f t="shared" ref="B1965" si="225">B1961+1</f>
+        <f t="shared" ref="B1965" si="224">B1961+1</f>
         <v>491</v>
       </c>
       <c r="C1965" s="6"/>
@@ -47320,7 +47089,7 @@
     </row>
     <row r="1969" spans="2:18" ht="58.5">
       <c r="B1969" s="19">
-        <f t="shared" ref="B1969" si="226">B1965+1</f>
+        <f t="shared" ref="B1969" si="225">B1965+1</f>
         <v>492</v>
       </c>
       <c r="C1969" s="6"/>
@@ -47399,7 +47168,7 @@
     </row>
     <row r="1973" spans="2:18" ht="58.5">
       <c r="B1973" s="19">
-        <f t="shared" ref="B1973" si="227">B1969+1</f>
+        <f t="shared" ref="B1973" si="226">B1969+1</f>
         <v>493</v>
       </c>
       <c r="C1973" s="6"/>
@@ -47478,7 +47247,7 @@
     </row>
     <row r="1977" spans="2:18" ht="58.5">
       <c r="B1977" s="19">
-        <f t="shared" ref="B1977" si="228">B1973+1</f>
+        <f t="shared" ref="B1977" si="227">B1973+1</f>
         <v>494</v>
       </c>
       <c r="C1977" s="6"/>
@@ -47557,7 +47326,7 @@
     </row>
     <row r="1981" spans="2:18" ht="58.5">
       <c r="B1981" s="19">
-        <f t="shared" ref="B1981" si="229">B1977+1</f>
+        <f t="shared" ref="B1981" si="228">B1977+1</f>
         <v>495</v>
       </c>
       <c r="C1981" s="6"/>
@@ -47636,7 +47405,7 @@
     </row>
     <row r="1985" spans="2:18" ht="58.5">
       <c r="B1985" s="19">
-        <f t="shared" ref="B1985" si="230">B1981+1</f>
+        <f t="shared" ref="B1985" si="229">B1981+1</f>
         <v>496</v>
       </c>
       <c r="C1985" s="6"/>
@@ -47715,7 +47484,7 @@
     </row>
     <row r="1989" spans="2:18" ht="58.5">
       <c r="B1989" s="19">
-        <f t="shared" ref="B1989" si="231">B1985+1</f>
+        <f t="shared" ref="B1989" si="230">B1985+1</f>
         <v>497</v>
       </c>
       <c r="C1989" s="6"/>
@@ -47794,7 +47563,7 @@
     </row>
     <row r="1993" spans="2:18" ht="58.5">
       <c r="B1993" s="19">
-        <f t="shared" ref="B1993" si="232">B1989+1</f>
+        <f t="shared" ref="B1993" si="231">B1989+1</f>
         <v>498</v>
       </c>
       <c r="C1993" s="6"/>
@@ -47873,7 +47642,7 @@
     </row>
     <row r="1997" spans="2:18" ht="58.5">
       <c r="B1997" s="19">
-        <f t="shared" ref="B1997" si="233">B1993+1</f>
+        <f t="shared" ref="B1997" si="232">B1993+1</f>
         <v>499</v>
       </c>
       <c r="C1997" s="6"/>
@@ -47952,7 +47721,7 @@
     </row>
     <row r="2001" spans="2:18" ht="58.5">
       <c r="B2001" s="19">
-        <f t="shared" ref="B2001" si="234">B1997+1</f>
+        <f t="shared" ref="B2001" si="233">B1997+1</f>
         <v>500</v>
       </c>
       <c r="C2001" s="6"/>
@@ -52562,7 +52331,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="53" t="s">
         <v>66</v>
       </c>
     </row>
@@ -52610,7 +52379,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="57"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -52662,7 +52431,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="57"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -52709,7 +52478,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="57"/>
+      <c r="V6" s="56"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -52730,7 +52499,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="57"/>
+      <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -52774,7 +52543,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="57"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -52828,7 +52597,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="57"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -52872,7 +52641,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -52892,7 +52661,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="57"/>
+      <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -52938,7 +52707,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="56"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -52991,7 +52760,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="57"/>
+      <c r="V13" s="56"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -53037,7 +52806,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="57"/>
+      <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -53057,7 +52826,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="57"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -53103,7 +52872,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="57"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -53156,7 +52925,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -53202,7 +52971,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -53222,7 +52991,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="57"/>
+      <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -53242,7 +53011,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="57"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -53269,7 +53038,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="57"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -53289,7 +53058,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B8BE88-AA5B-4C02-A527-B947651F7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B75928F9-4443-4D2B-8B23-E54C7477DFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="129" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="128" r:id="rId3"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
+    <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="122" r:id="rId3"/>
+    <sheet name="缺字表 (2)" sheetId="125" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="124" r:id="rId5"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1316">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4003,6 +4005,105 @@
   <si>
     <t>output7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>蒹</t>
+  </si>
+  <si>
+    <t>葭</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>露</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>溯</t>
+  </si>
+  <si>
+    <t>洄</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>阻</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>央</t>
+  </si>
+  <si>
+    <t>萋</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>晞</t>
+  </si>
+  <si>
+    <t>湄</t>
+  </si>
+  <si>
+    <t>躋</t>
+  </si>
+  <si>
+    <t>坻</t>
+  </si>
+  <si>
+    <t>采</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>涘</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>沚</t>
   </si>
   <si>
     <t xml:space="preserve">《蒹葭》
@@ -4013,117 +4114,23 @@
 蒹葭采采，白露未已。所謂伊人，在水之涘。
 溯洄從之，道阻且右。溯游從之，宛在水中沚。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注音二式</t>
-  </si>
-  <si>
-    <t>《</t>
-  </si>
-  <si>
-    <t>蒹</t>
-  </si>
-  <si>
-    <t>葭</t>
-  </si>
-  <si>
-    <t>》</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>露</t>
-  </si>
-  <si>
-    <t>霜</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>溯</t>
-  </si>
-  <si>
-    <t>洄</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>阻</t>
-  </si>
-  <si>
-    <t>且</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>央</t>
-  </si>
-  <si>
-    <t>萋</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>晞</t>
-  </si>
-  <si>
-    <t>湄</t>
-  </si>
-  <si>
-    <t>躋</t>
-  </si>
-  <si>
-    <t>坻</t>
-  </si>
-  <si>
-    <t>采</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>涘</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>沚</t>
-  </si>
-  <si>
-    <t>kiam1</t>
   </si>
   <si>
     <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
   </si>
   <si>
+    <t>(17, 5); (33, 5); (49, 5)</t>
+  </si>
+  <si>
+    <t>(25, 6); (25, 7)</t>
+  </si>
+  <si>
+    <t>(33, 12)</t>
+  </si>
+  <si>
+    <t>(53, 8)</t>
+  </si>
+  <si>
     <t>ka1</t>
   </si>
   <si>
@@ -4196,12 +4203,6 @@
     <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
   </si>
   <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>(17, 5); (33, 5); (49, 5)</t>
-  </si>
-  <si>
     <t>ziong5</t>
   </si>
   <si>
@@ -4247,12 +4248,6 @@
     <t>(21, 8)</t>
   </si>
   <si>
-    <t>ce1</t>
-  </si>
-  <si>
-    <t>(25, 6); (25, 7)</t>
-  </si>
-  <si>
     <t>bi7</t>
   </si>
   <si>
@@ -4268,12 +4263,6 @@
     <t>(29, 7)</t>
   </si>
   <si>
-    <t>ze1</t>
-  </si>
-  <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
     <t>ti5</t>
   </si>
   <si>
@@ -4286,60 +4275,252 @@
     <t>(41, 12)</t>
   </si>
   <si>
-    <t>zi7</t>
-  </si>
-  <si>
     <t>iu7</t>
   </si>
   <si>
     <t>(49, 12)</t>
-  </si>
-  <si>
-    <t>(53, 8)</t>
-  </si>
-  <si>
-    <t>giam1</t>
-  </si>
-  <si>
-    <t>ga1</t>
-  </si>
-  <si>
-    <t>bik8</t>
-  </si>
-  <si>
-    <t>zzin5</t>
-  </si>
-  <si>
-    <t>dor7</t>
-  </si>
-  <si>
-    <t>diong5</t>
-  </si>
-  <si>
-    <t>diong7</t>
-  </si>
-  <si>
-    <t>bbi7</t>
-  </si>
-  <si>
-    <t>bbi5</t>
-  </si>
-  <si>
-    <t>di5</t>
   </si>
   <si>
     <t>蒹葭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>kiam1</t>
+  </si>
+  <si>
+    <t>kiam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue5</t>
+  </si>
+  <si>
+    <t>hue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
+    <t>ce1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze1</t>
+  </si>
+  <si>
+    <t>ze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi6</t>
+  </si>
+  <si>
+    <t>zi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giam1</t>
+  </si>
+  <si>
+    <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue2</t>
+  </si>
+  <si>
+    <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi7</t>
+  </si>
+  <si>
+    <t>iu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://i.epochtimes.com/assets/uploads/2018/09/346078.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音二式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4615,8 +4796,14 @@
       <color rgb="FF3399FF"/>
       <name val="Sitka Text Semibold"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4638,6 +4825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4719,7 +4912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4879,6 +5072,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4893,9 +5099,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6658,7 +6861,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6710,15 +6913,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>1272</v>
+      <c r="C7" s="53" t="s">
+        <v>1314</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -6786,7 +6989,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1167</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -6810,7 +7013,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1167</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -6826,28 +7029,28 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{181EC47F-BD50-496D-9FB6-B68AC17D2C52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{1F35AB50-12AD-4F19-AAD4-E002BAE33D83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{E63DE152-850D-4D55-8A6C-02770A085720}">
       <formula1>"無預設, SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{CC5BE891-DC6E-4CE0-849C-D2F4C535EA60}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{8B26464C-8D45-4DAB-8CD3-133D8E6DA72D}">
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{671644A1-6EE8-4193-9CDC-8429DBBCBB7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{96E7211F-3F66-4AE2-B2C7-9A12D8C2B02A}">
       <formula1>"白話音, 文讀音"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{DA27CAB0-65C9-4E40-AD59-F7B4693C00B1}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{9036E4CE-0D75-4AA4-9326-6306F3475A3B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{925E59DA-A545-4B6B-AF46-8C9DC843AEEA}">
       <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6859,7 +7062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E8DE3-B4AD-4C50-B352-965AC35B9305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1579779-E4C2-4FCD-8E9C-5CE0D4651C04}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6882,16 +7085,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B2" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6899,195 +7102,195 @@
         <v>1170</v>
       </c>
       <c r="B3" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B5" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1174</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>1209</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>1173</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>1214</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B8" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B9" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B10" t="s">
-        <v>1216</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1178</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>1177</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>1223</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1179</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>1221</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>1178</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>1227</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7095,55 +7298,55 @@
         <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1182</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>1227</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B19" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>1183</v>
       </c>
       <c r="B20" t="s">
-        <v>338</v>
+        <v>1234</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7151,69 +7354,69 @@
         <v>1184</v>
       </c>
       <c r="B21" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1185</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>1234</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1186</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>1236</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>1185</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>1186</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7221,186 +7424,186 @@
         <v>1187</v>
       </c>
       <c r="B26" t="s">
-        <v>347</v>
+        <v>1242</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>1244</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B28" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B29" t="s">
-        <v>1244</v>
+        <v>481</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B30" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1247</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B31" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B33" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1195</v>
+        <v>1167</v>
       </c>
       <c r="B34" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>987</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="B35" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1255</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>1260</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1256</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B37" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1003</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B38" t="s">
-        <v>1258</v>
+        <v>1311</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1259</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B39" t="s">
         <v>440</v>
@@ -7409,7 +7612,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1260</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7419,7 +7622,235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14B278-FBB0-4A91-A0FB-31C00CF2D55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B720D-E500-4112-825C-5428DE5F3105}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB8E75-6664-41A3-A969-36B5E768A1DB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98815C-C38A-4C18-856C-8F2344AE0658}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7446,7 +7877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
@@ -7477,28 +7908,73 @@
         <v>1</v>
       </c>
       <c r="B1" s="38">
-        <f t="shared" ref="B1:C1" si="0" xml:space="preserve"> COLUMN()</f>
+        <f t="shared" ref="B1:R1" si="0" xml:space="preserve"> COLUMN()</f>
         <v>2</v>
       </c>
       <c r="C1" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="D1" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E1" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F1" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G1" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H1" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I1" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J1" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K1" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L1" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M1" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N1" s="38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O1" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P1" s="38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R1" s="38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="9"/>
@@ -7525,11 +8001,11 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
@@ -7541,21 +8017,21 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="53" t="s">
-        <v>1166</v>
+      <c r="V3" s="57" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
@@ -7567,25 +8043,25 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="54"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="54" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="G5" s="54" t="s">
         <v>1169</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H5" s="39" t="str">
+      <c r="H5" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7601,17 +8077,17 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="54"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7626,180 +8102,180 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="54"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="54"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50" t="s">
-        <v>1207</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
-        <v>1214</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="50"/>
+      <c r="D8" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="R8" s="55"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="54"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F9" s="54" t="s">
         <v>1170</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="G9" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J9" s="54" t="s">
         <v>1172</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="39" t="s">
+      <c r="K9" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="54" t="s">
         <v>1173</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="M9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="54" t="s">
         <v>1174</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="L9" s="39" t="s">
+      <c r="O9" s="54" t="s">
         <v>1175</v>
       </c>
-      <c r="M9" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="39" t="s">
+      <c r="P9" s="54" t="s">
         <v>1176</v>
       </c>
-      <c r="O9" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="54" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="54"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>1205</v>
+        <v>1269</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1205</v>
+        <v>1269</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1209</v>
+        <v>1273</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>52</v>
+        <v>1274</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>1212</v>
+        <v>1275</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51" t="s">
-        <v>1214</v>
+        <v>1277</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>1216</v>
+        <v>1279</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>496</v>
+        <v>1280</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="54"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -7809,24 +8285,24 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="54"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="D12" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
@@ -7837,29 +8313,29 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="54"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="39" t="str">
+      <c r="I13" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7874,21 +8350,21 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="54"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>345</v>
+        <v>1285</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -7902,179 +8378,179 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="54"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="V15" s="54"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>1236</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="R16" s="50"/>
+      <c r="D16" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>814</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="R16" s="55"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="54"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="G17" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="J17" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="K17" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="R17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>23</v>
-      </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="54"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>1234</v>
+        <v>1293</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>1236</v>
+        <v>1295</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1266</v>
+        <v>1296</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>437</v>
+        <v>1297</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="54"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -8083,27 +8559,27 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="54"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
+      <c r="D20" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
@@ -8113,32 +8589,32 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="54"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>1187</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="39" t="str">
+      <c r="J21" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8152,24 +8628,24 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="54"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
       <c r="D22" s="51" t="s">
-        <v>347</v>
+        <v>1298</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>1267</v>
+        <v>1299</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1242</v>
+        <v>1301</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8182,178 +8658,178 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="54"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="V23" s="54"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50" t="s">
-        <v>1207</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50" t="s">
-        <v>1214</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q24" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="50"/>
+      <c r="D24" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P24" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="R24" s="55"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="54"/>
+      <c r="V24" s="58"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F25" s="39" t="s">
+      <c r="D25" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L25" s="54" t="s">
         <v>1190</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H25" s="39" t="s">
+      <c r="M25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O25" s="54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="39" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>1174</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>1191</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>23</v>
-      </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="54"/>
+      <c r="V25" s="58"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1209</v>
+        <v>1273</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1268</v>
+        <v>1303</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1248</v>
+        <v>1304</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
-        <v>1214</v>
+        <v>1277</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>1216</v>
+        <v>1279</v>
       </c>
       <c r="P26" s="51" t="s">
-        <v>496</v>
+        <v>1280</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="R26" s="51"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="54"/>
+      <c r="V26" s="58"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -8363,24 +8839,28 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="V27" s="54"/>
+      <c r="U27" s="33" t="str">
+        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="V27" s="58"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="D28" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>912</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
@@ -8391,30 +8871,33 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="54" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="39" t="str">
+      <c r="I29" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8429,22 +8912,25 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="54"/>
+      <c r="U29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V29" s="58"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
       <c r="D30" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1269</v>
+        <v>1305</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -8458,181 +8944,191 @@
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="54"/>
+      <c r="U30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="V31" s="54"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="U31" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V31" s="58"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>1236</v>
-      </c>
-      <c r="L32" s="50" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O32" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="P32" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="Q32" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="R32" s="50"/>
+      <c r="D32" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O32" s="55" t="s">
+        <v>814</v>
+      </c>
+      <c r="P32" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q32" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="R32" s="55"/>
       <c r="S32" s="18"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="54"/>
+      <c r="U32" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V32" s="58"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F33" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="G33" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="J33" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="K33" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q33" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="R33" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="39" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>23</v>
-      </c>
       <c r="S33" s="20"/>
-      <c r="V33" s="54"/>
+      <c r="V33" s="58"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>1234</v>
+        <v>1293</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1236</v>
+        <v>1295</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="M34" s="51"/>
       <c r="N34" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>437</v>
+        <v>1297</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="54"/>
+      <c r="V34" s="58"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
@@ -8641,27 +9137,27 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="54"/>
+      <c r="V35" s="58"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="D36" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
@@ -8671,32 +9167,32 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="54"/>
+      <c r="V36" s="58"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E37" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I37" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="39" t="str">
+      <c r="J37" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8710,24 +9206,24 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="54"/>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="51" t="s">
-        <v>347</v>
+        <v>1298</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1267</v>
+        <v>1299</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1270</v>
+        <v>1307</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -8740,178 +9236,178 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="54"/>
+      <c r="V38" s="58"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="V39" s="54"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="V39" s="58"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="50" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50" t="s">
-        <v>1207</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L40" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50" t="s">
-        <v>1214</v>
-      </c>
-      <c r="O40" s="50" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P40" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q40" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" s="50"/>
+      <c r="D40" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O40" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P40" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q40" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="R40" s="55"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="54"/>
+      <c r="V40" s="58"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H41" s="39" t="s">
+      <c r="D41" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="39" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J41" s="39" t="s">
+      <c r="I41" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="54" t="s">
         <v>1174</v>
       </c>
-      <c r="K41" s="39" t="s">
-        <v>1191</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="39" t="s">
+      <c r="O41" s="54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P41" s="54" t="s">
         <v>1176</v>
       </c>
-      <c r="O41" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="54" t="s">
         <v>23</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="V41" s="54"/>
+      <c r="V41" s="58"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1254</v>
+        <v>1309</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1254</v>
+        <v>1309</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>1209</v>
+        <v>1273</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1268</v>
+        <v>1303</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>336</v>
+        <v>1310</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51" t="s">
-        <v>1214</v>
+        <v>1277</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>1216</v>
+        <v>1279</v>
       </c>
       <c r="P42" s="51" t="s">
-        <v>496</v>
+        <v>1280</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="54"/>
+      <c r="V42" s="58"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
@@ -8921,24 +9417,24 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="54"/>
+      <c r="V43" s="58"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
+      <c r="D44" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
@@ -8949,29 +9445,29 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="54"/>
+      <c r="V44" s="58"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F45" s="39" t="s">
+      <c r="E45" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F45" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="39" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H45" s="39" t="s">
+      <c r="G45" s="54" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H45" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="39" t="str">
+      <c r="I45" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8986,21 +9482,21 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="54"/>
+      <c r="V45" s="58"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
       <c r="D46" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -9014,179 +9510,179 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="54"/>
+      <c r="V46" s="58"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="V47" s="54"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="V47" s="58"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J48" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K48" s="50" t="s">
-        <v>1236</v>
-      </c>
-      <c r="L48" s="50" t="s">
+      <c r="D48" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E48" s="55" t="s">
         <v>1258</v>
       </c>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O48" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="P48" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="Q48" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="R48" s="50"/>
+      <c r="F48" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O48" s="55" t="s">
+        <v>814</v>
+      </c>
+      <c r="P48" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q48" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="R48" s="55"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="54"/>
+      <c r="V48" s="58"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F49" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="G49" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="J49" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="K49" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O49" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P49" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q49" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="R49" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>23</v>
-      </c>
       <c r="S49" s="20"/>
-      <c r="V49" s="54"/>
+      <c r="V49" s="58"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>1234</v>
+        <v>1293</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1236</v>
+        <v>1295</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1258</v>
+        <v>1313</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>437</v>
+        <v>1297</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="54"/>
+      <c r="V50" s="58"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52"/>
@@ -9195,27 +9691,27 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="54"/>
+      <c r="V51" s="58"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="H52" s="50" t="s">
+      <c r="D52" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="H52" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
@@ -9225,32 +9721,32 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="54"/>
+      <c r="V52" s="58"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E53" s="39" t="s">
+      <c r="D53" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E53" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I53" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="39" t="str">
+      <c r="J53" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9264,24 +9760,24 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="54"/>
+      <c r="V53" s="58"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
       <c r="D54" s="51" t="s">
-        <v>347</v>
+        <v>1298</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>342</v>
+        <v>1282</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>1221</v>
+        <v>1284</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>1267</v>
+        <v>1299</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -9294,12 +9790,12 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="54"/>
+      <c r="V54" s="58"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="52"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
@@ -9314,11 +9810,11 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="54"/>
+      <c r="V55" s="58"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="50"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -9334,14 +9830,14 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="54"/>
+      <c r="V56" s="58"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="54" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="39"/>
@@ -9359,7 +9855,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="54"/>
+      <c r="V57" s="58"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -9379,7 +9875,7 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="54"/>
+      <c r="V58" s="58"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -9399,7 +9895,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="54"/>
+      <c r="V59" s="58"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -9419,7 +9915,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="54"/>
+      <c r="V60" s="58"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -9442,7 +9938,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="54"/>
+      <c r="V61" s="58"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -9462,7 +9958,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="54"/>
+      <c r="V62" s="58"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -9482,7 +9978,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="54"/>
+      <c r="V63" s="58"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -9502,7 +9998,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="54"/>
+      <c r="V64" s="58"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -9525,7 +10021,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="54"/>
+      <c r="V65" s="58"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -9545,7 +10041,7 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="54"/>
+      <c r="V66" s="58"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -9565,7 +10061,7 @@
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="54"/>
+      <c r="V67" s="58"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -9585,7 +10081,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="54"/>
+      <c r="V68" s="58"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -9608,7 +10104,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="54"/>
+      <c r="V69" s="58"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -9628,7 +10124,7 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="54"/>
+      <c r="V70" s="58"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -9648,7 +10144,7 @@
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="54"/>
+      <c r="V71" s="58"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -9668,7 +10164,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="54"/>
+      <c r="V72" s="58"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -9691,7 +10187,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="54"/>
+      <c r="V73" s="58"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -9711,7 +10207,7 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="54"/>
+      <c r="V74" s="58"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -9731,7 +10227,7 @@
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="54"/>
+      <c r="V75" s="58"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -9751,7 +10247,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="54"/>
+      <c r="V76" s="58"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -9774,7 +10270,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="54"/>
+      <c r="V77" s="58"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -9794,7 +10290,7 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="54"/>
+      <c r="V78" s="58"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -9814,7 +10310,7 @@
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
       <c r="R79" s="52"/>
-      <c r="V79" s="54"/>
+      <c r="V79" s="58"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -9834,7 +10330,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="54"/>
+      <c r="V80" s="58"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -9857,7 +10353,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="54"/>
+      <c r="V81" s="58"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -9877,7 +10373,7 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="55"/>
+      <c r="V82" s="59"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -10473,7 +10969,7 @@
     </row>
     <row r="113" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B113" s="19">
-        <f t="shared" ref="B113" si="1">B109+1</f>
+        <f t="shared" ref="B113" si="2">B109+1</f>
         <v>28</v>
       </c>
       <c r="D113" s="39"/>
@@ -10549,7 +11045,7 @@
     </row>
     <row r="117" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B117" s="19">
-        <f t="shared" ref="B117" si="2">B113+1</f>
+        <f t="shared" ref="B117" si="3">B113+1</f>
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
@@ -10625,7 +11121,7 @@
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
-        <f t="shared" ref="B121" si="3">B117+1</f>
+        <f t="shared" ref="B121" si="4">B117+1</f>
         <v>30</v>
       </c>
       <c r="D121" s="39"/>
@@ -10701,7 +11197,7 @@
     </row>
     <row r="125" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="4">B121+1</f>
+        <f t="shared" ref="B125" si="5">B121+1</f>
         <v>31</v>
       </c>
       <c r="D125" s="39"/>
@@ -10777,7 +11273,7 @@
     </row>
     <row r="129" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B129" s="19">
-        <f t="shared" ref="B129" si="5">B125+1</f>
+        <f t="shared" ref="B129" si="6">B125+1</f>
         <v>32</v>
       </c>
       <c r="D129" s="39"/>
@@ -10853,7 +11349,7 @@
     </row>
     <row r="133" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B133" s="19">
-        <f t="shared" ref="B133" si="6">B129+1</f>
+        <f t="shared" ref="B133" si="7">B129+1</f>
         <v>33</v>
       </c>
       <c r="D133" s="39"/>
@@ -10929,7 +11425,7 @@
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
-        <f t="shared" ref="B137" si="7">B133+1</f>
+        <f t="shared" ref="B137" si="8">B133+1</f>
         <v>34</v>
       </c>
       <c r="D137" s="39"/>
@@ -11005,7 +11501,7 @@
     </row>
     <row r="141" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B141" s="19">
-        <f t="shared" ref="B141" si="8">B137+1</f>
+        <f t="shared" ref="B141" si="9">B137+1</f>
         <v>35</v>
       </c>
       <c r="D141" s="39"/>
@@ -11081,7 +11577,7 @@
     </row>
     <row r="145" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="19">
-        <f t="shared" ref="B145" si="9">B141+1</f>
+        <f t="shared" ref="B145" si="10">B141+1</f>
         <v>36</v>
       </c>
       <c r="D145" s="39"/>
@@ -11157,7 +11653,7 @@
     </row>
     <row r="149" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="19">
-        <f t="shared" ref="B149" si="10">B145+1</f>
+        <f t="shared" ref="B149" si="11">B145+1</f>
         <v>37</v>
       </c>
       <c r="D149" s="39"/>
@@ -11233,7 +11729,7 @@
     </row>
     <row r="153" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="19">
-        <f t="shared" ref="B153" si="11">B149+1</f>
+        <f t="shared" ref="B153" si="12">B149+1</f>
         <v>38</v>
       </c>
       <c r="D153" s="39"/>
@@ -11309,7 +11805,7 @@
     </row>
     <row r="157" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="19">
-        <f t="shared" ref="B157" si="12">B153+1</f>
+        <f t="shared" ref="B157" si="13">B153+1</f>
         <v>39</v>
       </c>
       <c r="D157" s="39"/>
@@ -11386,7 +11882,7 @@
     </row>
     <row r="161" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B161" s="19">
-        <f t="shared" ref="B161" si="13">B157+1</f>
+        <f t="shared" ref="B161" si="14">B157+1</f>
         <v>40</v>
       </c>
       <c r="D161" s="39"/>
@@ -11462,7 +11958,7 @@
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
-        <f t="shared" ref="B165" si="14">B161+1</f>
+        <f t="shared" ref="B165" si="15">B161+1</f>
         <v>41</v>
       </c>
       <c r="D165" s="39"/>
@@ -11539,7 +12035,7 @@
     </row>
     <row r="169" spans="2:18" ht="58.5">
       <c r="B169" s="19">
-        <f t="shared" ref="B169" si="15">B165+1</f>
+        <f t="shared" ref="B169" si="16">B165+1</f>
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
@@ -11618,7 +12114,7 @@
     </row>
     <row r="173" spans="2:18" ht="58.5">
       <c r="B173" s="19">
-        <f t="shared" ref="B173" si="16">B169+1</f>
+        <f t="shared" ref="B173" si="17">B169+1</f>
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
@@ -11697,7 +12193,7 @@
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
-        <f t="shared" ref="B177" si="17">B173+1</f>
+        <f t="shared" ref="B177" si="18">B173+1</f>
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
@@ -11776,7 +12272,7 @@
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
-        <f t="shared" ref="B181" si="18">B177+1</f>
+        <f t="shared" ref="B181" si="19">B177+1</f>
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
@@ -11855,7 +12351,7 @@
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
-        <f t="shared" ref="B185" si="19">B181+1</f>
+        <f t="shared" ref="B185" si="20">B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
@@ -11934,7 +12430,7 @@
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
-        <f t="shared" ref="B189" si="20">B185+1</f>
+        <f t="shared" ref="B189" si="21">B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
@@ -12013,7 +12509,7 @@
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
-        <f t="shared" ref="B193" si="21">B189+1</f>
+        <f t="shared" ref="B193" si="22">B189+1</f>
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
@@ -12092,7 +12588,7 @@
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
-        <f t="shared" ref="B197" si="22">B193+1</f>
+        <f t="shared" ref="B197" si="23">B193+1</f>
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
@@ -12171,7 +12667,7 @@
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
-        <f t="shared" ref="B201" si="23">B197+1</f>
+        <f t="shared" ref="B201" si="24">B197+1</f>
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
@@ -14383,7 +14879,7 @@
     </row>
     <row r="313" spans="2:18" ht="58.5">
       <c r="B313" s="19">
-        <f t="shared" ref="B313" si="24">B309+1</f>
+        <f t="shared" ref="B313" si="25">B309+1</f>
         <v>78</v>
       </c>
       <c r="C313" s="6"/>
@@ -14462,7 +14958,7 @@
     </row>
     <row r="317" spans="2:18" ht="58.5">
       <c r="B317" s="19">
-        <f t="shared" ref="B317" si="25">B313+1</f>
+        <f t="shared" ref="B317" si="26">B313+1</f>
         <v>79</v>
       </c>
       <c r="C317" s="6"/>
@@ -14541,7 +15037,7 @@
     </row>
     <row r="321" spans="2:18" ht="58.5">
       <c r="B321" s="19">
-        <f t="shared" ref="B321" si="26">B317+1</f>
+        <f t="shared" ref="B321" si="27">B317+1</f>
         <v>80</v>
       </c>
       <c r="C321" s="6"/>
@@ -14620,7 +15116,7 @@
     </row>
     <row r="325" spans="2:18" ht="58.5">
       <c r="B325" s="19">
-        <f t="shared" ref="B325" si="27">B321+1</f>
+        <f t="shared" ref="B325" si="28">B321+1</f>
         <v>81</v>
       </c>
       <c r="C325" s="6"/>
@@ -14699,7 +15195,7 @@
     </row>
     <row r="329" spans="2:18" ht="58.5">
       <c r="B329" s="19">
-        <f t="shared" ref="B329" si="28">B325+1</f>
+        <f t="shared" ref="B329" si="29">B325+1</f>
         <v>82</v>
       </c>
       <c r="C329" s="6"/>
@@ -14778,7 +15274,7 @@
     </row>
     <row r="333" spans="2:18" ht="58.5">
       <c r="B333" s="19">
-        <f t="shared" ref="B333" si="29">B329+1</f>
+        <f t="shared" ref="B333" si="30">B329+1</f>
         <v>83</v>
       </c>
       <c r="C333" s="6"/>
@@ -14857,7 +15353,7 @@
     </row>
     <row r="337" spans="2:18" ht="58.5">
       <c r="B337" s="19">
-        <f t="shared" ref="B337" si="30">B333+1</f>
+        <f t="shared" ref="B337" si="31">B333+1</f>
         <v>84</v>
       </c>
       <c r="C337" s="6"/>
@@ -14936,7 +15432,7 @@
     </row>
     <row r="341" spans="2:18" ht="58.5">
       <c r="B341" s="19">
-        <f t="shared" ref="B341" si="31">B337+1</f>
+        <f t="shared" ref="B341" si="32">B337+1</f>
         <v>85</v>
       </c>
       <c r="C341" s="6"/>
@@ -15015,7 +15511,7 @@
     </row>
     <row r="345" spans="2:18" ht="58.5">
       <c r="B345" s="19">
-        <f t="shared" ref="B345" si="32">B341+1</f>
+        <f t="shared" ref="B345" si="33">B341+1</f>
         <v>86</v>
       </c>
       <c r="C345" s="6"/>
@@ -15094,7 +15590,7 @@
     </row>
     <row r="349" spans="2:18" ht="58.5">
       <c r="B349" s="19">
-        <f t="shared" ref="B349" si="33">B345+1</f>
+        <f t="shared" ref="B349" si="34">B345+1</f>
         <v>87</v>
       </c>
       <c r="C349" s="6"/>
@@ -15173,7 +15669,7 @@
     </row>
     <row r="353" spans="2:18" ht="58.5">
       <c r="B353" s="19">
-        <f t="shared" ref="B353" si="34">B349+1</f>
+        <f t="shared" ref="B353" si="35">B349+1</f>
         <v>88</v>
       </c>
       <c r="C353" s="6"/>
@@ -15252,7 +15748,7 @@
     </row>
     <row r="357" spans="2:18" ht="58.5">
       <c r="B357" s="19">
-        <f t="shared" ref="B357" si="35">B353+1</f>
+        <f t="shared" ref="B357" si="36">B353+1</f>
         <v>89</v>
       </c>
       <c r="C357" s="6"/>
@@ -15331,7 +15827,7 @@
     </row>
     <row r="361" spans="2:18" ht="58.5">
       <c r="B361" s="19">
-        <f t="shared" ref="B361" si="36">B357+1</f>
+        <f t="shared" ref="B361" si="37">B357+1</f>
         <v>90</v>
       </c>
       <c r="C361" s="6"/>
@@ -15410,7 +15906,7 @@
     </row>
     <row r="365" spans="2:18" ht="58.5">
       <c r="B365" s="19">
-        <f t="shared" ref="B365" si="37">B361+1</f>
+        <f t="shared" ref="B365" si="38">B361+1</f>
         <v>91</v>
       </c>
       <c r="C365" s="6"/>
@@ -15489,7 +15985,7 @@
     </row>
     <row r="369" spans="2:18" ht="58.5">
       <c r="B369" s="19">
-        <f t="shared" ref="B369" si="38">B365+1</f>
+        <f t="shared" ref="B369" si="39">B365+1</f>
         <v>92</v>
       </c>
       <c r="C369" s="6"/>
@@ -15568,7 +16064,7 @@
     </row>
     <row r="373" spans="2:18" ht="58.5">
       <c r="B373" s="19">
-        <f t="shared" ref="B373" si="39">B369+1</f>
+        <f t="shared" ref="B373" si="40">B369+1</f>
         <v>93</v>
       </c>
       <c r="C373" s="6"/>
@@ -15647,7 +16143,7 @@
     </row>
     <row r="377" spans="2:18" ht="58.5">
       <c r="B377" s="19">
-        <f t="shared" ref="B377" si="40">B373+1</f>
+        <f t="shared" ref="B377" si="41">B373+1</f>
         <v>94</v>
       </c>
       <c r="C377" s="6"/>
@@ -15726,7 +16222,7 @@
     </row>
     <row r="381" spans="2:18" ht="58.5">
       <c r="B381" s="19">
-        <f t="shared" ref="B381" si="41">B377+1</f>
+        <f t="shared" ref="B381" si="42">B377+1</f>
         <v>95</v>
       </c>
       <c r="C381" s="6"/>
@@ -15805,7 +16301,7 @@
     </row>
     <row r="385" spans="2:18" ht="58.5">
       <c r="B385" s="19">
-        <f t="shared" ref="B385" si="42">B381+1</f>
+        <f t="shared" ref="B385" si="43">B381+1</f>
         <v>96</v>
       </c>
       <c r="C385" s="6"/>
@@ -15884,7 +16380,7 @@
     </row>
     <row r="389" spans="2:18" ht="58.5">
       <c r="B389" s="19">
-        <f t="shared" ref="B389" si="43">B385+1</f>
+        <f t="shared" ref="B389" si="44">B385+1</f>
         <v>97</v>
       </c>
       <c r="C389" s="6"/>
@@ -15963,7 +16459,7 @@
     </row>
     <row r="393" spans="2:18" ht="58.5">
       <c r="B393" s="19">
-        <f t="shared" ref="B393" si="44">B389+1</f>
+        <f t="shared" ref="B393" si="45">B389+1</f>
         <v>98</v>
       </c>
       <c r="C393" s="6"/>
@@ -16042,7 +16538,7 @@
     </row>
     <row r="397" spans="2:18" ht="58.5">
       <c r="B397" s="19">
-        <f t="shared" ref="B397" si="45">B393+1</f>
+        <f t="shared" ref="B397" si="46">B393+1</f>
         <v>99</v>
       </c>
       <c r="C397" s="6"/>
@@ -16121,7 +16617,7 @@
     </row>
     <row r="401" spans="2:18" ht="58.5">
       <c r="B401" s="19">
-        <f t="shared" ref="B401" si="46">B397+1</f>
+        <f t="shared" ref="B401" si="47">B397+1</f>
         <v>100</v>
       </c>
       <c r="C401" s="6"/>
@@ -18333,7 +18829,7 @@
     </row>
     <row r="513" spans="2:18" ht="58.5">
       <c r="B513" s="19">
-        <f t="shared" ref="B513" si="47">B509+1</f>
+        <f t="shared" ref="B513" si="48">B509+1</f>
         <v>128</v>
       </c>
       <c r="C513" s="6"/>
@@ -18412,7 +18908,7 @@
     </row>
     <row r="517" spans="2:18" ht="58.5">
       <c r="B517" s="19">
-        <f t="shared" ref="B517" si="48">B513+1</f>
+        <f t="shared" ref="B517" si="49">B513+1</f>
         <v>129</v>
       </c>
       <c r="C517" s="6"/>
@@ -18491,7 +18987,7 @@
     </row>
     <row r="521" spans="2:18" ht="58.5">
       <c r="B521" s="19">
-        <f t="shared" ref="B521" si="49">B517+1</f>
+        <f t="shared" ref="B521" si="50">B517+1</f>
         <v>130</v>
       </c>
       <c r="C521" s="6"/>
@@ -18570,7 +19066,7 @@
     </row>
     <row r="525" spans="2:18" ht="58.5">
       <c r="B525" s="19">
-        <f t="shared" ref="B525" si="50">B521+1</f>
+        <f t="shared" ref="B525" si="51">B521+1</f>
         <v>131</v>
       </c>
       <c r="C525" s="6"/>
@@ -18649,7 +19145,7 @@
     </row>
     <row r="529" spans="2:18" ht="58.5">
       <c r="B529" s="19">
-        <f t="shared" ref="B529" si="51">B525+1</f>
+        <f t="shared" ref="B529" si="52">B525+1</f>
         <v>132</v>
       </c>
       <c r="C529" s="6"/>
@@ -18728,7 +19224,7 @@
     </row>
     <row r="533" spans="2:18" ht="58.5">
       <c r="B533" s="19">
-        <f t="shared" ref="B533" si="52">B529+1</f>
+        <f t="shared" ref="B533" si="53">B529+1</f>
         <v>133</v>
       </c>
       <c r="C533" s="6"/>
@@ -18807,7 +19303,7 @@
     </row>
     <row r="537" spans="2:18" ht="58.5">
       <c r="B537" s="19">
-        <f t="shared" ref="B537" si="53">B533+1</f>
+        <f t="shared" ref="B537" si="54">B533+1</f>
         <v>134</v>
       </c>
       <c r="C537" s="6"/>
@@ -18886,7 +19382,7 @@
     </row>
     <row r="541" spans="2:18" ht="58.5">
       <c r="B541" s="19">
-        <f t="shared" ref="B541" si="54">B537+1</f>
+        <f t="shared" ref="B541" si="55">B537+1</f>
         <v>135</v>
       </c>
       <c r="C541" s="6"/>
@@ -18965,7 +19461,7 @@
     </row>
     <row r="545" spans="2:18" ht="58.5">
       <c r="B545" s="19">
-        <f t="shared" ref="B545" si="55">B541+1</f>
+        <f t="shared" ref="B545" si="56">B541+1</f>
         <v>136</v>
       </c>
       <c r="C545" s="6"/>
@@ -19044,7 +19540,7 @@
     </row>
     <row r="549" spans="2:18" ht="58.5">
       <c r="B549" s="19">
-        <f t="shared" ref="B549" si="56">B545+1</f>
+        <f t="shared" ref="B549" si="57">B545+1</f>
         <v>137</v>
       </c>
       <c r="C549" s="6"/>
@@ -19123,7 +19619,7 @@
     </row>
     <row r="553" spans="2:18" ht="58.5">
       <c r="B553" s="19">
-        <f t="shared" ref="B553" si="57">B549+1</f>
+        <f t="shared" ref="B553" si="58">B549+1</f>
         <v>138</v>
       </c>
       <c r="C553" s="6"/>
@@ -19202,7 +19698,7 @@
     </row>
     <row r="557" spans="2:18" ht="58.5">
       <c r="B557" s="19">
-        <f t="shared" ref="B557" si="58">B553+1</f>
+        <f t="shared" ref="B557" si="59">B553+1</f>
         <v>139</v>
       </c>
       <c r="C557" s="6"/>
@@ -19281,7 +19777,7 @@
     </row>
     <row r="561" spans="2:18" ht="58.5">
       <c r="B561" s="19">
-        <f t="shared" ref="B561" si="59">B557+1</f>
+        <f t="shared" ref="B561" si="60">B557+1</f>
         <v>140</v>
       </c>
       <c r="C561" s="6"/>
@@ -19360,7 +19856,7 @@
     </row>
     <row r="565" spans="2:18" ht="58.5">
       <c r="B565" s="19">
-        <f t="shared" ref="B565" si="60">B561+1</f>
+        <f t="shared" ref="B565" si="61">B561+1</f>
         <v>141</v>
       </c>
       <c r="C565" s="6"/>
@@ -19439,7 +19935,7 @@
     </row>
     <row r="569" spans="2:18" ht="58.5">
       <c r="B569" s="19">
-        <f t="shared" ref="B569" si="61">B565+1</f>
+        <f t="shared" ref="B569" si="62">B565+1</f>
         <v>142</v>
       </c>
       <c r="C569" s="6"/>
@@ -19518,7 +20014,7 @@
     </row>
     <row r="573" spans="2:18" ht="58.5">
       <c r="B573" s="19">
-        <f t="shared" ref="B573" si="62">B569+1</f>
+        <f t="shared" ref="B573" si="63">B569+1</f>
         <v>143</v>
       </c>
       <c r="C573" s="6"/>
@@ -19597,7 +20093,7 @@
     </row>
     <row r="577" spans="2:18" ht="58.5">
       <c r="B577" s="19">
-        <f t="shared" ref="B577" si="63">B573+1</f>
+        <f t="shared" ref="B577" si="64">B573+1</f>
         <v>144</v>
       </c>
       <c r="C577" s="6"/>
@@ -19676,7 +20172,7 @@
     </row>
     <row r="581" spans="2:18" ht="58.5">
       <c r="B581" s="19">
-        <f t="shared" ref="B581" si="64">B577+1</f>
+        <f t="shared" ref="B581" si="65">B577+1</f>
         <v>145</v>
       </c>
       <c r="C581" s="6"/>
@@ -19755,7 +20251,7 @@
     </row>
     <row r="585" spans="2:18" ht="58.5">
       <c r="B585" s="19">
-        <f t="shared" ref="B585" si="65">B581+1</f>
+        <f t="shared" ref="B585" si="66">B581+1</f>
         <v>146</v>
       </c>
       <c r="C585" s="6"/>
@@ -19834,7 +20330,7 @@
     </row>
     <row r="589" spans="2:18" ht="58.5">
       <c r="B589" s="19">
-        <f t="shared" ref="B589" si="66">B585+1</f>
+        <f t="shared" ref="B589" si="67">B585+1</f>
         <v>147</v>
       </c>
       <c r="C589" s="6"/>
@@ -19913,7 +20409,7 @@
     </row>
     <row r="593" spans="2:18" ht="58.5">
       <c r="B593" s="19">
-        <f t="shared" ref="B593" si="67">B589+1</f>
+        <f t="shared" ref="B593" si="68">B589+1</f>
         <v>148</v>
       </c>
       <c r="C593" s="6"/>
@@ -19992,7 +20488,7 @@
     </row>
     <row r="597" spans="2:18" ht="58.5">
       <c r="B597" s="19">
-        <f t="shared" ref="B597" si="68">B593+1</f>
+        <f t="shared" ref="B597" si="69">B593+1</f>
         <v>149</v>
       </c>
       <c r="C597" s="6"/>
@@ -20071,7 +20567,7 @@
     </row>
     <row r="601" spans="2:18" ht="58.5">
       <c r="B601" s="19">
-        <f t="shared" ref="B601" si="69">B597+1</f>
+        <f t="shared" ref="B601" si="70">B597+1</f>
         <v>150</v>
       </c>
       <c r="C601" s="6"/>
@@ -22283,7 +22779,7 @@
     </row>
     <row r="713" spans="2:18" ht="58.5">
       <c r="B713" s="19">
-        <f t="shared" ref="B713" si="70">B709+1</f>
+        <f t="shared" ref="B713" si="71">B709+1</f>
         <v>178</v>
       </c>
       <c r="C713" s="6"/>
@@ -22362,7 +22858,7 @@
     </row>
     <row r="717" spans="2:18" ht="58.5">
       <c r="B717" s="19">
-        <f t="shared" ref="B717" si="71">B713+1</f>
+        <f t="shared" ref="B717" si="72">B713+1</f>
         <v>179</v>
       </c>
       <c r="C717" s="6"/>
@@ -22441,7 +22937,7 @@
     </row>
     <row r="721" spans="2:18" ht="58.5">
       <c r="B721" s="19">
-        <f t="shared" ref="B721" si="72">B717+1</f>
+        <f t="shared" ref="B721" si="73">B717+1</f>
         <v>180</v>
       </c>
       <c r="C721" s="6"/>
@@ -22520,7 +23016,7 @@
     </row>
     <row r="725" spans="2:18" ht="58.5">
       <c r="B725" s="19">
-        <f t="shared" ref="B725" si="73">B721+1</f>
+        <f t="shared" ref="B725" si="74">B721+1</f>
         <v>181</v>
       </c>
       <c r="C725" s="6"/>
@@ -22599,7 +23095,7 @@
     </row>
     <row r="729" spans="2:18" ht="58.5">
       <c r="B729" s="19">
-        <f t="shared" ref="B729" si="74">B725+1</f>
+        <f t="shared" ref="B729" si="75">B725+1</f>
         <v>182</v>
       </c>
       <c r="C729" s="6"/>
@@ -22678,7 +23174,7 @@
     </row>
     <row r="733" spans="2:18" ht="58.5">
       <c r="B733" s="19">
-        <f t="shared" ref="B733" si="75">B729+1</f>
+        <f t="shared" ref="B733" si="76">B729+1</f>
         <v>183</v>
       </c>
       <c r="C733" s="6"/>
@@ -22757,7 +23253,7 @@
     </row>
     <row r="737" spans="2:18" ht="58.5">
       <c r="B737" s="19">
-        <f t="shared" ref="B737" si="76">B733+1</f>
+        <f t="shared" ref="B737" si="77">B733+1</f>
         <v>184</v>
       </c>
       <c r="C737" s="6"/>
@@ -22836,7 +23332,7 @@
     </row>
     <row r="741" spans="2:18" ht="58.5">
       <c r="B741" s="19">
-        <f t="shared" ref="B741" si="77">B737+1</f>
+        <f t="shared" ref="B741" si="78">B737+1</f>
         <v>185</v>
       </c>
       <c r="C741" s="6"/>
@@ -22915,7 +23411,7 @@
     </row>
     <row r="745" spans="2:18" ht="58.5">
       <c r="B745" s="19">
-        <f t="shared" ref="B745" si="78">B741+1</f>
+        <f t="shared" ref="B745" si="79">B741+1</f>
         <v>186</v>
       </c>
       <c r="C745" s="6"/>
@@ -22994,7 +23490,7 @@
     </row>
     <row r="749" spans="2:18" ht="58.5">
       <c r="B749" s="19">
-        <f t="shared" ref="B749" si="79">B745+1</f>
+        <f t="shared" ref="B749" si="80">B745+1</f>
         <v>187</v>
       </c>
       <c r="C749" s="6"/>
@@ -23073,7 +23569,7 @@
     </row>
     <row r="753" spans="2:18" ht="58.5">
       <c r="B753" s="19">
-        <f t="shared" ref="B753" si="80">B749+1</f>
+        <f t="shared" ref="B753" si="81">B749+1</f>
         <v>188</v>
       </c>
       <c r="C753" s="6"/>
@@ -23152,7 +23648,7 @@
     </row>
     <row r="757" spans="2:18" ht="58.5">
       <c r="B757" s="19">
-        <f t="shared" ref="B757" si="81">B753+1</f>
+        <f t="shared" ref="B757" si="82">B753+1</f>
         <v>189</v>
       </c>
       <c r="C757" s="6"/>
@@ -23231,7 +23727,7 @@
     </row>
     <row r="761" spans="2:18" ht="58.5">
       <c r="B761" s="19">
-        <f t="shared" ref="B761" si="82">B757+1</f>
+        <f t="shared" ref="B761" si="83">B757+1</f>
         <v>190</v>
       </c>
       <c r="C761" s="6"/>
@@ -23310,7 +23806,7 @@
     </row>
     <row r="765" spans="2:18" ht="58.5">
       <c r="B765" s="19">
-        <f t="shared" ref="B765" si="83">B761+1</f>
+        <f t="shared" ref="B765" si="84">B761+1</f>
         <v>191</v>
       </c>
       <c r="C765" s="6"/>
@@ -23389,7 +23885,7 @@
     </row>
     <row r="769" spans="2:18" ht="58.5">
       <c r="B769" s="19">
-        <f t="shared" ref="B769" si="84">B765+1</f>
+        <f t="shared" ref="B769" si="85">B765+1</f>
         <v>192</v>
       </c>
       <c r="C769" s="6"/>
@@ -23468,7 +23964,7 @@
     </row>
     <row r="773" spans="2:18" ht="58.5">
       <c r="B773" s="19">
-        <f t="shared" ref="B773" si="85">B769+1</f>
+        <f t="shared" ref="B773" si="86">B769+1</f>
         <v>193</v>
       </c>
       <c r="C773" s="6"/>
@@ -23547,7 +24043,7 @@
     </row>
     <row r="777" spans="2:18" ht="58.5">
       <c r="B777" s="19">
-        <f t="shared" ref="B777" si="86">B773+1</f>
+        <f t="shared" ref="B777" si="87">B773+1</f>
         <v>194</v>
       </c>
       <c r="C777" s="6"/>
@@ -23626,7 +24122,7 @@
     </row>
     <row r="781" spans="2:18" ht="58.5">
       <c r="B781" s="19">
-        <f t="shared" ref="B781" si="87">B777+1</f>
+        <f t="shared" ref="B781" si="88">B777+1</f>
         <v>195</v>
       </c>
       <c r="C781" s="6"/>
@@ -23705,7 +24201,7 @@
     </row>
     <row r="785" spans="2:18" ht="58.5">
       <c r="B785" s="19">
-        <f t="shared" ref="B785" si="88">B781+1</f>
+        <f t="shared" ref="B785" si="89">B781+1</f>
         <v>196</v>
       </c>
       <c r="C785" s="6"/>
@@ -23784,7 +24280,7 @@
     </row>
     <row r="789" spans="2:18" ht="58.5">
       <c r="B789" s="19">
-        <f t="shared" ref="B789" si="89">B785+1</f>
+        <f t="shared" ref="B789" si="90">B785+1</f>
         <v>197</v>
       </c>
       <c r="C789" s="6"/>
@@ -23863,7 +24359,7 @@
     </row>
     <row r="793" spans="2:18" ht="58.5">
       <c r="B793" s="19">
-        <f t="shared" ref="B793" si="90">B789+1</f>
+        <f t="shared" ref="B793" si="91">B789+1</f>
         <v>198</v>
       </c>
       <c r="C793" s="6"/>
@@ -23942,7 +24438,7 @@
     </row>
     <row r="797" spans="2:18" ht="58.5">
       <c r="B797" s="19">
-        <f t="shared" ref="B797" si="91">B793+1</f>
+        <f t="shared" ref="B797" si="92">B793+1</f>
         <v>199</v>
       </c>
       <c r="C797" s="6"/>
@@ -24021,7 +24517,7 @@
     </row>
     <row r="801" spans="2:18" ht="58.5">
       <c r="B801" s="19">
-        <f t="shared" ref="B801" si="92">B797+1</f>
+        <f t="shared" ref="B801" si="93">B797+1</f>
         <v>200</v>
       </c>
       <c r="C801" s="6"/>
@@ -24100,7 +24596,7 @@
     </row>
     <row r="805" spans="2:18" ht="58.5">
       <c r="B805" s="19">
-        <f t="shared" ref="B805" si="93">B801+1</f>
+        <f t="shared" ref="B805" si="94">B801+1</f>
         <v>201</v>
       </c>
       <c r="C805" s="6"/>
@@ -26233,7 +26729,7 @@
     </row>
     <row r="913" spans="2:18" ht="58.5">
       <c r="B913" s="19">
-        <f t="shared" ref="B913" si="94">B909+1</f>
+        <f t="shared" ref="B913" si="95">B909+1</f>
         <v>228</v>
       </c>
       <c r="C913" s="6"/>
@@ -26312,7 +26808,7 @@
     </row>
     <row r="917" spans="2:18" ht="58.5">
       <c r="B917" s="19">
-        <f t="shared" ref="B917" si="95">B913+1</f>
+        <f t="shared" ref="B917" si="96">B913+1</f>
         <v>229</v>
       </c>
       <c r="C917" s="6"/>
@@ -26391,7 +26887,7 @@
     </row>
     <row r="921" spans="2:18" ht="58.5">
       <c r="B921" s="19">
-        <f t="shared" ref="B921" si="96">B917+1</f>
+        <f t="shared" ref="B921" si="97">B917+1</f>
         <v>230</v>
       </c>
       <c r="C921" s="6"/>
@@ -26470,7 +26966,7 @@
     </row>
     <row r="925" spans="2:18" ht="58.5">
       <c r="B925" s="19">
-        <f t="shared" ref="B925" si="97">B921+1</f>
+        <f t="shared" ref="B925" si="98">B921+1</f>
         <v>231</v>
       </c>
       <c r="C925" s="6"/>
@@ -26549,7 +27045,7 @@
     </row>
     <row r="929" spans="2:18" ht="58.5">
       <c r="B929" s="19">
-        <f t="shared" ref="B929" si="98">B925+1</f>
+        <f t="shared" ref="B929" si="99">B925+1</f>
         <v>232</v>
       </c>
       <c r="C929" s="6"/>
@@ -26628,7 +27124,7 @@
     </row>
     <row r="933" spans="2:18" ht="58.5">
       <c r="B933" s="19">
-        <f t="shared" ref="B933" si="99">B929+1</f>
+        <f t="shared" ref="B933" si="100">B929+1</f>
         <v>233</v>
       </c>
       <c r="C933" s="6"/>
@@ -26707,7 +27203,7 @@
     </row>
     <row r="937" spans="2:18" ht="58.5">
       <c r="B937" s="19">
-        <f t="shared" ref="B937" si="100">B933+1</f>
+        <f t="shared" ref="B937" si="101">B933+1</f>
         <v>234</v>
       </c>
       <c r="C937" s="6"/>
@@ -26786,7 +27282,7 @@
     </row>
     <row r="941" spans="2:18" ht="58.5">
       <c r="B941" s="19">
-        <f t="shared" ref="B941" si="101">B937+1</f>
+        <f t="shared" ref="B941" si="102">B937+1</f>
         <v>235</v>
       </c>
       <c r="C941" s="6"/>
@@ -26865,7 +27361,7 @@
     </row>
     <row r="945" spans="2:18" ht="58.5">
       <c r="B945" s="19">
-        <f t="shared" ref="B945" si="102">B941+1</f>
+        <f t="shared" ref="B945" si="103">B941+1</f>
         <v>236</v>
       </c>
       <c r="C945" s="6"/>
@@ -26944,7 +27440,7 @@
     </row>
     <row r="949" spans="2:18" ht="58.5">
       <c r="B949" s="19">
-        <f t="shared" ref="B949" si="103">B945+1</f>
+        <f t="shared" ref="B949" si="104">B945+1</f>
         <v>237</v>
       </c>
       <c r="C949" s="6"/>
@@ -27023,7 +27519,7 @@
     </row>
     <row r="953" spans="2:18" ht="58.5">
       <c r="B953" s="19">
-        <f t="shared" ref="B953" si="104">B949+1</f>
+        <f t="shared" ref="B953" si="105">B949+1</f>
         <v>238</v>
       </c>
       <c r="C953" s="6"/>
@@ -27102,7 +27598,7 @@
     </row>
     <row r="957" spans="2:18" ht="58.5">
       <c r="B957" s="19">
-        <f t="shared" ref="B957" si="105">B953+1</f>
+        <f t="shared" ref="B957" si="106">B953+1</f>
         <v>239</v>
       </c>
       <c r="C957" s="6"/>
@@ -27181,7 +27677,7 @@
     </row>
     <row r="961" spans="2:18" ht="58.5">
       <c r="B961" s="19">
-        <f t="shared" ref="B961" si="106">B957+1</f>
+        <f t="shared" ref="B961" si="107">B957+1</f>
         <v>240</v>
       </c>
       <c r="C961" s="6"/>
@@ -27260,7 +27756,7 @@
     </row>
     <row r="965" spans="2:18" ht="58.5">
       <c r="B965" s="19">
-        <f t="shared" ref="B965" si="107">B961+1</f>
+        <f t="shared" ref="B965" si="108">B961+1</f>
         <v>241</v>
       </c>
       <c r="C965" s="6"/>
@@ -27339,7 +27835,7 @@
     </row>
     <row r="969" spans="2:18" ht="58.5">
       <c r="B969" s="19">
-        <f t="shared" ref="B969" si="108">B965+1</f>
+        <f t="shared" ref="B969" si="109">B965+1</f>
         <v>242</v>
       </c>
       <c r="C969" s="6"/>
@@ -27418,7 +27914,7 @@
     </row>
     <row r="973" spans="2:18" ht="58.5">
       <c r="B973" s="19">
-        <f t="shared" ref="B973" si="109">B969+1</f>
+        <f t="shared" ref="B973" si="110">B969+1</f>
         <v>243</v>
       </c>
       <c r="C973" s="6"/>
@@ -27497,7 +27993,7 @@
     </row>
     <row r="977" spans="2:18" ht="58.5">
       <c r="B977" s="19">
-        <f t="shared" ref="B977" si="110">B973+1</f>
+        <f t="shared" ref="B977" si="111">B973+1</f>
         <v>244</v>
       </c>
       <c r="C977" s="6"/>
@@ -27576,7 +28072,7 @@
     </row>
     <row r="981" spans="2:18" ht="58.5">
       <c r="B981" s="19">
-        <f t="shared" ref="B981" si="111">B977+1</f>
+        <f t="shared" ref="B981" si="112">B977+1</f>
         <v>245</v>
       </c>
       <c r="C981" s="6"/>
@@ -27655,7 +28151,7 @@
     </row>
     <row r="985" spans="2:18" ht="58.5">
       <c r="B985" s="19">
-        <f t="shared" ref="B985" si="112">B981+1</f>
+        <f t="shared" ref="B985" si="113">B981+1</f>
         <v>246</v>
       </c>
       <c r="C985" s="6"/>
@@ -27734,7 +28230,7 @@
     </row>
     <row r="989" spans="2:18" ht="58.5">
       <c r="B989" s="19">
-        <f t="shared" ref="B989" si="113">B985+1</f>
+        <f t="shared" ref="B989" si="114">B985+1</f>
         <v>247</v>
       </c>
       <c r="C989" s="6"/>
@@ -27813,7 +28309,7 @@
     </row>
     <row r="993" spans="2:18" ht="58.5">
       <c r="B993" s="19">
-        <f t="shared" ref="B993" si="114">B989+1</f>
+        <f t="shared" ref="B993" si="115">B989+1</f>
         <v>248</v>
       </c>
       <c r="C993" s="6"/>
@@ -27892,7 +28388,7 @@
     </row>
     <row r="997" spans="2:18" ht="58.5">
       <c r="B997" s="19">
-        <f t="shared" ref="B997" si="115">B993+1</f>
+        <f t="shared" ref="B997" si="116">B993+1</f>
         <v>249</v>
       </c>
       <c r="C997" s="6"/>
@@ -27971,7 +28467,7 @@
     </row>
     <row r="1001" spans="2:18" ht="58.5">
       <c r="B1001" s="19">
-        <f t="shared" ref="B1001" si="116">B997+1</f>
+        <f t="shared" ref="B1001" si="117">B997+1</f>
         <v>250</v>
       </c>
       <c r="C1001" s="6"/>
@@ -30183,7 +30679,7 @@
     </row>
     <row r="1113" spans="2:18" ht="58.5">
       <c r="B1113" s="19">
-        <f t="shared" ref="B1113" si="117">B1109+1</f>
+        <f t="shared" ref="B1113" si="118">B1109+1</f>
         <v>278</v>
       </c>
       <c r="C1113" s="6"/>
@@ -30262,7 +30758,7 @@
     </row>
     <row r="1117" spans="2:18" ht="58.5">
       <c r="B1117" s="19">
-        <f t="shared" ref="B1117" si="118">B1113+1</f>
+        <f t="shared" ref="B1117" si="119">B1113+1</f>
         <v>279</v>
       </c>
       <c r="C1117" s="6"/>
@@ -30341,7 +30837,7 @@
     </row>
     <row r="1121" spans="2:18" ht="58.5">
       <c r="B1121" s="19">
-        <f t="shared" ref="B1121" si="119">B1117+1</f>
+        <f t="shared" ref="B1121" si="120">B1117+1</f>
         <v>280</v>
       </c>
       <c r="C1121" s="6"/>
@@ -30420,7 +30916,7 @@
     </row>
     <row r="1125" spans="2:18" ht="58.5">
       <c r="B1125" s="19">
-        <f t="shared" ref="B1125" si="120">B1121+1</f>
+        <f t="shared" ref="B1125" si="121">B1121+1</f>
         <v>281</v>
       </c>
       <c r="C1125" s="6"/>
@@ -30499,7 +30995,7 @@
     </row>
     <row r="1129" spans="2:18" ht="58.5">
       <c r="B1129" s="19">
-        <f t="shared" ref="B1129" si="121">B1125+1</f>
+        <f t="shared" ref="B1129" si="122">B1125+1</f>
         <v>282</v>
       </c>
       <c r="C1129" s="6"/>
@@ -30578,7 +31074,7 @@
     </row>
     <row r="1133" spans="2:18" ht="58.5">
       <c r="B1133" s="19">
-        <f t="shared" ref="B1133" si="122">B1129+1</f>
+        <f t="shared" ref="B1133" si="123">B1129+1</f>
         <v>283</v>
       </c>
       <c r="C1133" s="6"/>
@@ -30657,7 +31153,7 @@
     </row>
     <row r="1137" spans="2:18" ht="58.5">
       <c r="B1137" s="19">
-        <f t="shared" ref="B1137" si="123">B1133+1</f>
+        <f t="shared" ref="B1137" si="124">B1133+1</f>
         <v>284</v>
       </c>
       <c r="C1137" s="6"/>
@@ -30736,7 +31232,7 @@
     </row>
     <row r="1141" spans="2:18" ht="58.5">
       <c r="B1141" s="19">
-        <f t="shared" ref="B1141" si="124">B1137+1</f>
+        <f t="shared" ref="B1141" si="125">B1137+1</f>
         <v>285</v>
       </c>
       <c r="C1141" s="6"/>
@@ -30815,7 +31311,7 @@
     </row>
     <row r="1145" spans="2:18" ht="58.5">
       <c r="B1145" s="19">
-        <f t="shared" ref="B1145" si="125">B1141+1</f>
+        <f t="shared" ref="B1145" si="126">B1141+1</f>
         <v>286</v>
       </c>
       <c r="C1145" s="6"/>
@@ -30894,7 +31390,7 @@
     </row>
     <row r="1149" spans="2:18" ht="58.5">
       <c r="B1149" s="19">
-        <f t="shared" ref="B1149" si="126">B1145+1</f>
+        <f t="shared" ref="B1149" si="127">B1145+1</f>
         <v>287</v>
       </c>
       <c r="C1149" s="6"/>
@@ -30973,7 +31469,7 @@
     </row>
     <row r="1153" spans="2:18" ht="58.5">
       <c r="B1153" s="19">
-        <f t="shared" ref="B1153" si="127">B1149+1</f>
+        <f t="shared" ref="B1153" si="128">B1149+1</f>
         <v>288</v>
       </c>
       <c r="C1153" s="6"/>
@@ -31052,7 +31548,7 @@
     </row>
     <row r="1157" spans="2:18" ht="58.5">
       <c r="B1157" s="19">
-        <f t="shared" ref="B1157" si="128">B1153+1</f>
+        <f t="shared" ref="B1157" si="129">B1153+1</f>
         <v>289</v>
       </c>
       <c r="C1157" s="6"/>
@@ -31131,7 +31627,7 @@
     </row>
     <row r="1161" spans="2:18" ht="58.5">
       <c r="B1161" s="19">
-        <f t="shared" ref="B1161" si="129">B1157+1</f>
+        <f t="shared" ref="B1161" si="130">B1157+1</f>
         <v>290</v>
       </c>
       <c r="C1161" s="6"/>
@@ -31210,7 +31706,7 @@
     </row>
     <row r="1165" spans="2:18" ht="58.5">
       <c r="B1165" s="19">
-        <f t="shared" ref="B1165" si="130">B1161+1</f>
+        <f t="shared" ref="B1165" si="131">B1161+1</f>
         <v>291</v>
       </c>
       <c r="C1165" s="6"/>
@@ -31289,7 +31785,7 @@
     </row>
     <row r="1169" spans="2:18" ht="58.5">
       <c r="B1169" s="19">
-        <f t="shared" ref="B1169" si="131">B1165+1</f>
+        <f t="shared" ref="B1169" si="132">B1165+1</f>
         <v>292</v>
       </c>
       <c r="C1169" s="6"/>
@@ -31368,7 +31864,7 @@
     </row>
     <row r="1173" spans="2:18" ht="58.5">
       <c r="B1173" s="19">
-        <f t="shared" ref="B1173" si="132">B1169+1</f>
+        <f t="shared" ref="B1173" si="133">B1169+1</f>
         <v>293</v>
       </c>
       <c r="C1173" s="6"/>
@@ -31447,7 +31943,7 @@
     </row>
     <row r="1177" spans="2:18" ht="58.5">
       <c r="B1177" s="19">
-        <f t="shared" ref="B1177" si="133">B1173+1</f>
+        <f t="shared" ref="B1177" si="134">B1173+1</f>
         <v>294</v>
       </c>
       <c r="C1177" s="6"/>
@@ -31526,7 +32022,7 @@
     </row>
     <row r="1181" spans="2:18" ht="58.5">
       <c r="B1181" s="19">
-        <f t="shared" ref="B1181" si="134">B1177+1</f>
+        <f t="shared" ref="B1181" si="135">B1177+1</f>
         <v>295</v>
       </c>
       <c r="C1181" s="6"/>
@@ -31605,7 +32101,7 @@
     </row>
     <row r="1185" spans="2:18" ht="58.5">
       <c r="B1185" s="19">
-        <f t="shared" ref="B1185" si="135">B1181+1</f>
+        <f t="shared" ref="B1185" si="136">B1181+1</f>
         <v>296</v>
       </c>
       <c r="C1185" s="6"/>
@@ -31684,7 +32180,7 @@
     </row>
     <row r="1189" spans="2:18" ht="58.5">
       <c r="B1189" s="19">
-        <f t="shared" ref="B1189" si="136">B1185+1</f>
+        <f t="shared" ref="B1189" si="137">B1185+1</f>
         <v>297</v>
       </c>
       <c r="C1189" s="6"/>
@@ -31763,7 +32259,7 @@
     </row>
     <row r="1193" spans="2:18" ht="58.5">
       <c r="B1193" s="19">
-        <f t="shared" ref="B1193" si="137">B1189+1</f>
+        <f t="shared" ref="B1193" si="138">B1189+1</f>
         <v>298</v>
       </c>
       <c r="C1193" s="6"/>
@@ -31842,7 +32338,7 @@
     </row>
     <row r="1197" spans="2:18" ht="58.5">
       <c r="B1197" s="19">
-        <f t="shared" ref="B1197" si="138">B1193+1</f>
+        <f t="shared" ref="B1197" si="139">B1193+1</f>
         <v>299</v>
       </c>
       <c r="C1197" s="6"/>
@@ -31921,7 +32417,7 @@
     </row>
     <row r="1201" spans="2:18" ht="58.5">
       <c r="B1201" s="19">
-        <f t="shared" ref="B1201" si="139">B1197+1</f>
+        <f t="shared" ref="B1201" si="140">B1197+1</f>
         <v>300</v>
       </c>
       <c r="C1201" s="6"/>
@@ -32000,7 +32496,7 @@
     </row>
     <row r="1205" spans="2:18" ht="58.5">
       <c r="B1205" s="19">
-        <f t="shared" ref="B1205" si="140">B1201+1</f>
+        <f t="shared" ref="B1205" si="141">B1201+1</f>
         <v>301</v>
       </c>
       <c r="C1205" s="6"/>
@@ -34133,7 +34629,7 @@
     </row>
     <row r="1313" spans="2:18" ht="58.5">
       <c r="B1313" s="19">
-        <f t="shared" ref="B1313" si="141">B1309+1</f>
+        <f t="shared" ref="B1313" si="142">B1309+1</f>
         <v>328</v>
       </c>
       <c r="C1313" s="6"/>
@@ -34212,7 +34708,7 @@
     </row>
     <row r="1317" spans="2:18" ht="58.5">
       <c r="B1317" s="19">
-        <f t="shared" ref="B1317" si="142">B1313+1</f>
+        <f t="shared" ref="B1317" si="143">B1313+1</f>
         <v>329</v>
       </c>
       <c r="C1317" s="6"/>
@@ -34291,7 +34787,7 @@
     </row>
     <row r="1321" spans="2:18" ht="58.5">
       <c r="B1321" s="19">
-        <f t="shared" ref="B1321" si="143">B1317+1</f>
+        <f t="shared" ref="B1321" si="144">B1317+1</f>
         <v>330</v>
       </c>
       <c r="C1321" s="6"/>
@@ -34370,7 +34866,7 @@
     </row>
     <row r="1325" spans="2:18" ht="58.5">
       <c r="B1325" s="19">
-        <f t="shared" ref="B1325" si="144">B1321+1</f>
+        <f t="shared" ref="B1325" si="145">B1321+1</f>
         <v>331</v>
       </c>
       <c r="C1325" s="6"/>
@@ -34449,7 +34945,7 @@
     </row>
     <row r="1329" spans="2:18" ht="58.5">
       <c r="B1329" s="19">
-        <f t="shared" ref="B1329" si="145">B1325+1</f>
+        <f t="shared" ref="B1329" si="146">B1325+1</f>
         <v>332</v>
       </c>
       <c r="C1329" s="6"/>
@@ -34528,7 +35024,7 @@
     </row>
     <row r="1333" spans="2:18" ht="58.5">
       <c r="B1333" s="19">
-        <f t="shared" ref="B1333" si="146">B1329+1</f>
+        <f t="shared" ref="B1333" si="147">B1329+1</f>
         <v>333</v>
       </c>
       <c r="C1333" s="6"/>
@@ -34607,7 +35103,7 @@
     </row>
     <row r="1337" spans="2:18" ht="58.5">
       <c r="B1337" s="19">
-        <f t="shared" ref="B1337" si="147">B1333+1</f>
+        <f t="shared" ref="B1337" si="148">B1333+1</f>
         <v>334</v>
       </c>
       <c r="C1337" s="6"/>
@@ -34686,7 +35182,7 @@
     </row>
     <row r="1341" spans="2:18" ht="58.5">
       <c r="B1341" s="19">
-        <f t="shared" ref="B1341" si="148">B1337+1</f>
+        <f t="shared" ref="B1341" si="149">B1337+1</f>
         <v>335</v>
       </c>
       <c r="C1341" s="6"/>
@@ -34765,7 +35261,7 @@
     </row>
     <row r="1345" spans="2:18" ht="58.5">
       <c r="B1345" s="19">
-        <f t="shared" ref="B1345" si="149">B1341+1</f>
+        <f t="shared" ref="B1345" si="150">B1341+1</f>
         <v>336</v>
       </c>
       <c r="C1345" s="6"/>
@@ -34844,7 +35340,7 @@
     </row>
     <row r="1349" spans="2:18" ht="58.5">
       <c r="B1349" s="19">
-        <f t="shared" ref="B1349" si="150">B1345+1</f>
+        <f t="shared" ref="B1349" si="151">B1345+1</f>
         <v>337</v>
       </c>
       <c r="C1349" s="6"/>
@@ -34923,7 +35419,7 @@
     </row>
     <row r="1353" spans="2:18" ht="58.5">
       <c r="B1353" s="19">
-        <f t="shared" ref="B1353" si="151">B1349+1</f>
+        <f t="shared" ref="B1353" si="152">B1349+1</f>
         <v>338</v>
       </c>
       <c r="C1353" s="6"/>
@@ -35002,7 +35498,7 @@
     </row>
     <row r="1357" spans="2:18" ht="58.5">
       <c r="B1357" s="19">
-        <f t="shared" ref="B1357" si="152">B1353+1</f>
+        <f t="shared" ref="B1357" si="153">B1353+1</f>
         <v>339</v>
       </c>
       <c r="C1357" s="6"/>
@@ -35081,7 +35577,7 @@
     </row>
     <row r="1361" spans="2:18" ht="58.5">
       <c r="B1361" s="19">
-        <f t="shared" ref="B1361" si="153">B1357+1</f>
+        <f t="shared" ref="B1361" si="154">B1357+1</f>
         <v>340</v>
       </c>
       <c r="C1361" s="6"/>
@@ -35160,7 +35656,7 @@
     </row>
     <row r="1365" spans="2:18" ht="58.5">
       <c r="B1365" s="19">
-        <f t="shared" ref="B1365" si="154">B1361+1</f>
+        <f t="shared" ref="B1365" si="155">B1361+1</f>
         <v>341</v>
       </c>
       <c r="C1365" s="6"/>
@@ -35239,7 +35735,7 @@
     </row>
     <row r="1369" spans="2:18" ht="58.5">
       <c r="B1369" s="19">
-        <f t="shared" ref="B1369" si="155">B1365+1</f>
+        <f t="shared" ref="B1369" si="156">B1365+1</f>
         <v>342</v>
       </c>
       <c r="C1369" s="6"/>
@@ -35318,7 +35814,7 @@
     </row>
     <row r="1373" spans="2:18" ht="58.5">
       <c r="B1373" s="19">
-        <f t="shared" ref="B1373" si="156">B1369+1</f>
+        <f t="shared" ref="B1373" si="157">B1369+1</f>
         <v>343</v>
       </c>
       <c r="C1373" s="6"/>
@@ -35397,7 +35893,7 @@
     </row>
     <row r="1377" spans="2:18" ht="58.5">
       <c r="B1377" s="19">
-        <f t="shared" ref="B1377" si="157">B1373+1</f>
+        <f t="shared" ref="B1377" si="158">B1373+1</f>
         <v>344</v>
       </c>
       <c r="C1377" s="6"/>
@@ -35476,7 +35972,7 @@
     </row>
     <row r="1381" spans="2:18" ht="58.5">
       <c r="B1381" s="19">
-        <f t="shared" ref="B1381" si="158">B1377+1</f>
+        <f t="shared" ref="B1381" si="159">B1377+1</f>
         <v>345</v>
       </c>
       <c r="C1381" s="6"/>
@@ -35555,7 +36051,7 @@
     </row>
     <row r="1385" spans="2:18" ht="58.5">
       <c r="B1385" s="19">
-        <f t="shared" ref="B1385" si="159">B1381+1</f>
+        <f t="shared" ref="B1385" si="160">B1381+1</f>
         <v>346</v>
       </c>
       <c r="C1385" s="6"/>
@@ -35634,7 +36130,7 @@
     </row>
     <row r="1389" spans="2:18" ht="58.5">
       <c r="B1389" s="19">
-        <f t="shared" ref="B1389" si="160">B1385+1</f>
+        <f t="shared" ref="B1389" si="161">B1385+1</f>
         <v>347</v>
       </c>
       <c r="C1389" s="6"/>
@@ -35713,7 +36209,7 @@
     </row>
     <row r="1393" spans="2:18" ht="58.5">
       <c r="B1393" s="19">
-        <f t="shared" ref="B1393" si="161">B1389+1</f>
+        <f t="shared" ref="B1393" si="162">B1389+1</f>
         <v>348</v>
       </c>
       <c r="C1393" s="6"/>
@@ -35792,7 +36288,7 @@
     </row>
     <row r="1397" spans="2:18" ht="58.5">
       <c r="B1397" s="19">
-        <f t="shared" ref="B1397" si="162">B1393+1</f>
+        <f t="shared" ref="B1397" si="163">B1393+1</f>
         <v>349</v>
       </c>
       <c r="C1397" s="6"/>
@@ -35871,7 +36367,7 @@
     </row>
     <row r="1401" spans="2:18" ht="58.5">
       <c r="B1401" s="19">
-        <f t="shared" ref="B1401" si="163">B1397+1</f>
+        <f t="shared" ref="B1401" si="164">B1397+1</f>
         <v>350</v>
       </c>
       <c r="C1401" s="6"/>
@@ -38083,7 +38579,7 @@
     </row>
     <row r="1513" spans="2:18" ht="58.5">
       <c r="B1513" s="19">
-        <f t="shared" ref="B1513" si="164">B1509+1</f>
+        <f t="shared" ref="B1513" si="165">B1509+1</f>
         <v>378</v>
       </c>
       <c r="C1513" s="6"/>
@@ -38162,7 +38658,7 @@
     </row>
     <row r="1517" spans="2:18" ht="58.5">
       <c r="B1517" s="19">
-        <f t="shared" ref="B1517" si="165">B1513+1</f>
+        <f t="shared" ref="B1517" si="166">B1513+1</f>
         <v>379</v>
       </c>
       <c r="C1517" s="6"/>
@@ -38241,7 +38737,7 @@
     </row>
     <row r="1521" spans="2:18" ht="58.5">
       <c r="B1521" s="19">
-        <f t="shared" ref="B1521" si="166">B1517+1</f>
+        <f t="shared" ref="B1521" si="167">B1517+1</f>
         <v>380</v>
       </c>
       <c r="C1521" s="6"/>
@@ -38320,7 +38816,7 @@
     </row>
     <row r="1525" spans="2:18" ht="58.5">
       <c r="B1525" s="19">
-        <f t="shared" ref="B1525" si="167">B1521+1</f>
+        <f t="shared" ref="B1525" si="168">B1521+1</f>
         <v>381</v>
       </c>
       <c r="C1525" s="6"/>
@@ -38399,7 +38895,7 @@
     </row>
     <row r="1529" spans="2:18" ht="58.5">
       <c r="B1529" s="19">
-        <f t="shared" ref="B1529" si="168">B1525+1</f>
+        <f t="shared" ref="B1529" si="169">B1525+1</f>
         <v>382</v>
       </c>
       <c r="C1529" s="6"/>
@@ -38478,7 +38974,7 @@
     </row>
     <row r="1533" spans="2:18" ht="58.5">
       <c r="B1533" s="19">
-        <f t="shared" ref="B1533" si="169">B1529+1</f>
+        <f t="shared" ref="B1533" si="170">B1529+1</f>
         <v>383</v>
       </c>
       <c r="C1533" s="6"/>
@@ -38557,7 +39053,7 @@
     </row>
     <row r="1537" spans="2:18" ht="58.5">
       <c r="B1537" s="19">
-        <f t="shared" ref="B1537" si="170">B1533+1</f>
+        <f t="shared" ref="B1537" si="171">B1533+1</f>
         <v>384</v>
       </c>
       <c r="C1537" s="6"/>
@@ -38636,7 +39132,7 @@
     </row>
     <row r="1541" spans="2:18" ht="58.5">
       <c r="B1541" s="19">
-        <f t="shared" ref="B1541" si="171">B1537+1</f>
+        <f t="shared" ref="B1541" si="172">B1537+1</f>
         <v>385</v>
       </c>
       <c r="C1541" s="6"/>
@@ -38715,7 +39211,7 @@
     </row>
     <row r="1545" spans="2:18" ht="58.5">
       <c r="B1545" s="19">
-        <f t="shared" ref="B1545" si="172">B1541+1</f>
+        <f t="shared" ref="B1545" si="173">B1541+1</f>
         <v>386</v>
       </c>
       <c r="C1545" s="6"/>
@@ -38794,7 +39290,7 @@
     </row>
     <row r="1549" spans="2:18" ht="58.5">
       <c r="B1549" s="19">
-        <f t="shared" ref="B1549" si="173">B1545+1</f>
+        <f t="shared" ref="B1549" si="174">B1545+1</f>
         <v>387</v>
       </c>
       <c r="C1549" s="6"/>
@@ -38873,7 +39369,7 @@
     </row>
     <row r="1553" spans="2:18" ht="58.5">
       <c r="B1553" s="19">
-        <f t="shared" ref="B1553" si="174">B1549+1</f>
+        <f t="shared" ref="B1553" si="175">B1549+1</f>
         <v>388</v>
       </c>
       <c r="C1553" s="6"/>
@@ -38952,7 +39448,7 @@
     </row>
     <row r="1557" spans="2:18" ht="58.5">
       <c r="B1557" s="19">
-        <f t="shared" ref="B1557" si="175">B1553+1</f>
+        <f t="shared" ref="B1557" si="176">B1553+1</f>
         <v>389</v>
       </c>
       <c r="C1557" s="6"/>
@@ -39031,7 +39527,7 @@
     </row>
     <row r="1561" spans="2:18" ht="58.5">
       <c r="B1561" s="19">
-        <f t="shared" ref="B1561" si="176">B1557+1</f>
+        <f t="shared" ref="B1561" si="177">B1557+1</f>
         <v>390</v>
       </c>
       <c r="C1561" s="6"/>
@@ -39110,7 +39606,7 @@
     </row>
     <row r="1565" spans="2:18" ht="58.5">
       <c r="B1565" s="19">
-        <f t="shared" ref="B1565" si="177">B1561+1</f>
+        <f t="shared" ref="B1565" si="178">B1561+1</f>
         <v>391</v>
       </c>
       <c r="C1565" s="6"/>
@@ -39189,7 +39685,7 @@
     </row>
     <row r="1569" spans="2:18" ht="58.5">
       <c r="B1569" s="19">
-        <f t="shared" ref="B1569" si="178">B1565+1</f>
+        <f t="shared" ref="B1569" si="179">B1565+1</f>
         <v>392</v>
       </c>
       <c r="C1569" s="6"/>
@@ -39268,7 +39764,7 @@
     </row>
     <row r="1573" spans="2:18" ht="58.5">
       <c r="B1573" s="19">
-        <f t="shared" ref="B1573" si="179">B1569+1</f>
+        <f t="shared" ref="B1573" si="180">B1569+1</f>
         <v>393</v>
       </c>
       <c r="C1573" s="6"/>
@@ -39347,7 +39843,7 @@
     </row>
     <row r="1577" spans="2:18" ht="58.5">
       <c r="B1577" s="19">
-        <f t="shared" ref="B1577" si="180">B1573+1</f>
+        <f t="shared" ref="B1577" si="181">B1573+1</f>
         <v>394</v>
       </c>
       <c r="C1577" s="6"/>
@@ -39426,7 +39922,7 @@
     </row>
     <row r="1581" spans="2:18" ht="58.5">
       <c r="B1581" s="19">
-        <f t="shared" ref="B1581" si="181">B1577+1</f>
+        <f t="shared" ref="B1581" si="182">B1577+1</f>
         <v>395</v>
       </c>
       <c r="C1581" s="6"/>
@@ -39505,7 +40001,7 @@
     </row>
     <row r="1585" spans="2:18" ht="58.5">
       <c r="B1585" s="19">
-        <f t="shared" ref="B1585" si="182">B1581+1</f>
+        <f t="shared" ref="B1585" si="183">B1581+1</f>
         <v>396</v>
       </c>
       <c r="C1585" s="6"/>
@@ -39584,7 +40080,7 @@
     </row>
     <row r="1589" spans="2:18" ht="58.5">
       <c r="B1589" s="19">
-        <f t="shared" ref="B1589" si="183">B1585+1</f>
+        <f t="shared" ref="B1589" si="184">B1585+1</f>
         <v>397</v>
       </c>
       <c r="C1589" s="6"/>
@@ -39663,7 +40159,7 @@
     </row>
     <row r="1593" spans="2:18" ht="58.5">
       <c r="B1593" s="19">
-        <f t="shared" ref="B1593" si="184">B1589+1</f>
+        <f t="shared" ref="B1593" si="185">B1589+1</f>
         <v>398</v>
       </c>
       <c r="C1593" s="6"/>
@@ -39742,7 +40238,7 @@
     </row>
     <row r="1597" spans="2:18" ht="58.5">
       <c r="B1597" s="19">
-        <f t="shared" ref="B1597" si="185">B1593+1</f>
+        <f t="shared" ref="B1597" si="186">B1593+1</f>
         <v>399</v>
       </c>
       <c r="C1597" s="6"/>
@@ -39821,7 +40317,7 @@
     </row>
     <row r="1601" spans="2:18" ht="58.5">
       <c r="B1601" s="19">
-        <f t="shared" ref="B1601" si="186">B1597+1</f>
+        <f t="shared" ref="B1601" si="187">B1597+1</f>
         <v>400</v>
       </c>
       <c r="C1601" s="6"/>
@@ -39900,7 +40396,7 @@
     </row>
     <row r="1605" spans="2:18" ht="58.5">
       <c r="B1605" s="19">
-        <f t="shared" ref="B1605" si="187">B1601+1</f>
+        <f t="shared" ref="B1605" si="188">B1601+1</f>
         <v>401</v>
       </c>
       <c r="C1605" s="6"/>
@@ -42033,7 +42529,7 @@
     </row>
     <row r="1713" spans="2:18" ht="58.5">
       <c r="B1713" s="19">
-        <f t="shared" ref="B1713" si="188">B1709+1</f>
+        <f t="shared" ref="B1713" si="189">B1709+1</f>
         <v>428</v>
       </c>
       <c r="C1713" s="6"/>
@@ -42112,7 +42608,7 @@
     </row>
     <row r="1717" spans="2:18" ht="58.5">
       <c r="B1717" s="19">
-        <f t="shared" ref="B1717" si="189">B1713+1</f>
+        <f t="shared" ref="B1717" si="190">B1713+1</f>
         <v>429</v>
       </c>
       <c r="C1717" s="6"/>
@@ -42191,7 +42687,7 @@
     </row>
     <row r="1721" spans="2:18" ht="58.5">
       <c r="B1721" s="19">
-        <f t="shared" ref="B1721" si="190">B1717+1</f>
+        <f t="shared" ref="B1721" si="191">B1717+1</f>
         <v>430</v>
       </c>
       <c r="C1721" s="6"/>
@@ -42270,7 +42766,7 @@
     </row>
     <row r="1725" spans="2:18" ht="58.5">
       <c r="B1725" s="19">
-        <f t="shared" ref="B1725" si="191">B1721+1</f>
+        <f t="shared" ref="B1725" si="192">B1721+1</f>
         <v>431</v>
       </c>
       <c r="C1725" s="6"/>
@@ -42349,7 +42845,7 @@
     </row>
     <row r="1729" spans="2:18" ht="58.5">
       <c r="B1729" s="19">
-        <f t="shared" ref="B1729" si="192">B1725+1</f>
+        <f t="shared" ref="B1729" si="193">B1725+1</f>
         <v>432</v>
       </c>
       <c r="C1729" s="6"/>
@@ -42428,7 +42924,7 @@
     </row>
     <row r="1733" spans="2:18" ht="58.5">
       <c r="B1733" s="19">
-        <f t="shared" ref="B1733" si="193">B1729+1</f>
+        <f t="shared" ref="B1733" si="194">B1729+1</f>
         <v>433</v>
       </c>
       <c r="C1733" s="6"/>
@@ -42507,7 +43003,7 @@
     </row>
     <row r="1737" spans="2:18" ht="58.5">
       <c r="B1737" s="19">
-        <f t="shared" ref="B1737" si="194">B1733+1</f>
+        <f t="shared" ref="B1737" si="195">B1733+1</f>
         <v>434</v>
       </c>
       <c r="C1737" s="6"/>
@@ -42586,7 +43082,7 @@
     </row>
     <row r="1741" spans="2:18" ht="58.5">
       <c r="B1741" s="19">
-        <f t="shared" ref="B1741" si="195">B1737+1</f>
+        <f t="shared" ref="B1741" si="196">B1737+1</f>
         <v>435</v>
       </c>
       <c r="C1741" s="6"/>
@@ -42665,7 +43161,7 @@
     </row>
     <row r="1745" spans="2:18" ht="58.5">
       <c r="B1745" s="19">
-        <f t="shared" ref="B1745" si="196">B1741+1</f>
+        <f t="shared" ref="B1745" si="197">B1741+1</f>
         <v>436</v>
       </c>
       <c r="C1745" s="6"/>
@@ -42744,7 +43240,7 @@
     </row>
     <row r="1749" spans="2:18" ht="58.5">
       <c r="B1749" s="19">
-        <f t="shared" ref="B1749" si="197">B1745+1</f>
+        <f t="shared" ref="B1749" si="198">B1745+1</f>
         <v>437</v>
       </c>
       <c r="C1749" s="6"/>
@@ -42823,7 +43319,7 @@
     </row>
     <row r="1753" spans="2:18" ht="58.5">
       <c r="B1753" s="19">
-        <f t="shared" ref="B1753" si="198">B1749+1</f>
+        <f t="shared" ref="B1753" si="199">B1749+1</f>
         <v>438</v>
       </c>
       <c r="C1753" s="6"/>
@@ -42902,7 +43398,7 @@
     </row>
     <row r="1757" spans="2:18" ht="58.5">
       <c r="B1757" s="19">
-        <f t="shared" ref="B1757" si="199">B1753+1</f>
+        <f t="shared" ref="B1757" si="200">B1753+1</f>
         <v>439</v>
       </c>
       <c r="C1757" s="6"/>
@@ -42981,7 +43477,7 @@
     </row>
     <row r="1761" spans="2:18" ht="58.5">
       <c r="B1761" s="19">
-        <f t="shared" ref="B1761" si="200">B1757+1</f>
+        <f t="shared" ref="B1761" si="201">B1757+1</f>
         <v>440</v>
       </c>
       <c r="C1761" s="6"/>
@@ -43060,7 +43556,7 @@
     </row>
     <row r="1765" spans="2:18" ht="58.5">
       <c r="B1765" s="19">
-        <f t="shared" ref="B1765" si="201">B1761+1</f>
+        <f t="shared" ref="B1765" si="202">B1761+1</f>
         <v>441</v>
       </c>
       <c r="C1765" s="6"/>
@@ -43139,7 +43635,7 @@
     </row>
     <row r="1769" spans="2:18" ht="58.5">
       <c r="B1769" s="19">
-        <f t="shared" ref="B1769" si="202">B1765+1</f>
+        <f t="shared" ref="B1769" si="203">B1765+1</f>
         <v>442</v>
       </c>
       <c r="C1769" s="6"/>
@@ -43218,7 +43714,7 @@
     </row>
     <row r="1773" spans="2:18" ht="58.5">
       <c r="B1773" s="19">
-        <f t="shared" ref="B1773" si="203">B1769+1</f>
+        <f t="shared" ref="B1773" si="204">B1769+1</f>
         <v>443</v>
       </c>
       <c r="C1773" s="6"/>
@@ -43297,7 +43793,7 @@
     </row>
     <row r="1777" spans="2:18" ht="58.5">
       <c r="B1777" s="19">
-        <f t="shared" ref="B1777" si="204">B1773+1</f>
+        <f t="shared" ref="B1777" si="205">B1773+1</f>
         <v>444</v>
       </c>
       <c r="C1777" s="6"/>
@@ -43376,7 +43872,7 @@
     </row>
     <row r="1781" spans="2:18" ht="58.5">
       <c r="B1781" s="19">
-        <f t="shared" ref="B1781" si="205">B1777+1</f>
+        <f t="shared" ref="B1781" si="206">B1777+1</f>
         <v>445</v>
       </c>
       <c r="C1781" s="6"/>
@@ -43455,7 +43951,7 @@
     </row>
     <row r="1785" spans="2:18" ht="58.5">
       <c r="B1785" s="19">
-        <f t="shared" ref="B1785" si="206">B1781+1</f>
+        <f t="shared" ref="B1785" si="207">B1781+1</f>
         <v>446</v>
       </c>
       <c r="C1785" s="6"/>
@@ -43534,7 +44030,7 @@
     </row>
     <row r="1789" spans="2:18" ht="58.5">
       <c r="B1789" s="19">
-        <f t="shared" ref="B1789" si="207">B1785+1</f>
+        <f t="shared" ref="B1789" si="208">B1785+1</f>
         <v>447</v>
       </c>
       <c r="C1789" s="6"/>
@@ -43613,7 +44109,7 @@
     </row>
     <row r="1793" spans="2:18" ht="58.5">
       <c r="B1793" s="19">
-        <f t="shared" ref="B1793" si="208">B1789+1</f>
+        <f t="shared" ref="B1793" si="209">B1789+1</f>
         <v>448</v>
       </c>
       <c r="C1793" s="6"/>
@@ -43692,7 +44188,7 @@
     </row>
     <row r="1797" spans="2:18" ht="58.5">
       <c r="B1797" s="19">
-        <f t="shared" ref="B1797" si="209">B1793+1</f>
+        <f t="shared" ref="B1797" si="210">B1793+1</f>
         <v>449</v>
       </c>
       <c r="C1797" s="6"/>
@@ -43771,7 +44267,7 @@
     </row>
     <row r="1801" spans="2:18" ht="58.5">
       <c r="B1801" s="19">
-        <f t="shared" ref="B1801" si="210">B1797+1</f>
+        <f t="shared" ref="B1801" si="211">B1797+1</f>
         <v>450</v>
       </c>
       <c r="C1801" s="6"/>
@@ -45983,7 +46479,7 @@
     </row>
     <row r="1913" spans="2:18" ht="58.5">
       <c r="B1913" s="19">
-        <f t="shared" ref="B1913" si="211">B1909+1</f>
+        <f t="shared" ref="B1913" si="212">B1909+1</f>
         <v>478</v>
       </c>
       <c r="C1913" s="6"/>
@@ -46062,7 +46558,7 @@
     </row>
     <row r="1917" spans="2:18" ht="58.5">
       <c r="B1917" s="19">
-        <f t="shared" ref="B1917" si="212">B1913+1</f>
+        <f t="shared" ref="B1917" si="213">B1913+1</f>
         <v>479</v>
       </c>
       <c r="C1917" s="6"/>
@@ -46141,7 +46637,7 @@
     </row>
     <row r="1921" spans="2:18" ht="58.5">
       <c r="B1921" s="19">
-        <f t="shared" ref="B1921" si="213">B1917+1</f>
+        <f t="shared" ref="B1921" si="214">B1917+1</f>
         <v>480</v>
       </c>
       <c r="C1921" s="6"/>
@@ -46220,7 +46716,7 @@
     </row>
     <row r="1925" spans="2:18" ht="58.5">
       <c r="B1925" s="19">
-        <f t="shared" ref="B1925" si="214">B1921+1</f>
+        <f t="shared" ref="B1925" si="215">B1921+1</f>
         <v>481</v>
       </c>
       <c r="C1925" s="6"/>
@@ -46299,7 +46795,7 @@
     </row>
     <row r="1929" spans="2:18" ht="58.5">
       <c r="B1929" s="19">
-        <f t="shared" ref="B1929" si="215">B1925+1</f>
+        <f t="shared" ref="B1929" si="216">B1925+1</f>
         <v>482</v>
       </c>
       <c r="C1929" s="6"/>
@@ -46378,7 +46874,7 @@
     </row>
     <row r="1933" spans="2:18" ht="58.5">
       <c r="B1933" s="19">
-        <f t="shared" ref="B1933" si="216">B1929+1</f>
+        <f t="shared" ref="B1933" si="217">B1929+1</f>
         <v>483</v>
       </c>
       <c r="C1933" s="6"/>
@@ -46457,7 +46953,7 @@
     </row>
     <row r="1937" spans="2:18" ht="58.5">
       <c r="B1937" s="19">
-        <f t="shared" ref="B1937" si="217">B1933+1</f>
+        <f t="shared" ref="B1937" si="218">B1933+1</f>
         <v>484</v>
       </c>
       <c r="C1937" s="6"/>
@@ -46536,7 +47032,7 @@
     </row>
     <row r="1941" spans="2:18" ht="58.5">
       <c r="B1941" s="19">
-        <f t="shared" ref="B1941" si="218">B1937+1</f>
+        <f t="shared" ref="B1941" si="219">B1937+1</f>
         <v>485</v>
       </c>
       <c r="C1941" s="6"/>
@@ -46615,7 +47111,7 @@
     </row>
     <row r="1945" spans="2:18" ht="58.5">
       <c r="B1945" s="19">
-        <f t="shared" ref="B1945" si="219">B1941+1</f>
+        <f t="shared" ref="B1945" si="220">B1941+1</f>
         <v>486</v>
       </c>
       <c r="C1945" s="6"/>
@@ -46694,7 +47190,7 @@
     </row>
     <row r="1949" spans="2:18" ht="58.5">
       <c r="B1949" s="19">
-        <f t="shared" ref="B1949" si="220">B1945+1</f>
+        <f t="shared" ref="B1949" si="221">B1945+1</f>
         <v>487</v>
       </c>
       <c r="C1949" s="6"/>
@@ -46773,7 +47269,7 @@
     </row>
     <row r="1953" spans="2:18" ht="58.5">
       <c r="B1953" s="19">
-        <f t="shared" ref="B1953" si="221">B1949+1</f>
+        <f t="shared" ref="B1953" si="222">B1949+1</f>
         <v>488</v>
       </c>
       <c r="C1953" s="6"/>
@@ -46852,7 +47348,7 @@
     </row>
     <row r="1957" spans="2:18" ht="58.5">
       <c r="B1957" s="19">
-        <f t="shared" ref="B1957" si="222">B1953+1</f>
+        <f t="shared" ref="B1957" si="223">B1953+1</f>
         <v>489</v>
       </c>
       <c r="C1957" s="6"/>
@@ -46931,7 +47427,7 @@
     </row>
     <row r="1961" spans="2:18" ht="58.5">
       <c r="B1961" s="19">
-        <f t="shared" ref="B1961" si="223">B1957+1</f>
+        <f t="shared" ref="B1961" si="224">B1957+1</f>
         <v>490</v>
       </c>
       <c r="C1961" s="6"/>
@@ -47010,7 +47506,7 @@
     </row>
     <row r="1965" spans="2:18" ht="58.5">
       <c r="B1965" s="19">
-        <f t="shared" ref="B1965" si="224">B1961+1</f>
+        <f t="shared" ref="B1965" si="225">B1961+1</f>
         <v>491</v>
       </c>
       <c r="C1965" s="6"/>
@@ -47089,7 +47585,7 @@
     </row>
     <row r="1969" spans="2:18" ht="58.5">
       <c r="B1969" s="19">
-        <f t="shared" ref="B1969" si="225">B1965+1</f>
+        <f t="shared" ref="B1969" si="226">B1965+1</f>
         <v>492</v>
       </c>
       <c r="C1969" s="6"/>
@@ -47168,7 +47664,7 @@
     </row>
     <row r="1973" spans="2:18" ht="58.5">
       <c r="B1973" s="19">
-        <f t="shared" ref="B1973" si="226">B1969+1</f>
+        <f t="shared" ref="B1973" si="227">B1969+1</f>
         <v>493</v>
       </c>
       <c r="C1973" s="6"/>
@@ -47247,7 +47743,7 @@
     </row>
     <row r="1977" spans="2:18" ht="58.5">
       <c r="B1977" s="19">
-        <f t="shared" ref="B1977" si="227">B1973+1</f>
+        <f t="shared" ref="B1977" si="228">B1973+1</f>
         <v>494</v>
       </c>
       <c r="C1977" s="6"/>
@@ -47326,7 +47822,7 @@
     </row>
     <row r="1981" spans="2:18" ht="58.5">
       <c r="B1981" s="19">
-        <f t="shared" ref="B1981" si="228">B1977+1</f>
+        <f t="shared" ref="B1981" si="229">B1977+1</f>
         <v>495</v>
       </c>
       <c r="C1981" s="6"/>
@@ -47405,7 +47901,7 @@
     </row>
     <row r="1985" spans="2:18" ht="58.5">
       <c r="B1985" s="19">
-        <f t="shared" ref="B1985" si="229">B1981+1</f>
+        <f t="shared" ref="B1985" si="230">B1981+1</f>
         <v>496</v>
       </c>
       <c r="C1985" s="6"/>
@@ -47484,7 +47980,7 @@
     </row>
     <row r="1989" spans="2:18" ht="58.5">
       <c r="B1989" s="19">
-        <f t="shared" ref="B1989" si="230">B1985+1</f>
+        <f t="shared" ref="B1989" si="231">B1985+1</f>
         <v>497</v>
       </c>
       <c r="C1989" s="6"/>
@@ -47563,7 +48059,7 @@
     </row>
     <row r="1993" spans="2:18" ht="58.5">
       <c r="B1993" s="19">
-        <f t="shared" ref="B1993" si="231">B1989+1</f>
+        <f t="shared" ref="B1993" si="232">B1989+1</f>
         <v>498</v>
       </c>
       <c r="C1993" s="6"/>
@@ -47642,7 +48138,7 @@
     </row>
     <row r="1997" spans="2:18" ht="58.5">
       <c r="B1997" s="19">
-        <f t="shared" ref="B1997" si="232">B1993+1</f>
+        <f t="shared" ref="B1997" si="233">B1993+1</f>
         <v>499</v>
       </c>
       <c r="C1997" s="6"/>
@@ -47721,7 +48217,7 @@
     </row>
     <row r="2001" spans="2:18" ht="58.5">
       <c r="B2001" s="19">
-        <f t="shared" ref="B2001" si="233">B1997+1</f>
+        <f t="shared" ref="B2001" si="234">B1997+1</f>
         <v>500</v>
       </c>
       <c r="C2001" s="6"/>
@@ -47962,7 +48458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -48131,7 +48627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -52194,7 +52690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
@@ -52331,7 +52827,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="57" t="s">
         <v>66</v>
       </c>
     </row>
@@ -52379,7 +52875,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="56"/>
+      <c r="V4" s="60"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -52431,7 +52927,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="56"/>
+      <c r="V5" s="60"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -52478,7 +52974,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="56"/>
+      <c r="V6" s="60"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -52499,7 +52995,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="56"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -52543,7 +53039,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="56"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -52597,7 +53093,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -52641,7 +53137,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -52661,7 +53157,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -52707,7 +53203,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -52760,7 +53256,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="56"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -52806,7 +53302,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -52826,7 +53322,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="60"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -52872,7 +53368,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="56"/>
+      <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -52925,7 +53421,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="60"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -52971,7 +53467,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="60"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -52991,7 +53487,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="56"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -53011,7 +53507,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="56"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -53038,7 +53534,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="60"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -53058,7 +53554,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="57"/>
+      <c r="V22" s="61"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B75928F9-4443-4D2B-8B23-E54C7477DFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B00F39-3FC3-4855-B365-38A681147941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
     <sheet name="缺字表" sheetId="122" r:id="rId3"/>
-    <sheet name="缺字表 (2)" sheetId="125" r:id="rId4"/>
-    <sheet name="人工標音字庫" sheetId="124" r:id="rId5"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId9"/>
+    <sheet name="人工標音字庫" sheetId="124" r:id="rId4"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1316">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4454,14 +4453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4514,6 +4505,13 @@
   </si>
   <si>
     <t>注音二式</t>
+  </si>
+  <si>
+    <t>iong1</t>
+  </si>
+  <si>
+    <t>iong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4912,7 +4910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5099,6 +5097,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6861,7 +6862,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6921,7 +6922,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -6989,7 +6990,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -7013,7 +7014,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -7029,7 +7030,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7427,7 +7428,7 @@
         <v>1242</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>1314</v>
       </c>
       <c r="D26" t="s">
         <v>1243</v>
@@ -7592,7 +7593,7 @@
         <v>1196</v>
       </c>
       <c r="B38" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
@@ -7736,122 +7737,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB8E75-6664-41A3-A969-36B5E768A1DB}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98815C-C38A-4C18-856C-8F2344AE0658}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7871,21 +7758,35 @@
         <v>498</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8548,7 +8449,9 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="56" t="s">
+        <v>1315</v>
+      </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="52"/>
@@ -8576,7 +8479,7 @@
         <v>555</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>1300</v>
+        <v>1315</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
@@ -8608,7 +8511,7 @@
       <c r="G21" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="62" t="s">
         <v>1187</v>
       </c>
       <c r="I21" s="54" t="s">
@@ -8645,7 +8548,7 @@
         <v>1299</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8702,10 +8605,10 @@
         <v>1272</v>
       </c>
       <c r="K24" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="55" t="s">
         <v>1302</v>
-      </c>
-      <c r="L24" s="55" t="s">
-        <v>1304</v>
       </c>
       <c r="M24" s="55"/>
       <c r="N24" s="55" t="s">
@@ -8799,10 +8702,10 @@
         <v>1273</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
@@ -8930,7 +8833,7 @@
         <v>601</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -9154,7 +9057,7 @@
         <v>555</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
@@ -9223,7 +9126,7 @@
         <v>1299</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -9267,10 +9170,10 @@
         <v>1267</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H40" s="55"/>
       <c r="I40" s="55" t="s">
@@ -9280,7 +9183,7 @@
         <v>1272</v>
       </c>
       <c r="K40" s="55" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L40" s="55" t="s">
         <v>597</v>
@@ -9364,10 +9267,10 @@
         <v>1268</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
@@ -9377,10 +9280,10 @@
         <v>1273</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51" t="s">
@@ -9431,7 +9334,7 @@
         <v>601</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
@@ -9557,7 +9460,7 @@
         <v>1294</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="M48" s="55"/>
       <c r="N48" s="55" t="s">
@@ -9654,7 +9557,7 @@
         <v>1295</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51" t="s">
@@ -48458,7 +48361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -48627,7 +48530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -52690,7 +52593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>

--- a/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B00F39-3FC3-4855-B365-38A681147941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D38A0A-CF97-49A3-8E67-92FFD29410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="122" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="124" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="129" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="128" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="130" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
     <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1275">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4004,105 +4004,6 @@
   <si>
     <t>output7</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《</t>
-  </si>
-  <si>
-    <t>蒹</t>
-  </si>
-  <si>
-    <t>葭</t>
-  </si>
-  <si>
-    <t>》</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>露</t>
-  </si>
-  <si>
-    <t>霜</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>溯</t>
-  </si>
-  <si>
-    <t>洄</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>阻</t>
-  </si>
-  <si>
-    <t>且</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>央</t>
-  </si>
-  <si>
-    <t>萋</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>晞</t>
-  </si>
-  <si>
-    <t>湄</t>
-  </si>
-  <si>
-    <t>躋</t>
-  </si>
-  <si>
-    <t>坻</t>
-  </si>
-  <si>
-    <t>采</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>涘</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>沚</t>
   </si>
   <si>
     <t xml:space="preserve">《蒹葭》
@@ -4113,404 +4014,333 @@
 蒹葭采采，白露未已。所謂伊人，在水之涘。
 溯洄從之，道阻且右。溯游從之，宛在水中沚。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音二式</t>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>蒹</t>
+  </si>
+  <si>
+    <t>葭</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>露</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>溯</t>
+  </si>
+  <si>
+    <t>洄</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>阻</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>央</t>
+  </si>
+  <si>
+    <t>萋</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>晞</t>
+  </si>
+  <si>
+    <t>湄</t>
+  </si>
+  <si>
+    <t>躋</t>
+  </si>
+  <si>
+    <t>坻</t>
+  </si>
+  <si>
+    <t>采</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>涘</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>沚</t>
+  </si>
+  <si>
+    <t>kiam1</t>
   </si>
   <si>
     <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
   </si>
   <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
+  </si>
+  <si>
+    <t>cong1</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 7)</t>
+  </si>
+  <si>
+    <t>pik8</t>
+  </si>
+  <si>
+    <t>(9, 9); (25, 9); (41, 9)</t>
+  </si>
+  <si>
+    <t>loo7</t>
+  </si>
+  <si>
+    <t>(9, 10); (25, 10); (41, 10)</t>
+  </si>
+  <si>
+    <t>(9, 11)</t>
+  </si>
+  <si>
+    <t>song1</t>
+  </si>
+  <si>
+    <t>(9, 12)</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>(9, 14); (25, 14); (41, 14)</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>(9, 15); (25, 15); (41, 15)</t>
+  </si>
+  <si>
+    <t>(9, 16); (25, 16); (41, 16)</t>
+  </si>
+  <si>
+    <t>(9, 17); (25, 17); (41, 17)</t>
+  </si>
+  <si>
+    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
+  </si>
+  <si>
+    <t>(13, 6)</t>
+  </si>
+  <si>
+    <t>(13, 7)</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
+  </si>
+  <si>
+    <t>hue5</t>
+  </si>
+  <si>
     <t>(17, 5); (33, 5); (49, 5)</t>
   </si>
   <si>
+    <t>ziong5</t>
+  </si>
+  <si>
+    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
+  </si>
+  <si>
+    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>(17, 9); (33, 9); (49, 9)</t>
+  </si>
+  <si>
+    <t>zoo2</t>
+  </si>
+  <si>
+    <t>(17, 10); (33, 10); (49, 10)</t>
+  </si>
+  <si>
+    <t>cia2</t>
+  </si>
+  <si>
+    <t>(17, 11); (33, 11); (49, 11)</t>
+  </si>
+  <si>
+    <t>(17, 12)</t>
+  </si>
+  <si>
+    <t>(17, 15); (33, 15); (49, 15)</t>
+  </si>
+  <si>
+    <t>(21, 4); (37, 4); (53, 4)</t>
+  </si>
+  <si>
+    <t>(21, 7); (37, 7); (53, 7)</t>
+  </si>
+  <si>
+    <t>iang1</t>
+  </si>
+  <si>
+    <t>(21, 8)</t>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
     <t>(25, 6); (25, 7)</t>
   </si>
   <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>(25, 11); (41, 11)</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>(25, 12)</t>
+  </si>
+  <si>
+    <t>(29, 7)</t>
+  </si>
+  <si>
+    <t>ze1</t>
+  </si>
+  <si>
     <t>(33, 12)</t>
   </si>
   <si>
+    <t>ti5</t>
+  </si>
+  <si>
+    <t>cai2</t>
+  </si>
+  <si>
+    <t>(41, 6); (41, 7)</t>
+  </si>
+  <si>
+    <t>(41, 12)</t>
+  </si>
+  <si>
+    <t>zi7</t>
+  </si>
+  <si>
+    <t>iu7</t>
+  </si>
+  <si>
+    <t>(49, 12)</t>
+  </si>
+  <si>
     <t>(53, 8)</t>
   </si>
   <si>
-    <t>ka1</t>
-  </si>
-  <si>
-    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
-  </si>
-  <si>
-    <t>cong1</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 7)</t>
-  </si>
-  <si>
-    <t>pik8</t>
-  </si>
-  <si>
-    <t>(9, 9); (25, 9); (41, 9)</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>(9, 10); (25, 10); (41, 10)</t>
-  </si>
-  <si>
-    <t>(9, 11)</t>
-  </si>
-  <si>
-    <t>song1</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>(9, 14); (25, 14); (41, 14)</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>(9, 15); (25, 15); (41, 15)</t>
-  </si>
-  <si>
-    <t>(9, 16); (25, 16); (41, 16)</t>
-  </si>
-  <si>
-    <t>(9, 17); (25, 17); (41, 17)</t>
-  </si>
-  <si>
-    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
-  </si>
-  <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>(13, 7)</t>
-  </si>
-  <si>
-    <t>soo3</t>
-  </si>
-  <si>
-    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-  </si>
-  <si>
-    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
-  </si>
-  <si>
-    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
-  </si>
-  <si>
-    <t>to7</t>
-  </si>
-  <si>
-    <t>(17, 9); (33, 9); (49, 9)</t>
-  </si>
-  <si>
-    <t>zoo2</t>
-  </si>
-  <si>
-    <t>(17, 10); (33, 10); (49, 10)</t>
-  </si>
-  <si>
-    <t>cia2</t>
-  </si>
-  <si>
-    <t>(17, 11); (33, 11); (49, 11)</t>
-  </si>
-  <si>
-    <t>(17, 12)</t>
-  </si>
-  <si>
-    <t>(17, 15); (33, 15); (49, 15)</t>
-  </si>
-  <si>
-    <t>(21, 4); (37, 4); (53, 4)</t>
-  </si>
-  <si>
-    <t>(21, 7); (37, 7); (53, 7)</t>
-  </si>
-  <si>
-    <t>iang1</t>
-  </si>
-  <si>
-    <t>(21, 8)</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>(25, 11); (41, 11)</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>(25, 12)</t>
-  </si>
-  <si>
-    <t>(29, 7)</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>cai2</t>
-  </si>
-  <si>
-    <t>(41, 6); (41, 7)</t>
-  </si>
-  <si>
-    <t>(41, 12)</t>
-  </si>
-  <si>
-    <t>iu7</t>
-  </si>
-  <si>
-    <t>(49, 12)</t>
+    <t>giam1</t>
+  </si>
+  <si>
+    <t>ga1</t>
+  </si>
+  <si>
+    <t>biek8</t>
+  </si>
+  <si>
+    <t>jjin5</t>
+  </si>
+  <si>
+    <t>dor7</t>
+  </si>
+  <si>
+    <t>diong5</t>
+  </si>
+  <si>
+    <t>diong7</t>
+  </si>
+  <si>
+    <t>bbi7</t>
+  </si>
+  <si>
+    <t>bbi5</t>
+  </si>
+  <si>
+    <t>di5</t>
   </si>
   <si>
     <t>蒹葭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kiam1</t>
-  </si>
-  <si>
-    <t>kiam1</t>
+    <t>iong1</t>
+  </si>
+  <si>
+    <t>iong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>hue5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ce1</t>
-  </si>
-  <si>
-    <t>ce1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ze1</t>
-  </si>
-  <si>
-    <t>ze1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi6</t>
-  </si>
-  <si>
-    <t>zi6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giam1</t>
-  </si>
-  <si>
-    <t>ka1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue2</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbi6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi7</t>
-  </si>
-  <si>
-    <t>iu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://i.epochtimes.com/assets/uploads/2018/09/346078.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注音二式</t>
-  </si>
-  <si>
-    <t>iong1</t>
-  </si>
-  <si>
-    <t>iong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5073,16 +4903,6 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -5097,6 +4917,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6862,7 +6692,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6914,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1255</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6922,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1312</v>
+        <v>1274</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -6990,7 +6820,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1313</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -7014,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1313</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -7035,35 +6865,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{181EC47F-BD50-496D-9FB6-B68AC17D2C52}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{E63DE152-850D-4D55-8A6C-02770A085720}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{1F35AB50-12AD-4F19-AAD4-E002BAE33D83}">
       <formula1>"無預設, SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{8B26464C-8D45-4DAB-8CD3-133D8E6DA72D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{CC5BE891-DC6E-4CE0-849C-D2F4C535EA60}">
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{96E7211F-3F66-4AE2-B2C7-9A12D8C2B02A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{671644A1-6EE8-4193-9CDC-8429DBBCBB7B}">
       <formula1>"白話音, 文讀音"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{DA27CAB0-65C9-4E40-AD59-F7B4693C00B1}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{925E59DA-A545-4B6B-AF46-8C9DC843AEEA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{9036E4CE-0D75-4AA4-9326-6306F3475A3B}">
       <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{4389A0C3-502F-4806-9CF0-ED9455E75870}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{565FFEE0-2E5F-4E46-8AB9-FD43AC2AA8A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1579779-E4C2-4FCD-8E9C-5CE0D4651C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927E18D6-3AC3-43DA-B968-6D463F20A702}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7086,16 +6916,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7103,195 +6933,195 @@
         <v>1170</v>
       </c>
       <c r="B3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B5" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>1174</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>1209</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1173</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>1214</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B8" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B9" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>1216</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>1178</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>496</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1177</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>1223</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>1179</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>1221</v>
       </c>
       <c r="C14" t="s">
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1178</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B16" t="s">
-        <v>1227</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7299,55 +7129,55 @@
         <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>1182</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>1227</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B19" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1183</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>1234</v>
+        <v>338</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7355,69 +7185,69 @@
         <v>1184</v>
       </c>
       <c r="B21" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>1185</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>1186</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>1236</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1185</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1186</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7425,186 +7255,186 @@
         <v>1187</v>
       </c>
       <c r="B26" t="s">
-        <v>1242</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
-        <v>1314</v>
+        <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B27" t="s">
-        <v>1244</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B28" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>1272</v>
       </c>
       <c r="D28" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>1244</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B30" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>987</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B31" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B33" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1167</v>
+        <v>1195</v>
       </c>
       <c r="B34" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1200</v>
+        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="B35" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1201</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="B36" t="s">
-        <v>1260</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1202</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="B37" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1203</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B38" t="s">
-        <v>1309</v>
+        <v>1258</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1003</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B39" t="s">
         <v>440</v>
@@ -7613,7 +7443,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1204</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -7623,12 +7453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B720D-E500-4112-825C-5428DE5F3105}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22E0AD-97D1-4AA6-A6E3-A1C37555DFF1}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -7644,90 +7472,6 @@
       </c>
       <c r="D1" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D7" t="s">
-        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -7737,7 +7481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98815C-C38A-4C18-856C-8F2344AE0658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB840D-776F-4462-B940-39BFE8282B82}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7760,13 +7504,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B2" t="s">
         <v>1242</v>
       </c>
       <c r="C2" t="s">
-        <v>1314</v>
+        <v>1272</v>
       </c>
       <c r="D2" t="s">
         <v>1243</v>
@@ -7783,10 +7527,10 @@
   <dimension ref="A1:V2002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7809,73 +7553,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="38">
-        <f t="shared" ref="B1:R1" si="0" xml:space="preserve"> COLUMN()</f>
+        <f t="shared" ref="B1:C1" si="0" xml:space="preserve"> COLUMN()</f>
         <v>2</v>
       </c>
       <c r="C1" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E1" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F1" s="38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G1" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H1" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I1" s="38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J1" s="38">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K1" s="38">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L1" s="38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M1" s="38">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N1" s="38">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O1" s="38">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P1" s="38">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q1" s="38">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R1" s="38">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="9"/>
@@ -7902,11 +7601,11 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
@@ -7918,21 +7617,21 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="57" t="s">
-        <v>1199</v>
+      <c r="V3" s="54" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
@@ -7944,25 +7643,25 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="55"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="H5" s="54" t="str">
+      <c r="F5" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7978,17 +7677,17 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="58"/>
+      <c r="V5" s="55"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -8003,180 +7702,180 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="55"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="55" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>880</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>1275</v>
-      </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q8" s="55" t="s">
-        <v>541</v>
-      </c>
-      <c r="R8" s="55"/>
+      <c r="D8" s="60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="60"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="55"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>1170</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="59" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K9" s="54" t="s">
+      <c r="I9" s="59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K9" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M9" s="54" t="s">
+      <c r="L9" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="54" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P9" s="54" t="s">
+      <c r="N9" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="O9" s="59" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="55"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>1269</v>
+        <v>1205</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1269</v>
+        <v>1205</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>1274</v>
+        <v>52</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>1275</v>
+        <v>1212</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51" t="s">
-        <v>1277</v>
+        <v>1214</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>1279</v>
+        <v>1216</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>1280</v>
+        <v>496</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -8186,24 +7885,24 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="55"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>617</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="D12" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
@@ -8214,29 +7913,29 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="55"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F13" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="54" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H13" s="54" t="s">
+      <c r="G13" s="59" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="54" t="str">
+      <c r="I13" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8251,21 +7950,21 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="55"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>1285</v>
+        <v>345</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>708</v>
+        <v>389</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -8279,181 +7978,181 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="55"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="V15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="V15" s="55"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O16" s="55" t="s">
-        <v>814</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="R16" s="55"/>
+      <c r="D16" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="R16" s="60"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="55"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F17" s="54" t="s">
+      <c r="D17" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G17" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="54" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J17" s="54" t="s">
+      <c r="I17" s="59" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="59" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="59" t="s">
         <v>1183</v>
       </c>
-      <c r="K17" s="54" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O17" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="54" t="s">
-        <v>1181</v>
-      </c>
-      <c r="Q17" s="54" t="s">
+      <c r="Q17" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="R17" s="54" t="s">
+      <c r="R17" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>1287</v>
+        <v>1227</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>1293</v>
+        <v>1234</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>1295</v>
+        <v>1236</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1296</v>
+        <v>1266</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>1297</v>
+        <v>437</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="55"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -8462,27 +8161,27 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="55"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="55" t="s">
-        <v>621</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>555</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="D20" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
@@ -8492,32 +8191,32 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="55"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E21" s="54" t="s">
+      <c r="D21" s="59" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E21" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>1186</v>
+      <c r="F21" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>1188</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I21" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="54" t="str">
+      <c r="J21" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8531,24 +8230,24 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="55"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
       <c r="D22" s="51" t="s">
-        <v>1298</v>
+        <v>347</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>1299</v>
+        <v>1267</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1315</v>
+        <v>1273</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8561,178 +8260,178 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="55"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="V23" s="58"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="V23" s="55"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="55" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L24" s="55" t="s">
-        <v>1302</v>
-      </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O24" s="55" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P24" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q24" s="55" t="s">
-        <v>541</v>
-      </c>
-      <c r="R24" s="55"/>
+      <c r="D24" s="60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O24" s="60" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="60"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="58"/>
+      <c r="V24" s="55"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H25" s="54" t="s">
+      <c r="D25" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J25" s="54" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>1189</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M25" s="54" t="s">
+      <c r="I25" s="59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="54" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O25" s="54" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P25" s="54" t="s">
+      <c r="N25" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="Q25" s="54" t="s">
+      <c r="O25" s="59" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q25" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="58"/>
+      <c r="V25" s="55"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1302</v>
+        <v>1248</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
-        <v>1277</v>
+        <v>1214</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>1279</v>
+        <v>1216</v>
       </c>
       <c r="P26" s="51" t="s">
-        <v>1280</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="R26" s="51"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="58"/>
+      <c r="V26" s="55"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -8742,28 +8441,24 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="U27" s="33" t="str">
-        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v>3</v>
-      </c>
-      <c r="V27" s="58"/>
+      <c r="V27" s="55"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>912</v>
-      </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
+      <c r="D28" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
@@ -8774,33 +8469,30 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
-      <c r="U28" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V28" s="58"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="55"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F29" s="54" t="s">
+      <c r="E29" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F29" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="54" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H29" s="54" t="s">
+      <c r="G29" s="59" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H29" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="54" t="str">
+      <c r="I29" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8815,25 +8507,22 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
-      <c r="U29" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V29" s="58"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="55"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
       <c r="D30" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1303</v>
+        <v>1269</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -8847,191 +8536,181 @@
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
-      <c r="U30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V30" s="58"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="55"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="U31" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V31" s="58"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="V31" s="55"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O32" s="55" t="s">
-        <v>814</v>
-      </c>
-      <c r="P32" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="Q32" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="R32" s="55"/>
+      <c r="D32" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="P32" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="R32" s="60"/>
       <c r="S32" s="18"/>
-      <c r="U32" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V32" s="58"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="55"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F33" s="54" t="s">
+      <c r="D33" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="E33" s="59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G33" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="54" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J33" s="54" t="s">
+      <c r="I33" s="59" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M33" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O33" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="59" t="s">
         <v>1183</v>
       </c>
-      <c r="K33" s="54" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L33" s="54" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M33" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O33" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>1181</v>
-      </c>
-      <c r="Q33" s="54" t="s">
+      <c r="Q33" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="R33" s="54" t="s">
+      <c r="R33" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="V33" s="58"/>
+      <c r="V33" s="55"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>1287</v>
+        <v>1227</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>1293</v>
+        <v>1234</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1295</v>
+        <v>1236</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="M34" s="51"/>
       <c r="N34" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>1297</v>
+        <v>437</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="58"/>
+      <c r="V34" s="55"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
@@ -9040,27 +8719,27 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="58"/>
+      <c r="V35" s="55"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="55" t="s">
-        <v>621</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>555</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
+      <c r="D36" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
@@ -9070,32 +8749,32 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="58"/>
+      <c r="V36" s="55"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="54" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="59" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E37" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I37" s="54" t="s">
+      <c r="F37" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I37" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="54" t="str">
+      <c r="J37" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9109,24 +8788,24 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="58"/>
+      <c r="V37" s="55"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="51" t="s">
-        <v>1298</v>
+        <v>347</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1299</v>
+        <v>1267</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1305</v>
+        <v>1270</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -9139,178 +8818,178 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="58"/>
+      <c r="V38" s="55"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="V39" s="58"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="V39" s="55"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="55" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J40" s="55" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K40" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>597</v>
-      </c>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O40" s="55" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P40" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q40" s="55" t="s">
-        <v>541</v>
-      </c>
-      <c r="R40" s="55"/>
+      <c r="D40" s="60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K40" s="60" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O40" s="60" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P40" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q40" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="60"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="58"/>
+      <c r="V40" s="55"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H41" s="54" t="s">
+      <c r="D41" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H41" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J41" s="54" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K41" s="54" t="s">
-        <v>1189</v>
-      </c>
-      <c r="L41" s="54" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M41" s="54" t="s">
+      <c r="I41" s="59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J41" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K41" s="59" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L41" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M41" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="54" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O41" s="54" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P41" s="54" t="s">
+      <c r="N41" s="59" t="s">
         <v>1176</v>
       </c>
-      <c r="Q41" s="54" t="s">
+      <c r="O41" s="59" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P41" s="59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q41" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="54" t="s">
+      <c r="R41" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="V41" s="58"/>
+      <c r="V41" s="55"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1307</v>
+        <v>1254</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1307</v>
+        <v>1254</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>1308</v>
+        <v>336</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51" t="s">
-        <v>1277</v>
+        <v>1214</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>1279</v>
+        <v>1216</v>
       </c>
       <c r="P42" s="51" t="s">
-        <v>1280</v>
+        <v>496</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="58"/>
+      <c r="V42" s="55"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
@@ -9320,24 +8999,24 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="58"/>
+      <c r="V43" s="55"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+      <c r="D44" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
@@ -9348,29 +9027,29 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="58"/>
+      <c r="V44" s="55"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F45" s="54" t="s">
+      <c r="E45" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="54" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H45" s="54" t="s">
+      <c r="G45" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H45" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="54" t="str">
+      <c r="I45" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9385,21 +9064,21 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="58"/>
+      <c r="V45" s="55"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
       <c r="D46" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -9413,179 +9092,179 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="58"/>
+      <c r="V46" s="55"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="V47" s="58"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="V47" s="55"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E48" s="55" t="s">
+      <c r="D48" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L48" s="60" t="s">
         <v>1258</v>
       </c>
-      <c r="F48" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G48" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J48" s="55" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K48" s="55" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L48" s="55" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O48" s="55" t="s">
-        <v>814</v>
-      </c>
-      <c r="P48" s="55" t="s">
-        <v>1288</v>
-      </c>
-      <c r="Q48" s="55" t="s">
-        <v>601</v>
-      </c>
-      <c r="R48" s="55"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O48" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="P48" s="60" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="R48" s="60"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="58"/>
+      <c r="V48" s="55"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F49" s="54" t="s">
+      <c r="D49" s="59" t="s">
         <v>1181</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="E49" s="59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G49" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="H49" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="54" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J49" s="54" t="s">
+      <c r="I49" s="59" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J49" s="59" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K49" s="59" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L49" s="59" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M49" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="59" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O49" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="P49" s="59" t="s">
         <v>1183</v>
       </c>
-      <c r="K49" s="54" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L49" s="54" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M49" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="54" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O49" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="P49" s="54" t="s">
-        <v>1181</v>
-      </c>
-      <c r="Q49" s="54" t="s">
+      <c r="Q49" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="R49" s="54" t="s">
+      <c r="R49" s="59" t="s">
         <v>23</v>
       </c>
       <c r="S49" s="20"/>
-      <c r="V49" s="58"/>
+      <c r="V49" s="55"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1287</v>
+        <v>1227</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>1293</v>
+        <v>1234</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1295</v>
+        <v>1236</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1311</v>
+        <v>1258</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>1297</v>
+        <v>437</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="58"/>
+      <c r="V50" s="55"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52"/>
@@ -9594,27 +9273,27 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="58"/>
+      <c r="V51" s="55"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="55" t="s">
-        <v>621</v>
-      </c>
-      <c r="E52" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>555</v>
-      </c>
-      <c r="H52" s="55" t="s">
+      <c r="D52" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="H52" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
@@ -9624,32 +9303,32 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="58"/>
+      <c r="V52" s="55"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="54" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E53" s="54" t="s">
+      <c r="D53" s="59" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E53" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="54" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H53" s="54" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I53" s="54" t="s">
+      <c r="F53" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I53" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="54" t="str">
+      <c r="J53" s="59" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9663,24 +9342,24 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="58"/>
+      <c r="V53" s="55"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
       <c r="D54" s="51" t="s">
-        <v>1298</v>
+        <v>347</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>1282</v>
+        <v>342</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>1284</v>
+        <v>1221</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>1299</v>
+        <v>1267</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>49</v>
+        <v>440</v>
       </c>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -9693,12 +9372,12 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="58"/>
+      <c r="V54" s="55"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="56"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
@@ -9713,11 +9392,11 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="55"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="55"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -9733,14 +9412,14 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="58"/>
+      <c r="V56" s="55"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="39"/>
@@ -9758,7 +9437,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="58"/>
+      <c r="V57" s="55"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -9778,7 +9457,7 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="58"/>
+      <c r="V58" s="55"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -9798,7 +9477,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="58"/>
+      <c r="V59" s="55"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -9818,7 +9497,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="58"/>
+      <c r="V60" s="55"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -9841,7 +9520,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="58"/>
+      <c r="V61" s="55"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -9861,7 +9540,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="58"/>
+      <c r="V62" s="55"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -9881,7 +9560,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="58"/>
+      <c r="V63" s="55"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -9901,7 +9580,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="58"/>
+      <c r="V64" s="55"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -9924,7 +9603,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="58"/>
+      <c r="V65" s="55"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -9944,7 +9623,7 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="58"/>
+      <c r="V66" s="55"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -9964,7 +9643,7 @@
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="58"/>
+      <c r="V67" s="55"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -9984,7 +9663,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="58"/>
+      <c r="V68" s="55"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -10007,7 +9686,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="58"/>
+      <c r="V69" s="55"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -10027,7 +9706,7 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="58"/>
+      <c r="V70" s="55"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -10047,7 +9726,7 @@
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="58"/>
+      <c r="V71" s="55"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -10067,7 +9746,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="58"/>
+      <c r="V72" s="55"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -10090,7 +9769,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="58"/>
+      <c r="V73" s="55"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -10110,7 +9789,7 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="58"/>
+      <c r="V74" s="55"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -10130,7 +9809,7 @@
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="58"/>
+      <c r="V75" s="55"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -10150,7 +9829,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="58"/>
+      <c r="V76" s="55"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -10173,7 +9852,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="58"/>
+      <c r="V77" s="55"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -10193,7 +9872,7 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="58"/>
+      <c r="V78" s="55"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -10213,7 +9892,7 @@
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
       <c r="R79" s="52"/>
-      <c r="V79" s="58"/>
+      <c r="V79" s="55"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -10233,7 +9912,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="58"/>
+      <c r="V80" s="55"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -10256,7 +9935,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="58"/>
+      <c r="V81" s="55"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -10276,7 +9955,7 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="59"/>
+      <c r="V82" s="56"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -10872,7 +10551,7 @@
     </row>
     <row r="113" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B113" s="19">
-        <f t="shared" ref="B113" si="2">B109+1</f>
+        <f t="shared" ref="B113" si="1">B109+1</f>
         <v>28</v>
       </c>
       <c r="D113" s="39"/>
@@ -10948,7 +10627,7 @@
     </row>
     <row r="117" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B117" s="19">
-        <f t="shared" ref="B117" si="3">B113+1</f>
+        <f t="shared" ref="B117" si="2">B113+1</f>
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
@@ -11024,7 +10703,7 @@
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
-        <f t="shared" ref="B121" si="4">B117+1</f>
+        <f t="shared" ref="B121" si="3">B117+1</f>
         <v>30</v>
       </c>
       <c r="D121" s="39"/>
@@ -11100,7 +10779,7 @@
     </row>
     <row r="125" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="5">B121+1</f>
+        <f t="shared" ref="B125" si="4">B121+1</f>
         <v>31</v>
       </c>
       <c r="D125" s="39"/>
@@ -11176,7 +10855,7 @@
     </row>
     <row r="129" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B129" s="19">
-        <f t="shared" ref="B129" si="6">B125+1</f>
+        <f t="shared" ref="B129" si="5">B125+1</f>
         <v>32</v>
       </c>
       <c r="D129" s="39"/>
@@ -11252,7 +10931,7 @@
     </row>
     <row r="133" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B133" s="19">
-        <f t="shared" ref="B133" si="7">B129+1</f>
+        <f t="shared" ref="B133" si="6">B129+1</f>
         <v>33</v>
       </c>
       <c r="D133" s="39"/>
@@ -11328,7 +11007,7 @@
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
-        <f t="shared" ref="B137" si="8">B133+1</f>
+        <f t="shared" ref="B137" si="7">B133+1</f>
         <v>34</v>
       </c>
       <c r="D137" s="39"/>
@@ -11404,7 +11083,7 @@
     </row>
     <row r="141" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B141" s="19">
-        <f t="shared" ref="B141" si="9">B137+1</f>
+        <f t="shared" ref="B141" si="8">B137+1</f>
         <v>35</v>
       </c>
       <c r="D141" s="39"/>
@@ -11480,7 +11159,7 @@
     </row>
     <row r="145" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="19">
-        <f t="shared" ref="B145" si="10">B141+1</f>
+        <f t="shared" ref="B145" si="9">B141+1</f>
         <v>36</v>
       </c>
       <c r="D145" s="39"/>
@@ -11556,7 +11235,7 @@
     </row>
     <row r="149" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="19">
-        <f t="shared" ref="B149" si="11">B145+1</f>
+        <f t="shared" ref="B149" si="10">B145+1</f>
         <v>37</v>
       </c>
       <c r="D149" s="39"/>
@@ -11632,7 +11311,7 @@
     </row>
     <row r="153" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="19">
-        <f t="shared" ref="B153" si="12">B149+1</f>
+        <f t="shared" ref="B153" si="11">B149+1</f>
         <v>38</v>
       </c>
       <c r="D153" s="39"/>
@@ -11708,7 +11387,7 @@
     </row>
     <row r="157" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="19">
-        <f t="shared" ref="B157" si="13">B153+1</f>
+        <f t="shared" ref="B157" si="12">B153+1</f>
         <v>39</v>
       </c>
       <c r="D157" s="39"/>
@@ -11785,7 +11464,7 @@
     </row>
     <row r="161" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B161" s="19">
-        <f t="shared" ref="B161" si="14">B157+1</f>
+        <f t="shared" ref="B161" si="13">B157+1</f>
         <v>40</v>
       </c>
       <c r="D161" s="39"/>
@@ -11861,7 +11540,7 @@
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
-        <f t="shared" ref="B165" si="15">B161+1</f>
+        <f t="shared" ref="B165" si="14">B161+1</f>
         <v>41</v>
       </c>
       <c r="D165" s="39"/>
@@ -11938,7 +11617,7 @@
     </row>
     <row r="169" spans="2:18" ht="58.5">
       <c r="B169" s="19">
-        <f t="shared" ref="B169" si="16">B165+1</f>
+        <f t="shared" ref="B169" si="15">B165+1</f>
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
@@ -12017,7 +11696,7 @@
     </row>
     <row r="173" spans="2:18" ht="58.5">
       <c r="B173" s="19">
-        <f t="shared" ref="B173" si="17">B169+1</f>
+        <f t="shared" ref="B173" si="16">B169+1</f>
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
@@ -12096,7 +11775,7 @@
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
-        <f t="shared" ref="B177" si="18">B173+1</f>
+        <f t="shared" ref="B177" si="17">B173+1</f>
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
@@ -12175,7 +11854,7 @@
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
-        <f t="shared" ref="B181" si="19">B177+1</f>
+        <f t="shared" ref="B181" si="18">B177+1</f>
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
@@ -12254,7 +11933,7 @@
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
-        <f t="shared" ref="B185" si="20">B181+1</f>
+        <f t="shared" ref="B185" si="19">B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
@@ -12333,7 +12012,7 @@
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
-        <f t="shared" ref="B189" si="21">B185+1</f>
+        <f t="shared" ref="B189" si="20">B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
@@ -12412,7 +12091,7 @@
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
-        <f t="shared" ref="B193" si="22">B189+1</f>
+        <f t="shared" ref="B193" si="21">B189+1</f>
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
@@ -12491,7 +12170,7 @@
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
-        <f t="shared" ref="B197" si="23">B193+1</f>
+        <f t="shared" ref="B197" si="22">B193+1</f>
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
@@ -12570,7 +12249,7 @@
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
-        <f t="shared" ref="B201" si="24">B197+1</f>
+        <f t="shared" ref="B201" si="23">B197+1</f>
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
@@ -14782,7 +14461,7 @@
     </row>
     <row r="313" spans="2:18" ht="58.5">
       <c r="B313" s="19">
-        <f t="shared" ref="B313" si="25">B309+1</f>
+        <f t="shared" ref="B313" si="24">B309+1</f>
         <v>78</v>
       </c>
       <c r="C313" s="6"/>
@@ -14861,7 +14540,7 @@
     </row>
     <row r="317" spans="2:18" ht="58.5">
       <c r="B317" s="19">
-        <f t="shared" ref="B317" si="26">B313+1</f>
+        <f t="shared" ref="B317" si="25">B313+1</f>
         <v>79</v>
       </c>
       <c r="C317" s="6"/>
@@ -14940,7 +14619,7 @@
     </row>
     <row r="321" spans="2:18" ht="58.5">
       <c r="B321" s="19">
-        <f t="shared" ref="B321" si="27">B317+1</f>
+        <f t="shared" ref="B321" si="26">B317+1</f>
         <v>80</v>
       </c>
       <c r="C321" s="6"/>
@@ -15019,7 +14698,7 @@
     </row>
     <row r="325" spans="2:18" ht="58.5">
       <c r="B325" s="19">
-        <f t="shared" ref="B325" si="28">B321+1</f>
+        <f t="shared" ref="B325" si="27">B321+1</f>
         <v>81</v>
       </c>
       <c r="C325" s="6"/>
@@ -15098,7 +14777,7 @@
     </row>
     <row r="329" spans="2:18" ht="58.5">
       <c r="B329" s="19">
-        <f t="shared" ref="B329" si="29">B325+1</f>
+        <f t="shared" ref="B329" si="28">B325+1</f>
         <v>82</v>
       </c>
       <c r="C329" s="6"/>
@@ -15177,7 +14856,7 @@
     </row>
     <row r="333" spans="2:18" ht="58.5">
       <c r="B333" s="19">
-        <f t="shared" ref="B333" si="30">B329+1</f>
+        <f t="shared" ref="B333" si="29">B329+1</f>
         <v>83</v>
       </c>
       <c r="C333" s="6"/>
@@ -15256,7 +14935,7 @@
     </row>
     <row r="337" spans="2:18" ht="58.5">
       <c r="B337" s="19">
-        <f t="shared" ref="B337" si="31">B333+1</f>
+        <f t="shared" ref="B337" si="30">B333+1</f>
         <v>84</v>
       </c>
       <c r="C337" s="6"/>
@@ -15335,7 +15014,7 @@
     </row>
     <row r="341" spans="2:18" ht="58.5">
       <c r="B341" s="19">
-        <f t="shared" ref="B341" si="32">B337+1</f>
+        <f t="shared" ref="B341" si="31">B337+1</f>
         <v>85</v>
       </c>
       <c r="C341" s="6"/>
@@ -15414,7 +15093,7 @@
     </row>
     <row r="345" spans="2:18" ht="58.5">
       <c r="B345" s="19">
-        <f t="shared" ref="B345" si="33">B341+1</f>
+        <f t="shared" ref="B345" si="32">B341+1</f>
         <v>86</v>
       </c>
       <c r="C345" s="6"/>
@@ -15493,7 +15172,7 @@
     </row>
     <row r="349" spans="2:18" ht="58.5">
       <c r="B349" s="19">
-        <f t="shared" ref="B349" si="34">B345+1</f>
+        <f t="shared" ref="B349" si="33">B345+1</f>
         <v>87</v>
       </c>
       <c r="C349" s="6"/>
@@ -15572,7 +15251,7 @@
     </row>
     <row r="353" spans="2:18" ht="58.5">
       <c r="B353" s="19">
-        <f t="shared" ref="B353" si="35">B349+1</f>
+        <f t="shared" ref="B353" si="34">B349+1</f>
         <v>88</v>
       </c>
       <c r="C353" s="6"/>
@@ -15651,7 +15330,7 @@
     </row>
     <row r="357" spans="2:18" ht="58.5">
       <c r="B357" s="19">
-        <f t="shared" ref="B357" si="36">B353+1</f>
+        <f t="shared" ref="B357" si="35">B353+1</f>
         <v>89</v>
       </c>
       <c r="C357" s="6"/>
@@ -15730,7 +15409,7 @@
     </row>
     <row r="361" spans="2:18" ht="58.5">
       <c r="B361" s="19">
-        <f t="shared" ref="B361" si="37">B357+1</f>
+        <f t="shared" ref="B361" si="36">B357+1</f>
         <v>90</v>
       </c>
       <c r="C361" s="6"/>
@@ -15809,7 +15488,7 @@
     </row>
     <row r="365" spans="2:18" ht="58.5">
       <c r="B365" s="19">
-        <f t="shared" ref="B365" si="38">B361+1</f>
+        <f t="shared" ref="B365" si="37">B361+1</f>
         <v>91</v>
       </c>
       <c r="C365" s="6"/>
@@ -15888,7 +15567,7 @@
     </row>
     <row r="369" spans="2:18" ht="58.5">
       <c r="B369" s="19">
-        <f t="shared" ref="B369" si="39">B365+1</f>
+        <f t="shared" ref="B369" si="38">B365+1</f>
         <v>92</v>
       </c>
       <c r="C369" s="6"/>
@@ -15967,7 +15646,7 @@
     </row>
     <row r="373" spans="2:18" ht="58.5">
       <c r="B373" s="19">
-        <f t="shared" ref="B373" si="40">B369+1</f>
+        <f t="shared" ref="B373" si="39">B369+1</f>
         <v>93</v>
       </c>
       <c r="C373" s="6"/>
@@ -16046,7 +15725,7 @@
     </row>
     <row r="377" spans="2:18" ht="58.5">
       <c r="B377" s="19">
-        <f t="shared" ref="B377" si="41">B373+1</f>
+        <f t="shared" ref="B377" si="40">B373+1</f>
         <v>94</v>
       </c>
       <c r="C377" s="6"/>
@@ -16125,7 +15804,7 @@
     </row>
     <row r="381" spans="2:18" ht="58.5">
       <c r="B381" s="19">
-        <f t="shared" ref="B381" si="42">B377+1</f>
+        <f t="shared" ref="B381" si="41">B377+1</f>
         <v>95</v>
       </c>
       <c r="C381" s="6"/>
@@ -16204,7 +15883,7 @@
     </row>
     <row r="385" spans="2:18" ht="58.5">
       <c r="B385" s="19">
-        <f t="shared" ref="B385" si="43">B381+1</f>
+        <f t="shared" ref="B385" si="42">B381+1</f>
         <v>96</v>
       </c>
       <c r="C385" s="6"/>
@@ -16283,7 +15962,7 @@
     </row>
     <row r="389" spans="2:18" ht="58.5">
       <c r="B389" s="19">
-        <f t="shared" ref="B389" si="44">B385+1</f>
+        <f t="shared" ref="B389" si="43">B385+1</f>
         <v>97</v>
       </c>
       <c r="C389" s="6"/>
@@ -16362,7 +16041,7 @@
     </row>
     <row r="393" spans="2:18" ht="58.5">
       <c r="B393" s="19">
-        <f t="shared" ref="B393" si="45">B389+1</f>
+        <f t="shared" ref="B393" si="44">B389+1</f>
         <v>98</v>
       </c>
       <c r="C393" s="6"/>
@@ -16441,7 +16120,7 @@
     </row>
     <row r="397" spans="2:18" ht="58.5">
       <c r="B397" s="19">
-        <f t="shared" ref="B397" si="46">B393+1</f>
+        <f t="shared" ref="B397" si="45">B393+1</f>
         <v>99</v>
       </c>
       <c r="C397" s="6"/>
@@ -16520,7 +16199,7 @@
     </row>
     <row r="401" spans="2:18" ht="58.5">
       <c r="B401" s="19">
-        <f t="shared" ref="B401" si="47">B397+1</f>
+        <f t="shared" ref="B401" si="46">B397+1</f>
         <v>100</v>
       </c>
       <c r="C401" s="6"/>
@@ -18732,7 +18411,7 @@
     </row>
     <row r="513" spans="2:18" ht="58.5">
       <c r="B513" s="19">
-        <f t="shared" ref="B513" si="48">B509+1</f>
+        <f t="shared" ref="B513" si="47">B509+1</f>
         <v>128</v>
       </c>
       <c r="C513" s="6"/>
@@ -18811,7 +18490,7 @@
     </row>
     <row r="517" spans="2:18" ht="58.5">
       <c r="B517" s="19">
-        <f t="shared" ref="B517" si="49">B513+1</f>
+        <f t="shared" ref="B517" si="48">B513+1</f>
         <v>129</v>
       </c>
       <c r="C517" s="6"/>
@@ -18890,7 +18569,7 @@
     </row>
     <row r="521" spans="2:18" ht="58.5">
       <c r="B521" s="19">
-        <f t="shared" ref="B521" si="50">B517+1</f>
+        <f t="shared" ref="B521" si="49">B517+1</f>
         <v>130</v>
       </c>
       <c r="C521" s="6"/>
@@ -18969,7 +18648,7 @@
     </row>
     <row r="525" spans="2:18" ht="58.5">
       <c r="B525" s="19">
-        <f t="shared" ref="B525" si="51">B521+1</f>
+        <f t="shared" ref="B525" si="50">B521+1</f>
         <v>131</v>
       </c>
       <c r="C525" s="6"/>
@@ -19048,7 +18727,7 @@
     </row>
     <row r="529" spans="2:18" ht="58.5">
       <c r="B529" s="19">
-        <f t="shared" ref="B529" si="52">B525+1</f>
+        <f t="shared" ref="B529" si="51">B525+1</f>
         <v>132</v>
       </c>
       <c r="C529" s="6"/>
@@ -19127,7 +18806,7 @@
     </row>
     <row r="533" spans="2:18" ht="58.5">
       <c r="B533" s="19">
-        <f t="shared" ref="B533" si="53">B529+1</f>
+        <f t="shared" ref="B533" si="52">B529+1</f>
         <v>133</v>
       </c>
       <c r="C533" s="6"/>
@@ -19206,7 +18885,7 @@
     </row>
     <row r="537" spans="2:18" ht="58.5">
       <c r="B537" s="19">
-        <f t="shared" ref="B537" si="54">B533+1</f>
+        <f t="shared" ref="B537" si="53">B533+1</f>
         <v>134</v>
       </c>
       <c r="C537" s="6"/>
@@ -19285,7 +18964,7 @@
     </row>
     <row r="541" spans="2:18" ht="58.5">
       <c r="B541" s="19">
-        <f t="shared" ref="B541" si="55">B537+1</f>
+        <f t="shared" ref="B541" si="54">B537+1</f>
         <v>135</v>
       </c>
       <c r="C541" s="6"/>
@@ -19364,7 +19043,7 @@
     </row>
     <row r="545" spans="2:18" ht="58.5">
       <c r="B545" s="19">
-        <f t="shared" ref="B545" si="56">B541+1</f>
+        <f t="shared" ref="B545" si="55">B541+1</f>
         <v>136</v>
       </c>
       <c r="C545" s="6"/>
@@ -19443,7 +19122,7 @@
     </row>
     <row r="549" spans="2:18" ht="58.5">
       <c r="B549" s="19">
-        <f t="shared" ref="B549" si="57">B545+1</f>
+        <f t="shared" ref="B549" si="56">B545+1</f>
         <v>137</v>
       </c>
       <c r="C549" s="6"/>
@@ -19522,7 +19201,7 @@
     </row>
     <row r="553" spans="2:18" ht="58.5">
       <c r="B553" s="19">
-        <f t="shared" ref="B553" si="58">B549+1</f>
+        <f t="shared" ref="B553" si="57">B549+1</f>
         <v>138</v>
       </c>
       <c r="C553" s="6"/>
@@ -19601,7 +19280,7 @@
     </row>
     <row r="557" spans="2:18" ht="58.5">
       <c r="B557" s="19">
-        <f t="shared" ref="B557" si="59">B553+1</f>
+        <f t="shared" ref="B557" si="58">B553+1</f>
         <v>139</v>
       </c>
       <c r="C557" s="6"/>
@@ -19680,7 +19359,7 @@
     </row>
     <row r="561" spans="2:18" ht="58.5">
       <c r="B561" s="19">
-        <f t="shared" ref="B561" si="60">B557+1</f>
+        <f t="shared" ref="B561" si="59">B557+1</f>
         <v>140</v>
       </c>
       <c r="C561" s="6"/>
@@ -19759,7 +19438,7 @@
     </row>
     <row r="565" spans="2:18" ht="58.5">
       <c r="B565" s="19">
-        <f t="shared" ref="B565" si="61">B561+1</f>
+        <f t="shared" ref="B565" si="60">B561+1</f>
         <v>141</v>
       </c>
       <c r="C565" s="6"/>
@@ -19838,7 +19517,7 @@
     </row>
     <row r="569" spans="2:18" ht="58.5">
       <c r="B569" s="19">
-        <f t="shared" ref="B569" si="62">B565+1</f>
+        <f t="shared" ref="B569" si="61">B565+1</f>
         <v>142</v>
       </c>
       <c r="C569" s="6"/>
@@ -19917,7 +19596,7 @@
     </row>
     <row r="573" spans="2:18" ht="58.5">
       <c r="B573" s="19">
-        <f t="shared" ref="B573" si="63">B569+1</f>
+        <f t="shared" ref="B573" si="62">B569+1</f>
         <v>143</v>
       </c>
       <c r="C573" s="6"/>
@@ -19996,7 +19675,7 @@
     </row>
     <row r="577" spans="2:18" ht="58.5">
       <c r="B577" s="19">
-        <f t="shared" ref="B577" si="64">B573+1</f>
+        <f t="shared" ref="B577" si="63">B573+1</f>
         <v>144</v>
       </c>
       <c r="C577" s="6"/>
@@ -20075,7 +19754,7 @@
     </row>
     <row r="581" spans="2:18" ht="58.5">
       <c r="B581" s="19">
-        <f t="shared" ref="B581" si="65">B577+1</f>
+        <f t="shared" ref="B581" si="64">B577+1</f>
         <v>145</v>
       </c>
       <c r="C581" s="6"/>
@@ -20154,7 +19833,7 @@
     </row>
     <row r="585" spans="2:18" ht="58.5">
       <c r="B585" s="19">
-        <f t="shared" ref="B585" si="66">B581+1</f>
+        <f t="shared" ref="B585" si="65">B581+1</f>
         <v>146</v>
       </c>
       <c r="C585" s="6"/>
@@ -20233,7 +19912,7 @@
     </row>
     <row r="589" spans="2:18" ht="58.5">
       <c r="B589" s="19">
-        <f t="shared" ref="B589" si="67">B585+1</f>
+        <f t="shared" ref="B589" si="66">B585+1</f>
         <v>147</v>
       </c>
       <c r="C589" s="6"/>
@@ -20312,7 +19991,7 @@
     </row>
     <row r="593" spans="2:18" ht="58.5">
       <c r="B593" s="19">
-        <f t="shared" ref="B593" si="68">B589+1</f>
+        <f t="shared" ref="B593" si="67">B589+1</f>
         <v>148</v>
       </c>
       <c r="C593" s="6"/>
@@ -20391,7 +20070,7 @@
     </row>
     <row r="597" spans="2:18" ht="58.5">
       <c r="B597" s="19">
-        <f t="shared" ref="B597" si="69">B593+1</f>
+        <f t="shared" ref="B597" si="68">B593+1</f>
         <v>149</v>
       </c>
       <c r="C597" s="6"/>
@@ -20470,7 +20149,7 @@
     </row>
     <row r="601" spans="2:18" ht="58.5">
       <c r="B601" s="19">
-        <f t="shared" ref="B601" si="70">B597+1</f>
+        <f t="shared" ref="B601" si="69">B597+1</f>
         <v>150</v>
       </c>
       <c r="C601" s="6"/>
@@ -22682,7 +22361,7 @@
     </row>
     <row r="713" spans="2:18" ht="58.5">
       <c r="B713" s="19">
-        <f t="shared" ref="B713" si="71">B709+1</f>
+        <f t="shared" ref="B713" si="70">B709+1</f>
         <v>178</v>
       </c>
       <c r="C713" s="6"/>
@@ -22761,7 +22440,7 @@
     </row>
     <row r="717" spans="2:18" ht="58.5">
       <c r="B717" s="19">
-        <f t="shared" ref="B717" si="72">B713+1</f>
+        <f t="shared" ref="B717" si="71">B713+1</f>
         <v>179</v>
       </c>
       <c r="C717" s="6"/>
@@ -22840,7 +22519,7 @@
     </row>
     <row r="721" spans="2:18" ht="58.5">
       <c r="B721" s="19">
-        <f t="shared" ref="B721" si="73">B717+1</f>
+        <f t="shared" ref="B721" si="72">B717+1</f>
         <v>180</v>
       </c>
       <c r="C721" s="6"/>
@@ -22919,7 +22598,7 @@
     </row>
     <row r="725" spans="2:18" ht="58.5">
       <c r="B725" s="19">
-        <f t="shared" ref="B725" si="74">B721+1</f>
+        <f t="shared" ref="B725" si="73">B721+1</f>
         <v>181</v>
       </c>
       <c r="C725" s="6"/>
@@ -22998,7 +22677,7 @@
     </row>
     <row r="729" spans="2:18" ht="58.5">
       <c r="B729" s="19">
-        <f t="shared" ref="B729" si="75">B725+1</f>
+        <f t="shared" ref="B729" si="74">B725+1</f>
         <v>182</v>
       </c>
       <c r="C729" s="6"/>
@@ -23077,7 +22756,7 @@
     </row>
     <row r="733" spans="2:18" ht="58.5">
       <c r="B733" s="19">
-        <f t="shared" ref="B733" si="76">B729+1</f>
+        <f t="shared" ref="B733" si="75">B729+1</f>
         <v>183</v>
       </c>
       <c r="C733" s="6"/>
@@ -23156,7 +22835,7 @@
     </row>
     <row r="737" spans="2:18" ht="58.5">
       <c r="B737" s="19">
-        <f t="shared" ref="B737" si="77">B733+1</f>
+        <f t="shared" ref="B737" si="76">B733+1</f>
         <v>184</v>
       </c>
       <c r="C737" s="6"/>
@@ -23235,7 +22914,7 @@
     </row>
     <row r="741" spans="2:18" ht="58.5">
       <c r="B741" s="19">
-        <f t="shared" ref="B741" si="78">B737+1</f>
+        <f t="shared" ref="B741" si="77">B737+1</f>
         <v>185</v>
       </c>
       <c r="C741" s="6"/>
@@ -23314,7 +22993,7 @@
     </row>
     <row r="745" spans="2:18" ht="58.5">
       <c r="B745" s="19">
-        <f t="shared" ref="B745" si="79">B741+1</f>
+        <f t="shared" ref="B745" si="78">B741+1</f>
         <v>186</v>
       </c>
       <c r="C745" s="6"/>
@@ -23393,7 +23072,7 @@
     </row>
     <row r="749" spans="2:18" ht="58.5">
       <c r="B749" s="19">
-        <f t="shared" ref="B749" si="80">B745+1</f>
+        <f t="shared" ref="B749" si="79">B745+1</f>
         <v>187</v>
       </c>
       <c r="C749" s="6"/>
@@ -23472,7 +23151,7 @@
     </row>
     <row r="753" spans="2:18" ht="58.5">
       <c r="B753" s="19">
-        <f t="shared" ref="B753" si="81">B749+1</f>
+        <f t="shared" ref="B753" si="80">B749+1</f>
         <v>188</v>
       </c>
       <c r="C753" s="6"/>
@@ -23551,7 +23230,7 @@
     </row>
     <row r="757" spans="2:18" ht="58.5">
       <c r="B757" s="19">
-        <f t="shared" ref="B757" si="82">B753+1</f>
+        <f t="shared" ref="B757" si="81">B753+1</f>
         <v>189</v>
       </c>
       <c r="C757" s="6"/>
@@ -23630,7 +23309,7 @@
     </row>
     <row r="761" spans="2:18" ht="58.5">
       <c r="B761" s="19">
-        <f t="shared" ref="B761" si="83">B757+1</f>
+        <f t="shared" ref="B761" si="82">B757+1</f>
         <v>190</v>
       </c>
       <c r="C761" s="6"/>
@@ -23709,7 +23388,7 @@
     </row>
     <row r="765" spans="2:18" ht="58.5">
       <c r="B765" s="19">
-        <f t="shared" ref="B765" si="84">B761+1</f>
+        <f t="shared" ref="B765" si="83">B761+1</f>
         <v>191</v>
       </c>
       <c r="C765" s="6"/>
@@ -23788,7 +23467,7 @@
     </row>
     <row r="769" spans="2:18" ht="58.5">
       <c r="B769" s="19">
-        <f t="shared" ref="B769" si="85">B765+1</f>
+        <f t="shared" ref="B769" si="84">B765+1</f>
         <v>192</v>
       </c>
       <c r="C769" s="6"/>
@@ -23867,7 +23546,7 @@
     </row>
     <row r="773" spans="2:18" ht="58.5">
       <c r="B773" s="19">
-        <f t="shared" ref="B773" si="86">B769+1</f>
+        <f t="shared" ref="B773" si="85">B769+1</f>
         <v>193</v>
       </c>
       <c r="C773" s="6"/>
@@ -23946,7 +23625,7 @@
     </row>
     <row r="777" spans="2:18" ht="58.5">
       <c r="B777" s="19">
-        <f t="shared" ref="B777" si="87">B773+1</f>
+        <f t="shared" ref="B777" si="86">B773+1</f>
         <v>194</v>
       </c>
       <c r="C777" s="6"/>
@@ -24025,7 +23704,7 @@
     </row>
     <row r="781" spans="2:18" ht="58.5">
       <c r="B781" s="19">
-        <f t="shared" ref="B781" si="88">B777+1</f>
+        <f t="shared" ref="B781" si="87">B777+1</f>
         <v>195</v>
       </c>
       <c r="C781" s="6"/>
@@ -24104,7 +23783,7 @@
     </row>
     <row r="785" spans="2:18" ht="58.5">
       <c r="B785" s="19">
-        <f t="shared" ref="B785" si="89">B781+1</f>
+        <f t="shared" ref="B785" si="88">B781+1</f>
         <v>196</v>
       </c>
       <c r="C785" s="6"/>
@@ -24183,7 +23862,7 @@
     </row>
     <row r="789" spans="2:18" ht="58.5">
       <c r="B789" s="19">
-        <f t="shared" ref="B789" si="90">B785+1</f>
+        <f t="shared" ref="B789" si="89">B785+1</f>
         <v>197</v>
       </c>
       <c r="C789" s="6"/>
@@ -24262,7 +23941,7 @@
     </row>
     <row r="793" spans="2:18" ht="58.5">
       <c r="B793" s="19">
-        <f t="shared" ref="B793" si="91">B789+1</f>
+        <f t="shared" ref="B793" si="90">B789+1</f>
         <v>198</v>
       </c>
       <c r="C793" s="6"/>
@@ -24341,7 +24020,7 @@
     </row>
     <row r="797" spans="2:18" ht="58.5">
       <c r="B797" s="19">
-        <f t="shared" ref="B797" si="92">B793+1</f>
+        <f t="shared" ref="B797" si="91">B793+1</f>
         <v>199</v>
       </c>
       <c r="C797" s="6"/>
@@ -24420,7 +24099,7 @@
     </row>
     <row r="801" spans="2:18" ht="58.5">
       <c r="B801" s="19">
-        <f t="shared" ref="B801" si="93">B797+1</f>
+        <f t="shared" ref="B801" si="92">B797+1</f>
         <v>200</v>
       </c>
       <c r="C801" s="6"/>
@@ -24499,7 +24178,7 @@
     </row>
     <row r="805" spans="2:18" ht="58.5">
       <c r="B805" s="19">
-        <f t="shared" ref="B805" si="94">B801+1</f>
+        <f t="shared" ref="B805" si="93">B801+1</f>
         <v>201</v>
       </c>
       <c r="C805" s="6"/>
@@ -26632,7 +26311,7 @@
     </row>
     <row r="913" spans="2:18" ht="58.5">
       <c r="B913" s="19">
-        <f t="shared" ref="B913" si="95">B909+1</f>
+        <f t="shared" ref="B913" si="94">B909+1</f>
         <v>228</v>
       </c>
       <c r="C913" s="6"/>
@@ -26711,7 +26390,7 @@
     </row>
     <row r="917" spans="2:18" ht="58.5">
       <c r="B917" s="19">
-        <f t="shared" ref="B917" si="96">B913+1</f>
+        <f t="shared" ref="B917" si="95">B913+1</f>
         <v>229</v>
       </c>
       <c r="C917" s="6"/>
@@ -26790,7 +26469,7 @@
     </row>
     <row r="921" spans="2:18" ht="58.5">
       <c r="B921" s="19">
-        <f t="shared" ref="B921" si="97">B917+1</f>
+        <f t="shared" ref="B921" si="96">B917+1</f>
         <v>230</v>
       </c>
       <c r="C921" s="6"/>
@@ -26869,7 +26548,7 @@
     </row>
     <row r="925" spans="2:18" ht="58.5">
       <c r="B925" s="19">
-        <f t="shared" ref="B925" si="98">B921+1</f>
+        <f t="shared" ref="B925" si="97">B921+1</f>
         <v>231</v>
       </c>
       <c r="C925" s="6"/>
@@ -26948,7 +26627,7 @@
     </row>
     <row r="929" spans="2:18" ht="58.5">
       <c r="B929" s="19">
-        <f t="shared" ref="B929" si="99">B925+1</f>
+        <f t="shared" ref="B929" si="98">B925+1</f>
         <v>232</v>
       </c>
       <c r="C929" s="6"/>
@@ -27027,7 +26706,7 @@
     </row>
     <row r="933" spans="2:18" ht="58.5">
       <c r="B933" s="19">
-        <f t="shared" ref="B933" si="100">B929+1</f>
+        <f t="shared" ref="B933" si="99">B929+1</f>
         <v>233</v>
       </c>
       <c r="C933" s="6"/>
@@ -27106,7 +26785,7 @@
     </row>
     <row r="937" spans="2:18" ht="58.5">
       <c r="B937" s="19">
-        <f t="shared" ref="B937" si="101">B933+1</f>
+        <f t="shared" ref="B937" si="100">B933+1</f>
         <v>234</v>
       </c>
       <c r="C937" s="6"/>
@@ -27185,7 +26864,7 @@
     </row>
     <row r="941" spans="2:18" ht="58.5">
       <c r="B941" s="19">
-        <f t="shared" ref="B941" si="102">B937+1</f>
+        <f t="shared" ref="B941" si="101">B937+1</f>
         <v>235</v>
       </c>
       <c r="C941" s="6"/>
@@ -27264,7 +26943,7 @@
     </row>
     <row r="945" spans="2:18" ht="58.5">
       <c r="B945" s="19">
-        <f t="shared" ref="B945" si="103">B941+1</f>
+        <f t="shared" ref="B945" si="102">B941+1</f>
         <v>236</v>
       </c>
       <c r="C945" s="6"/>
@@ -27343,7 +27022,7 @@
     </row>
     <row r="949" spans="2:18" ht="58.5">
       <c r="B949" s="19">
-        <f t="shared" ref="B949" si="104">B945+1</f>
+        <f t="shared" ref="B949" si="103">B945+1</f>
         <v>237</v>
       </c>
       <c r="C949" s="6"/>
@@ -27422,7 +27101,7 @@
     </row>
     <row r="953" spans="2:18" ht="58.5">
       <c r="B953" s="19">
-        <f t="shared" ref="B953" si="105">B949+1</f>
+        <f t="shared" ref="B953" si="104">B949+1</f>
         <v>238</v>
       </c>
       <c r="C953" s="6"/>
@@ -27501,7 +27180,7 @@
     </row>
     <row r="957" spans="2:18" ht="58.5">
       <c r="B957" s="19">
-        <f t="shared" ref="B957" si="106">B953+1</f>
+        <f t="shared" ref="B957" si="105">B953+1</f>
         <v>239</v>
       </c>
       <c r="C957" s="6"/>
@@ -27580,7 +27259,7 @@
     </row>
     <row r="961" spans="2:18" ht="58.5">
       <c r="B961" s="19">
-        <f t="shared" ref="B961" si="107">B957+1</f>
+        <f t="shared" ref="B961" si="106">B957+1</f>
         <v>240</v>
       </c>
       <c r="C961" s="6"/>
@@ -27659,7 +27338,7 @@
     </row>
     <row r="965" spans="2:18" ht="58.5">
       <c r="B965" s="19">
-        <f t="shared" ref="B965" si="108">B961+1</f>
+        <f t="shared" ref="B965" si="107">B961+1</f>
         <v>241</v>
       </c>
       <c r="C965" s="6"/>
@@ -27738,7 +27417,7 @@
     </row>
     <row r="969" spans="2:18" ht="58.5">
       <c r="B969" s="19">
-        <f t="shared" ref="B969" si="109">B965+1</f>
+        <f t="shared" ref="B969" si="108">B965+1</f>
         <v>242</v>
       </c>
       <c r="C969" s="6"/>
@@ -27817,7 +27496,7 @@
     </row>
     <row r="973" spans="2:18" ht="58.5">
       <c r="B973" s="19">
-        <f t="shared" ref="B973" si="110">B969+1</f>
+        <f t="shared" ref="B973" si="109">B969+1</f>
         <v>243</v>
       </c>
       <c r="C973" s="6"/>
@@ -27896,7 +27575,7 @@
     </row>
     <row r="977" spans="2:18" ht="58.5">
       <c r="B977" s="19">
-        <f t="shared" ref="B977" si="111">B973+1</f>
+        <f t="shared" ref="B977" si="110">B973+1</f>
         <v>244</v>
       </c>
       <c r="C977" s="6"/>
@@ -27975,7 +27654,7 @@
     </row>
     <row r="981" spans="2:18" ht="58.5">
       <c r="B981" s="19">
-        <f t="shared" ref="B981" si="112">B977+1</f>
+        <f t="shared" ref="B981" si="111">B977+1</f>
         <v>245</v>
       </c>
       <c r="C981" s="6"/>
@@ -28054,7 +27733,7 @@
     </row>
     <row r="985" spans="2:18" ht="58.5">
       <c r="B985" s="19">
-        <f t="shared" ref="B985" si="113">B981+1</f>
+        <f t="shared" ref="B985" si="112">B981+1</f>
         <v>246</v>
       </c>
       <c r="C985" s="6"/>
@@ -28133,7 +27812,7 @@
     </row>
     <row r="989" spans="2:18" ht="58.5">
       <c r="B989" s="19">
-        <f t="shared" ref="B989" si="114">B985+1</f>
+        <f t="shared" ref="B989" si="113">B985+1</f>
         <v>247</v>
       </c>
       <c r="C989" s="6"/>
@@ -28212,7 +27891,7 @@
     </row>
     <row r="993" spans="2:18" ht="58.5">
       <c r="B993" s="19">
-        <f t="shared" ref="B993" si="115">B989+1</f>
+        <f t="shared" ref="B993" si="114">B989+1</f>
         <v>248</v>
       </c>
       <c r="C993" s="6"/>
@@ -28291,7 +27970,7 @@
     </row>
     <row r="997" spans="2:18" ht="58.5">
       <c r="B997" s="19">
-        <f t="shared" ref="B997" si="116">B993+1</f>
+        <f t="shared" ref="B997" si="115">B993+1</f>
         <v>249</v>
       </c>
       <c r="C997" s="6"/>
@@ -28370,7 +28049,7 @@
     </row>
     <row r="1001" spans="2:18" ht="58.5">
       <c r="B1001" s="19">
-        <f t="shared" ref="B1001" si="117">B997+1</f>
+        <f t="shared" ref="B1001" si="116">B997+1</f>
         <v>250</v>
       </c>
       <c r="C1001" s="6"/>
@@ -30582,7 +30261,7 @@
     </row>
     <row r="1113" spans="2:18" ht="58.5">
       <c r="B1113" s="19">
-        <f t="shared" ref="B1113" si="118">B1109+1</f>
+        <f t="shared" ref="B1113" si="117">B1109+1</f>
         <v>278</v>
       </c>
       <c r="C1113" s="6"/>
@@ -30661,7 +30340,7 @@
     </row>
     <row r="1117" spans="2:18" ht="58.5">
       <c r="B1117" s="19">
-        <f t="shared" ref="B1117" si="119">B1113+1</f>
+        <f t="shared" ref="B1117" si="118">B1113+1</f>
         <v>279</v>
       </c>
       <c r="C1117" s="6"/>
@@ -30740,7 +30419,7 @@
     </row>
     <row r="1121" spans="2:18" ht="58.5">
       <c r="B1121" s="19">
-        <f t="shared" ref="B1121" si="120">B1117+1</f>
+        <f t="shared" ref="B1121" si="119">B1117+1</f>
         <v>280</v>
       </c>
       <c r="C1121" s="6"/>
@@ -30819,7 +30498,7 @@
     </row>
     <row r="1125" spans="2:18" ht="58.5">
       <c r="B1125" s="19">
-        <f t="shared" ref="B1125" si="121">B1121+1</f>
+        <f t="shared" ref="B1125" si="120">B1121+1</f>
         <v>281</v>
       </c>
       <c r="C1125" s="6"/>
@@ -30898,7 +30577,7 @@
     </row>
     <row r="1129" spans="2:18" ht="58.5">
       <c r="B1129" s="19">
-        <f t="shared" ref="B1129" si="122">B1125+1</f>
+        <f t="shared" ref="B1129" si="121">B1125+1</f>
         <v>282</v>
       </c>
       <c r="C1129" s="6"/>
@@ -30977,7 +30656,7 @@
     </row>
     <row r="1133" spans="2:18" ht="58.5">
       <c r="B1133" s="19">
-        <f t="shared" ref="B1133" si="123">B1129+1</f>
+        <f t="shared" ref="B1133" si="122">B1129+1</f>
         <v>283</v>
       </c>
       <c r="C1133" s="6"/>
@@ -31056,7 +30735,7 @@
     </row>
     <row r="1137" spans="2:18" ht="58.5">
       <c r="B1137" s="19">
-        <f t="shared" ref="B1137" si="124">B1133+1</f>
+        <f t="shared" ref="B1137" si="123">B1133+1</f>
         <v>284</v>
       </c>
       <c r="C1137" s="6"/>
@@ -31135,7 +30814,7 @@
     </row>
     <row r="1141" spans="2:18" ht="58.5">
       <c r="B1141" s="19">
-        <f t="shared" ref="B1141" si="125">B1137+1</f>
+        <f t="shared" ref="B1141" si="124">B1137+1</f>
         <v>285</v>
       </c>
       <c r="C1141" s="6"/>
@@ -31214,7 +30893,7 @@
     </row>
     <row r="1145" spans="2:18" ht="58.5">
       <c r="B1145" s="19">
-        <f t="shared" ref="B1145" si="126">B1141+1</f>
+        <f t="shared" ref="B1145" si="125">B1141+1</f>
         <v>286</v>
       </c>
       <c r="C1145" s="6"/>
@@ -31293,7 +30972,7 @@
     </row>
     <row r="1149" spans="2:18" ht="58.5">
       <c r="B1149" s="19">
-        <f t="shared" ref="B1149" si="127">B1145+1</f>
+        <f t="shared" ref="B1149" si="126">B1145+1</f>
         <v>287</v>
       </c>
       <c r="C1149" s="6"/>
@@ -31372,7 +31051,7 @@
     </row>
     <row r="1153" spans="2:18" ht="58.5">
       <c r="B1153" s="19">
-        <f t="shared" ref="B1153" si="128">B1149+1</f>
+        <f t="shared" ref="B1153" si="127">B1149+1</f>
         <v>288</v>
       </c>
       <c r="C1153" s="6"/>
@@ -31451,7 +31130,7 @@
     </row>
     <row r="1157" spans="2:18" ht="58.5">
       <c r="B1157" s="19">
-        <f t="shared" ref="B1157" si="129">B1153+1</f>
+        <f t="shared" ref="B1157" si="128">B1153+1</f>
         <v>289</v>
       </c>
       <c r="C1157" s="6"/>
@@ -31530,7 +31209,7 @@
     </row>
     <row r="1161" spans="2:18" ht="58.5">
       <c r="B1161" s="19">
-        <f t="shared" ref="B1161" si="130">B1157+1</f>
+        <f t="shared" ref="B1161" si="129">B1157+1</f>
         <v>290</v>
       </c>
       <c r="C1161" s="6"/>
@@ -31609,7 +31288,7 @@
     </row>
     <row r="1165" spans="2:18" ht="58.5">
       <c r="B1165" s="19">
-        <f t="shared" ref="B1165" si="131">B1161+1</f>
+        <f t="shared" ref="B1165" si="130">B1161+1</f>
         <v>291</v>
       </c>
       <c r="C1165" s="6"/>
@@ -31688,7 +31367,7 @@
     </row>
     <row r="1169" spans="2:18" ht="58.5">
       <c r="B1169" s="19">
-        <f t="shared" ref="B1169" si="132">B1165+1</f>
+        <f t="shared" ref="B1169" si="131">B1165+1</f>
         <v>292</v>
       </c>
       <c r="C1169" s="6"/>
@@ -31767,7 +31446,7 @@
     </row>
     <row r="1173" spans="2:18" ht="58.5">
       <c r="B1173" s="19">
-        <f t="shared" ref="B1173" si="133">B1169+1</f>
+        <f t="shared" ref="B1173" si="132">B1169+1</f>
         <v>293</v>
       </c>
       <c r="C1173" s="6"/>
@@ -31846,7 +31525,7 @@
     </row>
     <row r="1177" spans="2:18" ht="58.5">
       <c r="B1177" s="19">
-        <f t="shared" ref="B1177" si="134">B1173+1</f>
+        <f t="shared" ref="B1177" si="133">B1173+1</f>
         <v>294</v>
       </c>
       <c r="C1177" s="6"/>
@@ -31925,7 +31604,7 @@
     </row>
     <row r="1181" spans="2:18" ht="58.5">
       <c r="B1181" s="19">
-        <f t="shared" ref="B1181" si="135">B1177+1</f>
+        <f t="shared" ref="B1181" si="134">B1177+1</f>
         <v>295</v>
       </c>
       <c r="C1181" s="6"/>
@@ -32004,7 +31683,7 @@
     </row>
     <row r="1185" spans="2:18" ht="58.5">
       <c r="B1185" s="19">
-        <f t="shared" ref="B1185" si="136">B1181+1</f>
+        <f t="shared" ref="B1185" si="135">B1181+1</f>
         <v>296</v>
       </c>
       <c r="C1185" s="6"/>
@@ -32083,7 +31762,7 @@
     </row>
     <row r="1189" spans="2:18" ht="58.5">
       <c r="B1189" s="19">
-        <f t="shared" ref="B1189" si="137">B1185+1</f>
+        <f t="shared" ref="B1189" si="136">B1185+1</f>
         <v>297</v>
       </c>
       <c r="C1189" s="6"/>
@@ -32162,7 +31841,7 @@
     </row>
     <row r="1193" spans="2:18" ht="58.5">
       <c r="B1193" s="19">
-        <f t="shared" ref="B1193" si="138">B1189+1</f>
+        <f t="shared" ref="B1193" si="137">B1189+1</f>
         <v>298</v>
       </c>
       <c r="C1193" s="6"/>
@@ -32241,7 +31920,7 @@
     </row>
     <row r="1197" spans="2:18" ht="58.5">
       <c r="B1197" s="19">
-        <f t="shared" ref="B1197" si="139">B1193+1</f>
+        <f t="shared" ref="B1197" si="138">B1193+1</f>
         <v>299</v>
       </c>
       <c r="C1197" s="6"/>
@@ -32320,7 +31999,7 @@
     </row>
     <row r="1201" spans="2:18" ht="58.5">
       <c r="B1201" s="19">
-        <f t="shared" ref="B1201" si="140">B1197+1</f>
+        <f t="shared" ref="B1201" si="139">B1197+1</f>
         <v>300</v>
       </c>
       <c r="C1201" s="6"/>
@@ -32399,7 +32078,7 @@
     </row>
     <row r="1205" spans="2:18" ht="58.5">
       <c r="B1205" s="19">
-        <f t="shared" ref="B1205" si="141">B1201+1</f>
+        <f t="shared" ref="B1205" si="140">B1201+1</f>
         <v>301</v>
       </c>
       <c r="C1205" s="6"/>
@@ -34532,7 +34211,7 @@
     </row>
     <row r="1313" spans="2:18" ht="58.5">
       <c r="B1313" s="19">
-        <f t="shared" ref="B1313" si="142">B1309+1</f>
+        <f t="shared" ref="B1313" si="141">B1309+1</f>
         <v>328</v>
       </c>
       <c r="C1313" s="6"/>
@@ -34611,7 +34290,7 @@
     </row>
     <row r="1317" spans="2:18" ht="58.5">
       <c r="B1317" s="19">
-        <f t="shared" ref="B1317" si="143">B1313+1</f>
+        <f t="shared" ref="B1317" si="142">B1313+1</f>
         <v>329</v>
       </c>
       <c r="C1317" s="6"/>
@@ -34690,7 +34369,7 @@
     </row>
     <row r="1321" spans="2:18" ht="58.5">
       <c r="B1321" s="19">
-        <f t="shared" ref="B1321" si="144">B1317+1</f>
+        <f t="shared" ref="B1321" si="143">B1317+1</f>
         <v>330</v>
       </c>
       <c r="C1321" s="6"/>
@@ -34769,7 +34448,7 @@
     </row>
     <row r="1325" spans="2:18" ht="58.5">
       <c r="B1325" s="19">
-        <f t="shared" ref="B1325" si="145">B1321+1</f>
+        <f t="shared" ref="B1325" si="144">B1321+1</f>
         <v>331</v>
       </c>
       <c r="C1325" s="6"/>
@@ -34848,7 +34527,7 @@
     </row>
     <row r="1329" spans="2:18" ht="58.5">
       <c r="B1329" s="19">
-        <f t="shared" ref="B1329" si="146">B1325+1</f>
+        <f t="shared" ref="B1329" si="145">B1325+1</f>
         <v>332</v>
       </c>
       <c r="C1329" s="6"/>
@@ -34927,7 +34606,7 @@
     </row>
     <row r="1333" spans="2:18" ht="58.5">
       <c r="B1333" s="19">
-        <f t="shared" ref="B1333" si="147">B1329+1</f>
+        <f t="shared" ref="B1333" si="146">B1329+1</f>
         <v>333</v>
       </c>
       <c r="C1333" s="6"/>
@@ -35006,7 +34685,7 @@
     </row>
     <row r="1337" spans="2:18" ht="58.5">
       <c r="B1337" s="19">
-        <f t="shared" ref="B1337" si="148">B1333+1</f>
+        <f t="shared" ref="B1337" si="147">B1333+1</f>
         <v>334</v>
       </c>
       <c r="C1337" s="6"/>
@@ -35085,7 +34764,7 @@
     </row>
     <row r="1341" spans="2:18" ht="58.5">
       <c r="B1341" s="19">
-        <f t="shared" ref="B1341" si="149">B1337+1</f>
+        <f t="shared" ref="B1341" si="148">B1337+1</f>
         <v>335</v>
       </c>
       <c r="C1341" s="6"/>
@@ -35164,7 +34843,7 @@
     </row>
     <row r="1345" spans="2:18" ht="58.5">
       <c r="B1345" s="19">
-        <f t="shared" ref="B1345" si="150">B1341+1</f>
+        <f t="shared" ref="B1345" si="149">B1341+1</f>
         <v>336</v>
       </c>
       <c r="C1345" s="6"/>
@@ -35243,7 +34922,7 @@
     </row>
     <row r="1349" spans="2:18" ht="58.5">
       <c r="B1349" s="19">
-        <f t="shared" ref="B1349" si="151">B1345+1</f>
+        <f t="shared" ref="B1349" si="150">B1345+1</f>
         <v>337</v>
       </c>
       <c r="C1349" s="6"/>
@@ -35322,7 +35001,7 @@
     </row>
     <row r="1353" spans="2:18" ht="58.5">
       <c r="B1353" s="19">
-        <f t="shared" ref="B1353" si="152">B1349+1</f>
+        <f t="shared" ref="B1353" si="151">B1349+1</f>
         <v>338</v>
       </c>
       <c r="C1353" s="6"/>
@@ -35401,7 +35080,7 @@
     </row>
     <row r="1357" spans="2:18" ht="58.5">
       <c r="B1357" s="19">
-        <f t="shared" ref="B1357" si="153">B1353+1</f>
+        <f t="shared" ref="B1357" si="152">B1353+1</f>
         <v>339</v>
       </c>
       <c r="C1357" s="6"/>
@@ -35480,7 +35159,7 @@
     </row>
     <row r="1361" spans="2:18" ht="58.5">
       <c r="B1361" s="19">
-        <f t="shared" ref="B1361" si="154">B1357+1</f>
+        <f t="shared" ref="B1361" si="153">B1357+1</f>
         <v>340</v>
       </c>
       <c r="C1361" s="6"/>
@@ -35559,7 +35238,7 @@
     </row>
     <row r="1365" spans="2:18" ht="58.5">
       <c r="B1365" s="19">
-        <f t="shared" ref="B1365" si="155">B1361+1</f>
+        <f t="shared" ref="B1365" si="154">B1361+1</f>
         <v>341</v>
       </c>
       <c r="C1365" s="6"/>
@@ -35638,7 +35317,7 @@
     </row>
     <row r="1369" spans="2:18" ht="58.5">
       <c r="B1369" s="19">
-        <f t="shared" ref="B1369" si="156">B1365+1</f>
+        <f t="shared" ref="B1369" si="155">B1365+1</f>
         <v>342</v>
       </c>
       <c r="C1369" s="6"/>
@@ -35717,7 +35396,7 @@
     </row>
     <row r="1373" spans="2:18" ht="58.5">
       <c r="B1373" s="19">
-        <f t="shared" ref="B1373" si="157">B1369+1</f>
+        <f t="shared" ref="B1373" si="156">B1369+1</f>
         <v>343</v>
       </c>
       <c r="C1373" s="6"/>
@@ -35796,7 +35475,7 @@
     </row>
     <row r="1377" spans="2:18" ht="58.5">
       <c r="B1377" s="19">
-        <f t="shared" ref="B1377" si="158">B1373+1</f>
+        <f t="shared" ref="B1377" si="157">B1373+1</f>
         <v>344</v>
       </c>
       <c r="C1377" s="6"/>
@@ -35875,7 +35554,7 @@
     </row>
     <row r="1381" spans="2:18" ht="58.5">
       <c r="B1381" s="19">
-        <f t="shared" ref="B1381" si="159">B1377+1</f>
+        <f t="shared" ref="B1381" si="158">B1377+1</f>
         <v>345</v>
       </c>
       <c r="C1381" s="6"/>
@@ -35954,7 +35633,7 @@
     </row>
     <row r="1385" spans="2:18" ht="58.5">
       <c r="B1385" s="19">
-        <f t="shared" ref="B1385" si="160">B1381+1</f>
+        <f t="shared" ref="B1385" si="159">B1381+1</f>
         <v>346</v>
       </c>
       <c r="C1385" s="6"/>
@@ -36033,7 +35712,7 @@
     </row>
     <row r="1389" spans="2:18" ht="58.5">
       <c r="B1389" s="19">
-        <f t="shared" ref="B1389" si="161">B1385+1</f>
+        <f t="shared" ref="B1389" si="160">B1385+1</f>
         <v>347</v>
       </c>
       <c r="C1389" s="6"/>
@@ -36112,7 +35791,7 @@
     </row>
     <row r="1393" spans="2:18" ht="58.5">
       <c r="B1393" s="19">
-        <f t="shared" ref="B1393" si="162">B1389+1</f>
+        <f t="shared" ref="B1393" si="161">B1389+1</f>
         <v>348</v>
       </c>
       <c r="C1393" s="6"/>
@@ -36191,7 +35870,7 @@
     </row>
     <row r="1397" spans="2:18" ht="58.5">
       <c r="B1397" s="19">
-        <f t="shared" ref="B1397" si="163">B1393+1</f>
+        <f t="shared" ref="B1397" si="162">B1393+1</f>
         <v>349</v>
       </c>
       <c r="C1397" s="6"/>
@@ -36270,7 +35949,7 @@
     </row>
     <row r="1401" spans="2:18" ht="58.5">
       <c r="B1401" s="19">
-        <f t="shared" ref="B1401" si="164">B1397+1</f>
+        <f t="shared" ref="B1401" si="163">B1397+1</f>
         <v>350</v>
       </c>
       <c r="C1401" s="6"/>
@@ -38482,7 +38161,7 @@
     </row>
     <row r="1513" spans="2:18" ht="58.5">
       <c r="B1513" s="19">
-        <f t="shared" ref="B1513" si="165">B1509+1</f>
+        <f t="shared" ref="B1513" si="164">B1509+1</f>
         <v>378</v>
       </c>
       <c r="C1513" s="6"/>
@@ -38561,7 +38240,7 @@
     </row>
     <row r="1517" spans="2:18" ht="58.5">
       <c r="B1517" s="19">
-        <f t="shared" ref="B1517" si="166">B1513+1</f>
+        <f t="shared" ref="B1517" si="165">B1513+1</f>
         <v>379</v>
       </c>
       <c r="C1517" s="6"/>
@@ -38640,7 +38319,7 @@
     </row>
     <row r="1521" spans="2:18" ht="58.5">
       <c r="B1521" s="19">
-        <f t="shared" ref="B1521" si="167">B1517+1</f>
+        <f t="shared" ref="B1521" si="166">B1517+1</f>
         <v>380</v>
       </c>
       <c r="C1521" s="6"/>
@@ -38719,7 +38398,7 @@
     </row>
     <row r="1525" spans="2:18" ht="58.5">
       <c r="B1525" s="19">
-        <f t="shared" ref="B1525" si="168">B1521+1</f>
+        <f t="shared" ref="B1525" si="167">B1521+1</f>
         <v>381</v>
       </c>
       <c r="C1525" s="6"/>
@@ -38798,7 +38477,7 @@
     </row>
     <row r="1529" spans="2:18" ht="58.5">
       <c r="B1529" s="19">
-        <f t="shared" ref="B1529" si="169">B1525+1</f>
+        <f t="shared" ref="B1529" si="168">B1525+1</f>
         <v>382</v>
       </c>
       <c r="C1529" s="6"/>
@@ -38877,7 +38556,7 @@
     </row>
     <row r="1533" spans="2:18" ht="58.5">
       <c r="B1533" s="19">
-        <f t="shared" ref="B1533" si="170">B1529+1</f>
+        <f t="shared" ref="B1533" si="169">B1529+1</f>
         <v>383</v>
       </c>
       <c r="C1533" s="6"/>
@@ -38956,7 +38635,7 @@
     </row>
     <row r="1537" spans="2:18" ht="58.5">
       <c r="B1537" s="19">
-        <f t="shared" ref="B1537" si="171">B1533+1</f>
+        <f t="shared" ref="B1537" si="170">B1533+1</f>
         <v>384</v>
       </c>
       <c r="C1537" s="6"/>
@@ -39035,7 +38714,7 @@
     </row>
     <row r="1541" spans="2:18" ht="58.5">
       <c r="B1541" s="19">
-        <f t="shared" ref="B1541" si="172">B1537+1</f>
+        <f t="shared" ref="B1541" si="171">B1537+1</f>
         <v>385</v>
       </c>
       <c r="C1541" s="6"/>
@@ -39114,7 +38793,7 @@
     </row>
     <row r="1545" spans="2:18" ht="58.5">
       <c r="B1545" s="19">
-        <f t="shared" ref="B1545" si="173">B1541+1</f>
+        <f t="shared" ref="B1545" si="172">B1541+1</f>
         <v>386</v>
       </c>
       <c r="C1545" s="6"/>
@@ -39193,7 +38872,7 @@
     </row>
     <row r="1549" spans="2:18" ht="58.5">
       <c r="B1549" s="19">
-        <f t="shared" ref="B1549" si="174">B1545+1</f>
+        <f t="shared" ref="B1549" si="173">B1545+1</f>
         <v>387</v>
       </c>
       <c r="C1549" s="6"/>
@@ -39272,7 +38951,7 @@
     </row>
     <row r="1553" spans="2:18" ht="58.5">
       <c r="B1553" s="19">
-        <f t="shared" ref="B1553" si="175">B1549+1</f>
+        <f t="shared" ref="B1553" si="174">B1549+1</f>
         <v>388</v>
       </c>
       <c r="C1553" s="6"/>
@@ -39351,7 +39030,7 @@
     </row>
     <row r="1557" spans="2:18" ht="58.5">
       <c r="B1557" s="19">
-        <f t="shared" ref="B1557" si="176">B1553+1</f>
+        <f t="shared" ref="B1557" si="175">B1553+1</f>
         <v>389</v>
       </c>
       <c r="C1557" s="6"/>
@@ -39430,7 +39109,7 @@
     </row>
     <row r="1561" spans="2:18" ht="58.5">
       <c r="B1561" s="19">
-        <f t="shared" ref="B1561" si="177">B1557+1</f>
+        <f t="shared" ref="B1561" si="176">B1557+1</f>
         <v>390</v>
       </c>
       <c r="C1561" s="6"/>
@@ -39509,7 +39188,7 @@
     </row>
     <row r="1565" spans="2:18" ht="58.5">
       <c r="B1565" s="19">
-        <f t="shared" ref="B1565" si="178">B1561+1</f>
+        <f t="shared" ref="B1565" si="177">B1561+1</f>
         <v>391</v>
       </c>
       <c r="C1565" s="6"/>
@@ -39588,7 +39267,7 @@
     </row>
     <row r="1569" spans="2:18" ht="58.5">
       <c r="B1569" s="19">
-        <f t="shared" ref="B1569" si="179">B1565+1</f>
+        <f t="shared" ref="B1569" si="178">B1565+1</f>
         <v>392</v>
       </c>
       <c r="C1569" s="6"/>
@@ -39667,7 +39346,7 @@
     </row>
     <row r="1573" spans="2:18" ht="58.5">
       <c r="B1573" s="19">
-        <f t="shared" ref="B1573" si="180">B1569+1</f>
+        <f t="shared" ref="B1573" si="179">B1569+1</f>
         <v>393</v>
       </c>
       <c r="C1573" s="6"/>
@@ -39746,7 +39425,7 @@
     </row>
     <row r="1577" spans="2:18" ht="58.5">
       <c r="B1577" s="19">
-        <f t="shared" ref="B1577" si="181">B1573+1</f>
+        <f t="shared" ref="B1577" si="180">B1573+1</f>
         <v>394</v>
       </c>
       <c r="C1577" s="6"/>
@@ -39825,7 +39504,7 @@
     </row>
     <row r="1581" spans="2:18" ht="58.5">
       <c r="B1581" s="19">
-        <f t="shared" ref="B1581" si="182">B1577+1</f>
+        <f t="shared" ref="B1581" si="181">B1577+1</f>
         <v>395</v>
       </c>
       <c r="C1581" s="6"/>
@@ -39904,7 +39583,7 @@
     </row>
     <row r="1585" spans="2:18" ht="58.5">
       <c r="B1585" s="19">
-        <f t="shared" ref="B1585" si="183">B1581+1</f>
+        <f t="shared" ref="B1585" si="182">B1581+1</f>
         <v>396</v>
       </c>
       <c r="C1585" s="6"/>
@@ -39983,7 +39662,7 @@
     </row>
     <row r="1589" spans="2:18" ht="58.5">
       <c r="B1589" s="19">
-        <f t="shared" ref="B1589" si="184">B1585+1</f>
+        <f t="shared" ref="B1589" si="183">B1585+1</f>
         <v>397</v>
       </c>
       <c r="C1589" s="6"/>
@@ -40062,7 +39741,7 @@
     </row>
     <row r="1593" spans="2:18" ht="58.5">
       <c r="B1593" s="19">
-        <f t="shared" ref="B1593" si="185">B1589+1</f>
+        <f t="shared" ref="B1593" si="184">B1589+1</f>
         <v>398</v>
       </c>
       <c r="C1593" s="6"/>
@@ -40141,7 +39820,7 @@
     </row>
     <row r="1597" spans="2:18" ht="58.5">
       <c r="B1597" s="19">
-        <f t="shared" ref="B1597" si="186">B1593+1</f>
+        <f t="shared" ref="B1597" si="185">B1593+1</f>
         <v>399</v>
       </c>
       <c r="C1597" s="6"/>
@@ -40220,7 +39899,7 @@
     </row>
     <row r="1601" spans="2:18" ht="58.5">
       <c r="B1601" s="19">
-        <f t="shared" ref="B1601" si="187">B1597+1</f>
+        <f t="shared" ref="B1601" si="186">B1597+1</f>
         <v>400</v>
       </c>
       <c r="C1601" s="6"/>
@@ -40299,7 +39978,7 @@
     </row>
     <row r="1605" spans="2:18" ht="58.5">
       <c r="B1605" s="19">
-        <f t="shared" ref="B1605" si="188">B1601+1</f>
+        <f t="shared" ref="B1605" si="187">B1601+1</f>
         <v>401</v>
       </c>
       <c r="C1605" s="6"/>
@@ -42432,7 +42111,7 @@
     </row>
     <row r="1713" spans="2:18" ht="58.5">
       <c r="B1713" s="19">
-        <f t="shared" ref="B1713" si="189">B1709+1</f>
+        <f t="shared" ref="B1713" si="188">B1709+1</f>
         <v>428</v>
       </c>
       <c r="C1713" s="6"/>
@@ -42511,7 +42190,7 @@
     </row>
     <row r="1717" spans="2:18" ht="58.5">
       <c r="B1717" s="19">
-        <f t="shared" ref="B1717" si="190">B1713+1</f>
+        <f t="shared" ref="B1717" si="189">B1713+1</f>
         <v>429</v>
       </c>
       <c r="C1717" s="6"/>
@@ -42590,7 +42269,7 @@
     </row>
     <row r="1721" spans="2:18" ht="58.5">
       <c r="B1721" s="19">
-        <f t="shared" ref="B1721" si="191">B1717+1</f>
+        <f t="shared" ref="B1721" si="190">B1717+1</f>
         <v>430</v>
       </c>
       <c r="C1721" s="6"/>
@@ -42669,7 +42348,7 @@
     </row>
     <row r="1725" spans="2:18" ht="58.5">
       <c r="B1725" s="19">
-        <f t="shared" ref="B1725" si="192">B1721+1</f>
+        <f t="shared" ref="B1725" si="191">B1721+1</f>
         <v>431</v>
       </c>
       <c r="C1725" s="6"/>
@@ -42748,7 +42427,7 @@
     </row>
     <row r="1729" spans="2:18" ht="58.5">
       <c r="B1729" s="19">
-        <f t="shared" ref="B1729" si="193">B1725+1</f>
+        <f t="shared" ref="B1729" si="192">B1725+1</f>
         <v>432</v>
       </c>
       <c r="C1729" s="6"/>
@@ -42827,7 +42506,7 @@
     </row>
     <row r="1733" spans="2:18" ht="58.5">
       <c r="B1733" s="19">
-        <f t="shared" ref="B1733" si="194">B1729+1</f>
+        <f t="shared" ref="B1733" si="193">B1729+1</f>
         <v>433</v>
       </c>
       <c r="C1733" s="6"/>
@@ -42906,7 +42585,7 @@
     </row>
     <row r="1737" spans="2:18" ht="58.5">
       <c r="B1737" s="19">
-        <f t="shared" ref="B1737" si="195">B1733+1</f>
+        <f t="shared" ref="B1737" si="194">B1733+1</f>
         <v>434</v>
       </c>
       <c r="C1737" s="6"/>
@@ -42985,7 +42664,7 @@
     </row>
     <row r="1741" spans="2:18" ht="58.5">
       <c r="B1741" s="19">
-        <f t="shared" ref="B1741" si="196">B1737+1</f>
+        <f t="shared" ref="B1741" si="195">B1737+1</f>
         <v>435</v>
       </c>
       <c r="C1741" s="6"/>
@@ -43064,7 +42743,7 @@
     </row>
     <row r="1745" spans="2:18" ht="58.5">
       <c r="B1745" s="19">
-        <f t="shared" ref="B1745" si="197">B1741+1</f>
+        <f t="shared" ref="B1745" si="196">B1741+1</f>
         <v>436</v>
       </c>
       <c r="C1745" s="6"/>
@@ -43143,7 +42822,7 @@
     </row>
     <row r="1749" spans="2:18" ht="58.5">
       <c r="B1749" s="19">
-        <f t="shared" ref="B1749" si="198">B1745+1</f>
+        <f t="shared" ref="B1749" si="197">B1745+1</f>
         <v>437</v>
       </c>
       <c r="C1749" s="6"/>
@@ -43222,7 +42901,7 @@
     </row>
     <row r="1753" spans="2:18" ht="58.5">
       <c r="B1753" s="19">
-        <f t="shared" ref="B1753" si="199">B1749+1</f>
+        <f t="shared" ref="B1753" si="198">B1749+1</f>
         <v>438</v>
       </c>
       <c r="C1753" s="6"/>
@@ -43301,7 +42980,7 @@
     </row>
     <row r="1757" spans="2:18" ht="58.5">
       <c r="B1757" s="19">
-        <f t="shared" ref="B1757" si="200">B1753+1</f>
+        <f t="shared" ref="B1757" si="199">B1753+1</f>
         <v>439</v>
       </c>
       <c r="C1757" s="6"/>
@@ -43380,7 +43059,7 @@
     </row>
     <row r="1761" spans="2:18" ht="58.5">
       <c r="B1761" s="19">
-        <f t="shared" ref="B1761" si="201">B1757+1</f>
+        <f t="shared" ref="B1761" si="200">B1757+1</f>
         <v>440</v>
       </c>
       <c r="C1761" s="6"/>
@@ -43459,7 +43138,7 @@
     </row>
     <row r="1765" spans="2:18" ht="58.5">
       <c r="B1765" s="19">
-        <f t="shared" ref="B1765" si="202">B1761+1</f>
+        <f t="shared" ref="B1765" si="201">B1761+1</f>
         <v>441</v>
       </c>
       <c r="C1765" s="6"/>
@@ -43538,7 +43217,7 @@
     </row>
     <row r="1769" spans="2:18" ht="58.5">
       <c r="B1769" s="19">
-        <f t="shared" ref="B1769" si="203">B1765+1</f>
+        <f t="shared" ref="B1769" si="202">B1765+1</f>
         <v>442</v>
       </c>
       <c r="C1769" s="6"/>
@@ -43617,7 +43296,7 @@
     </row>
     <row r="1773" spans="2:18" ht="58.5">
       <c r="B1773" s="19">
-        <f t="shared" ref="B1773" si="204">B1769+1</f>
+        <f t="shared" ref="B1773" si="203">B1769+1</f>
         <v>443</v>
       </c>
       <c r="C1773" s="6"/>
@@ -43696,7 +43375,7 @@
     </row>
     <row r="1777" spans="2:18" ht="58.5">
       <c r="B1777" s="19">
-        <f t="shared" ref="B1777" si="205">B1773+1</f>
+        <f t="shared" ref="B1777" si="204">B1773+1</f>
         <v>444</v>
       </c>
       <c r="C1777" s="6"/>
@@ -43775,7 +43454,7 @@
     </row>
     <row r="1781" spans="2:18" ht="58.5">
       <c r="B1781" s="19">
-        <f t="shared" ref="B1781" si="206">B1777+1</f>
+        <f t="shared" ref="B1781" si="205">B1777+1</f>
         <v>445</v>
       </c>
       <c r="C1781" s="6"/>
@@ -43854,7 +43533,7 @@
     </row>
     <row r="1785" spans="2:18" ht="58.5">
       <c r="B1785" s="19">
-        <f t="shared" ref="B1785" si="207">B1781+1</f>
+        <f t="shared" ref="B1785" si="206">B1781+1</f>
         <v>446</v>
       </c>
       <c r="C1785" s="6"/>
@@ -43933,7 +43612,7 @@
     </row>
     <row r="1789" spans="2:18" ht="58.5">
       <c r="B1789" s="19">
-        <f t="shared" ref="B1789" si="208">B1785+1</f>
+        <f t="shared" ref="B1789" si="207">B1785+1</f>
         <v>447</v>
       </c>
       <c r="C1789" s="6"/>
@@ -44012,7 +43691,7 @@
     </row>
     <row r="1793" spans="2:18" ht="58.5">
       <c r="B1793" s="19">
-        <f t="shared" ref="B1793" si="209">B1789+1</f>
+        <f t="shared" ref="B1793" si="208">B1789+1</f>
         <v>448</v>
       </c>
       <c r="C1793" s="6"/>
@@ -44091,7 +43770,7 @@
     </row>
     <row r="1797" spans="2:18" ht="58.5">
       <c r="B1797" s="19">
-        <f t="shared" ref="B1797" si="210">B1793+1</f>
+        <f t="shared" ref="B1797" si="209">B1793+1</f>
         <v>449</v>
       </c>
       <c r="C1797" s="6"/>
@@ -44170,7 +43849,7 @@
     </row>
     <row r="1801" spans="2:18" ht="58.5">
       <c r="B1801" s="19">
-        <f t="shared" ref="B1801" si="211">B1797+1</f>
+        <f t="shared" ref="B1801" si="210">B1797+1</f>
         <v>450</v>
       </c>
       <c r="C1801" s="6"/>
@@ -46382,7 +46061,7 @@
     </row>
     <row r="1913" spans="2:18" ht="58.5">
       <c r="B1913" s="19">
-        <f t="shared" ref="B1913" si="212">B1909+1</f>
+        <f t="shared" ref="B1913" si="211">B1909+1</f>
         <v>478</v>
       </c>
       <c r="C1913" s="6"/>
@@ -46461,7 +46140,7 @@
     </row>
     <row r="1917" spans="2:18" ht="58.5">
       <c r="B1917" s="19">
-        <f t="shared" ref="B1917" si="213">B1913+1</f>
+        <f t="shared" ref="B1917" si="212">B1913+1</f>
         <v>479</v>
       </c>
       <c r="C1917" s="6"/>
@@ -46540,7 +46219,7 @@
     </row>
     <row r="1921" spans="2:18" ht="58.5">
       <c r="B1921" s="19">
-        <f t="shared" ref="B1921" si="214">B1917+1</f>
+        <f t="shared" ref="B1921" si="213">B1917+1</f>
         <v>480</v>
       </c>
       <c r="C1921" s="6"/>
@@ -46619,7 +46298,7 @@
     </row>
     <row r="1925" spans="2:18" ht="58.5">
       <c r="B1925" s="19">
-        <f t="shared" ref="B1925" si="215">B1921+1</f>
+        <f t="shared" ref="B1925" si="214">B1921+1</f>
         <v>481</v>
       </c>
       <c r="C1925" s="6"/>
@@ -46698,7 +46377,7 @@
     </row>
     <row r="1929" spans="2:18" ht="58.5">
       <c r="B1929" s="19">
-        <f t="shared" ref="B1929" si="216">B1925+1</f>
+        <f t="shared" ref="B1929" si="215">B1925+1</f>
         <v>482</v>
       </c>
       <c r="C1929" s="6"/>
@@ -46777,7 +46456,7 @@
     </row>
     <row r="1933" spans="2:18" ht="58.5">
       <c r="B1933" s="19">
-        <f t="shared" ref="B1933" si="217">B1929+1</f>
+        <f t="shared" ref="B1933" si="216">B1929+1</f>
         <v>483</v>
       </c>
       <c r="C1933" s="6"/>
@@ -46856,7 +46535,7 @@
     </row>
     <row r="1937" spans="2:18" ht="58.5">
       <c r="B1937" s="19">
-        <f t="shared" ref="B1937" si="218">B1933+1</f>
+        <f t="shared" ref="B1937" si="217">B1933+1</f>
         <v>484</v>
       </c>
       <c r="C1937" s="6"/>
@@ -46935,7 +46614,7 @@
     </row>
     <row r="1941" spans="2:18" ht="58.5">
       <c r="B1941" s="19">
-        <f t="shared" ref="B1941" si="219">B1937+1</f>
+        <f t="shared" ref="B1941" si="218">B1937+1</f>
         <v>485</v>
       </c>
       <c r="C1941" s="6"/>
@@ -47014,7 +46693,7 @@
     </row>
     <row r="1945" spans="2:18" ht="58.5">
       <c r="B1945" s="19">
-        <f t="shared" ref="B1945" si="220">B1941+1</f>
+        <f t="shared" ref="B1945" si="219">B1941+1</f>
         <v>486</v>
       </c>
       <c r="C1945" s="6"/>
@@ -47093,7 +46772,7 @@
     </row>
     <row r="1949" spans="2:18" ht="58.5">
       <c r="B1949" s="19">
-        <f t="shared" ref="B1949" si="221">B1945+1</f>
+        <f t="shared" ref="B1949" si="220">B1945+1</f>
         <v>487</v>
       </c>
       <c r="C1949" s="6"/>
@@ -47172,7 +46851,7 @@
     </row>
     <row r="1953" spans="2:18" ht="58.5">
       <c r="B1953" s="19">
-        <f t="shared" ref="B1953" si="222">B1949+1</f>
+        <f t="shared" ref="B1953" si="221">B1949+1</f>
         <v>488</v>
       </c>
       <c r="C1953" s="6"/>
@@ -47251,7 +46930,7 @@
     </row>
     <row r="1957" spans="2:18" ht="58.5">
       <c r="B1957" s="19">
-        <f t="shared" ref="B1957" si="223">B1953+1</f>
+        <f t="shared" ref="B1957" si="222">B1953+1</f>
         <v>489</v>
       </c>
       <c r="C1957" s="6"/>
@@ -47330,7 +47009,7 @@
     </row>
     <row r="1961" spans="2:18" ht="58.5">
       <c r="B1961" s="19">
-        <f t="shared" ref="B1961" si="224">B1957+1</f>
+        <f t="shared" ref="B1961" si="223">B1957+1</f>
         <v>490</v>
       </c>
       <c r="C1961" s="6"/>
@@ -47409,7 +47088,7 @@
     </row>
     <row r="1965" spans="2:18" ht="58.5">
       <c r="B1965" s="19">
-        <f t="shared" ref="B1965" si="225">B1961+1</f>
+        <f t="shared" ref="B1965" si="224">B1961+1</f>
         <v>491</v>
       </c>
       <c r="C1965" s="6"/>
@@ -47488,7 +47167,7 @@
     </row>
     <row r="1969" spans="2:18" ht="58.5">
       <c r="B1969" s="19">
-        <f t="shared" ref="B1969" si="226">B1965+1</f>
+        <f t="shared" ref="B1969" si="225">B1965+1</f>
         <v>492</v>
       </c>
       <c r="C1969" s="6"/>
@@ -47567,7 +47246,7 @@
     </row>
     <row r="1973" spans="2:18" ht="58.5">
       <c r="B1973" s="19">
-        <f t="shared" ref="B1973" si="227">B1969+1</f>
+        <f t="shared" ref="B1973" si="226">B1969+1</f>
         <v>493</v>
       </c>
       <c r="C1973" s="6"/>
@@ -47646,7 +47325,7 @@
     </row>
     <row r="1977" spans="2:18" ht="58.5">
       <c r="B1977" s="19">
-        <f t="shared" ref="B1977" si="228">B1973+1</f>
+        <f t="shared" ref="B1977" si="227">B1973+1</f>
         <v>494</v>
       </c>
       <c r="C1977" s="6"/>
@@ -47725,7 +47404,7 @@
     </row>
     <row r="1981" spans="2:18" ht="58.5">
       <c r="B1981" s="19">
-        <f t="shared" ref="B1981" si="229">B1977+1</f>
+        <f t="shared" ref="B1981" si="228">B1977+1</f>
         <v>495</v>
       </c>
       <c r="C1981" s="6"/>
@@ -47804,7 +47483,7 @@
     </row>
     <row r="1985" spans="2:18" ht="58.5">
       <c r="B1985" s="19">
-        <f t="shared" ref="B1985" si="230">B1981+1</f>
+        <f t="shared" ref="B1985" si="229">B1981+1</f>
         <v>496</v>
       </c>
       <c r="C1985" s="6"/>
@@ -47883,7 +47562,7 @@
     </row>
     <row r="1989" spans="2:18" ht="58.5">
       <c r="B1989" s="19">
-        <f t="shared" ref="B1989" si="231">B1985+1</f>
+        <f t="shared" ref="B1989" si="230">B1985+1</f>
         <v>497</v>
       </c>
       <c r="C1989" s="6"/>
@@ -47962,7 +47641,7 @@
     </row>
     <row r="1993" spans="2:18" ht="58.5">
       <c r="B1993" s="19">
-        <f t="shared" ref="B1993" si="232">B1989+1</f>
+        <f t="shared" ref="B1993" si="231">B1989+1</f>
         <v>498</v>
       </c>
       <c r="C1993" s="6"/>
@@ -48041,7 +47720,7 @@
     </row>
     <row r="1997" spans="2:18" ht="58.5">
       <c r="B1997" s="19">
-        <f t="shared" ref="B1997" si="233">B1993+1</f>
+        <f t="shared" ref="B1997" si="232">B1993+1</f>
         <v>499</v>
       </c>
       <c r="C1997" s="6"/>
@@ -48120,7 +47799,7 @@
     </row>
     <row r="2001" spans="2:18" ht="58.5">
       <c r="B2001" s="19">
-        <f t="shared" ref="B2001" si="234">B1997+1</f>
+        <f t="shared" ref="B2001" si="233">B1997+1</f>
         <v>500</v>
       </c>
       <c r="C2001" s="6"/>
@@ -52730,7 +52409,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="54" t="s">
         <v>66</v>
       </c>
     </row>
@@ -52778,7 +52457,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="60"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -52830,7 +52509,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="60"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -52877,7 +52556,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="60"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -52898,7 +52577,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="60"/>
+      <c r="V7" s="57"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -52942,7 +52621,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="60"/>
+      <c r="V8" s="57"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -52996,7 +52675,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="60"/>
+      <c r="V9" s="57"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -53040,7 +52719,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="60"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -53060,7 +52739,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="60"/>
+      <c r="V11" s="57"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -53106,7 +52785,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="60"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -53159,7 +52838,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="60"/>
+      <c r="V13" s="57"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -53205,7 +52884,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="60"/>
+      <c r="V14" s="57"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -53225,7 +52904,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="60"/>
+      <c r="V15" s="57"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -53271,7 +52950,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="60"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -53324,7 +53003,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="60"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -53370,7 +53049,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="60"/>
+      <c r="V18" s="57"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -53390,7 +53069,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="60"/>
+      <c r="V19" s="57"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -53410,7 +53089,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="60"/>
+      <c r="V20" s="57"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -53437,7 +53116,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="60"/>
+      <c r="V21" s="57"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -53457,7 +53136,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《蒹葭》.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D38A0A-CF97-49A3-8E67-92FFD29410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90E748-9137-4830-AD94-16E315AF6FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="129" r:id="rId2"/>
     <sheet name="缺字表" sheetId="128" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="130" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1278">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4311,9 +4310,18 @@
     <t>jjin5</t>
   </si>
   <si>
+    <t>jiong5</t>
+  </si>
+  <si>
+    <t>ji1</t>
+  </si>
+  <si>
     <t>dor7</t>
   </si>
   <si>
+    <t>chia2</t>
+  </si>
+  <si>
     <t>diong5</t>
   </si>
   <si>
@@ -4327,13 +4335,13 @@
   </si>
   <si>
     <t>di5</t>
+  </si>
+  <si>
+    <t>ji2</t>
   </si>
   <si>
     <t>蒹葭</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong1</t>
   </si>
   <si>
     <t>iong1</t>
@@ -4348,7 +4356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4624,14 +4632,8 @@
       <color rgb="FF3399FF"/>
       <name val="Sitka Text Semibold"/>
     </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4653,12 +4655,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4740,7 +4736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4917,19 +4913,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6691,8 +6674,8 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6744,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6752,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -6865,7 +6848,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{181EC47F-BD50-496D-9FB6-B68AC17D2C52}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
@@ -6886,14 +6869,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{565FFEE0-2E5F-4E46-8AB9-FD43AC2AA8A4}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{2CBC2F73-0AF9-43E0-94D1-E14DDBA0481E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927E18D6-3AC3-43DA-B968-6D463F20A702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B97B597-A349-4AA6-ABCA-CB8836843986}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7286,7 +7269,7 @@
         <v>1242</v>
       </c>
       <c r="C28" t="s">
-        <v>1272</v>
+        <v>499</v>
       </c>
       <c r="D28" t="s">
         <v>1243</v>
@@ -7453,7 +7436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22E0AD-97D1-4AA6-A6E3-A1C37555DFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242A72C-1CAB-47F9-B18C-0B62E885A3F9}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7481,56 +7464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB840D-776F-4462-B940-39BFE8282B82}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7601,11 +7542,11 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
@@ -7623,15 +7564,15 @@
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>1201</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="50" t="s">
         <v>1203</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
@@ -7649,19 +7590,19 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="39" t="s">
         <v>1168</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="39" t="s">
         <v>1171</v>
       </c>
-      <c r="H5" s="59" t="str">
+      <c r="H5" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7707,65 +7648,65 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="27"/>
       <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="50" t="s">
         <v>1201</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="50" t="s">
         <v>1203</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="50" t="s">
         <v>1205</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="50" t="s">
         <v>1205</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
         <v>1207</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="50" t="s">
         <v>1209</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="50" t="s">
         <v>1212</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50" t="s">
         <v>1214</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="50" t="s">
         <v>1216</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="60"/>
+      <c r="R8" s="50"/>
       <c r="S8" s="18"/>
       <c r="V8" s="55"/>
     </row>
@@ -7774,49 +7715,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="39" t="s">
         <v>1175</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="39" t="s">
         <v>1178</v>
       </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="20"/>
@@ -7870,12 +7811,12 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -7889,20 +7830,20 @@
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
@@ -7920,22 +7861,22 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="59" t="str">
+      <c r="I13" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -7983,64 +7924,64 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
       <c r="V15" s="55"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="50" t="s">
         <v>1227</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="50" t="s">
         <v>1232</v>
       </c>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="50" t="s">
         <v>1234</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="50" t="s">
         <v>1236</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="O16" s="60" t="s">
+      <c r="O16" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="R16" s="60"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="18"/>
       <c r="V16" s="55"/>
     </row>
@@ -8049,49 +7990,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="39" t="s">
         <v>1184</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="39" t="s">
         <v>1185</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="39" t="s">
         <v>1186</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="P17" s="59" t="s">
+      <c r="P17" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R17" s="59" t="s">
+      <c r="R17" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S17" s="20"/>
@@ -8106,23 +8047,23 @@
         <v>1227</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>1234</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>1236</v>
+        <v>1268</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51" t="s">
@@ -8132,10 +8073,10 @@
         <v>437</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
@@ -8144,15 +8085,15 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -8165,23 +8106,23 @@
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="H20" s="50" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
@@ -8198,25 +8139,25 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="39" t="s">
         <v>1187</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="39" t="s">
         <v>1188</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="39" t="s">
         <v>1189</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8244,10 +8185,10 @@
         <v>1221</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8265,64 +8206,64 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
       <c r="V23" s="55"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="50" t="s">
         <v>1201</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="50" t="s">
         <v>1203</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="50" t="s">
         <v>1244</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="50" t="s">
         <v>1244</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60" t="s">
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="s">
         <v>1207</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="50" t="s">
         <v>1209</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="50" t="s">
         <v>1246</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="50" t="s">
         <v>1248</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60" t="s">
+      <c r="M24" s="50"/>
+      <c r="N24" s="50" t="s">
         <v>1214</v>
       </c>
-      <c r="O24" s="60" t="s">
+      <c r="O24" s="50" t="s">
         <v>1216</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="60"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="18"/>
       <c r="V24" s="55"/>
     </row>
@@ -8331,49 +8272,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="39" t="s">
         <v>1190</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="39" t="s">
         <v>1190</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="39" t="s">
         <v>1191</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="39" t="s">
         <v>1192</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="P25" s="39" t="s">
         <v>1178</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S25" s="20"/>
@@ -8401,7 +8342,7 @@
         <v>1209</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="L26" s="51" t="s">
         <v>1248</v>
@@ -8426,12 +8367,12 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -8445,20 +8386,20 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
@@ -8477,22 +8418,22 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="39" t="s">
         <v>1193</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="59" t="str">
+      <c r="I29" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8519,10 +8460,10 @@
         <v>1221</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -8542,64 +8483,64 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
       <c r="V31" s="55"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="50" t="s">
         <v>1227</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60" t="s">
+      <c r="H32" s="50"/>
+      <c r="I32" s="50" t="s">
         <v>1232</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="50" t="s">
         <v>1234</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="50" t="s">
         <v>1236</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="50" t="s">
         <v>1251</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60" t="s">
+      <c r="M32" s="50"/>
+      <c r="N32" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="O32" s="60" t="s">
+      <c r="O32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="P32" s="60" t="s">
+      <c r="P32" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="Q32" s="60" t="s">
+      <c r="Q32" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="R32" s="60"/>
+      <c r="R32" s="50"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33"/>
       <c r="V32" s="55"/>
@@ -8609,49 +8550,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="39" t="s">
         <v>1184</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="39" t="s">
         <v>1185</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="39" t="s">
         <v>1186</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="39" t="s">
         <v>1194</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="59" t="s">
+      <c r="N33" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="O33" s="59" t="s">
+      <c r="O33" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="P33" s="59" t="s">
+      <c r="P33" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="Q33" s="59" t="s">
+      <c r="Q33" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R33" s="59" t="s">
+      <c r="R33" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S33" s="20"/>
@@ -8666,20 +8607,20 @@
         <v>1227</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="J34" s="51" t="s">
         <v>1234</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1236</v>
+        <v>1268</v>
       </c>
       <c r="L34" s="51" t="s">
         <v>1251</v>
@@ -8692,10 +8633,10 @@
         <v>437</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
@@ -8704,13 +8645,13 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
@@ -8723,23 +8664,23 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="50" t="s">
         <v>1253</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
@@ -8756,25 +8697,25 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="39" t="s">
         <v>1187</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="39" t="s">
         <v>1188</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="39" t="s">
         <v>1195</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="59" t="str">
+      <c r="J37" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8802,10 +8743,10 @@
         <v>1221</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -8823,64 +8764,64 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
       <c r="V39" s="55"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="50" t="s">
         <v>1201</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="50" t="s">
         <v>1203</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="50" t="s">
         <v>1254</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="50" t="s">
         <v>1254</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60" t="s">
+      <c r="H40" s="50"/>
+      <c r="I40" s="50" t="s">
         <v>1207</v>
       </c>
-      <c r="J40" s="60" t="s">
+      <c r="J40" s="50" t="s">
         <v>1209</v>
       </c>
-      <c r="K40" s="60" t="s">
+      <c r="K40" s="50" t="s">
         <v>1246</v>
       </c>
-      <c r="L40" s="60" t="s">
+      <c r="L40" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60" t="s">
+      <c r="M40" s="50"/>
+      <c r="N40" s="50" t="s">
         <v>1214</v>
       </c>
-      <c r="O40" s="60" t="s">
+      <c r="O40" s="50" t="s">
         <v>1216</v>
       </c>
-      <c r="P40" s="60" t="s">
+      <c r="P40" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="Q40" s="60" t="s">
+      <c r="Q40" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="R40" s="60"/>
+      <c r="R40" s="50"/>
       <c r="S40" s="18"/>
       <c r="V40" s="55"/>
     </row>
@@ -8889,49 +8830,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="39" t="s">
         <v>1196</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="39" t="s">
         <v>1196</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="J41" s="59" t="s">
+      <c r="J41" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K41" s="39" t="s">
         <v>1191</v>
       </c>
-      <c r="L41" s="59" t="s">
+      <c r="L41" s="39" t="s">
         <v>1197</v>
       </c>
-      <c r="M41" s="59" t="s">
+      <c r="M41" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="59" t="s">
+      <c r="N41" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="O41" s="59" t="s">
+      <c r="O41" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="P41" s="59" t="s">
+      <c r="P41" s="39" t="s">
         <v>1178</v>
       </c>
-      <c r="Q41" s="59" t="s">
+      <c r="Q41" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="59" t="s">
+      <c r="R41" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S41" s="20"/>
@@ -8959,7 +8900,7 @@
         <v>1209</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="L42" s="51" t="s">
         <v>336</v>
@@ -8984,12 +8925,12 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
@@ -9003,20 +8944,20 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="50" t="s">
         <v>1257</v>
       </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
@@ -9034,22 +8975,22 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="39" t="s">
         <v>1198</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="59" t="str">
+      <c r="I45" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9075,10 +9016,10 @@
         <v>1221</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1257</v>
+        <v>468</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -9097,64 +9038,64 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
       <c r="V47" s="55"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="50" t="s">
         <v>1227</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60" t="s">
+      <c r="H48" s="50"/>
+      <c r="I48" s="50" t="s">
         <v>1232</v>
       </c>
-      <c r="J48" s="60" t="s">
+      <c r="J48" s="50" t="s">
         <v>1234</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="50" t="s">
         <v>1236</v>
       </c>
-      <c r="L48" s="60" t="s">
+      <c r="L48" s="50" t="s">
         <v>1258</v>
       </c>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60" t="s">
+      <c r="M48" s="50"/>
+      <c r="N48" s="50" t="s">
         <v>1225</v>
       </c>
-      <c r="O48" s="60" t="s">
+      <c r="O48" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="P48" s="60" t="s">
+      <c r="P48" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="Q48" s="60" t="s">
+      <c r="Q48" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="R48" s="60"/>
+      <c r="R48" s="50"/>
       <c r="S48" s="18"/>
       <c r="V48" s="55"/>
     </row>
@@ -9163,49 +9104,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="59" t="s">
+      <c r="I49" s="39" t="s">
         <v>1184</v>
       </c>
-      <c r="J49" s="59" t="s">
+      <c r="J49" s="39" t="s">
         <v>1185</v>
       </c>
-      <c r="K49" s="59" t="s">
+      <c r="K49" s="39" t="s">
         <v>1186</v>
       </c>
-      <c r="L49" s="59" t="s">
+      <c r="L49" s="39" t="s">
         <v>1199</v>
       </c>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="O49" s="59" t="s">
+      <c r="O49" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="P49" s="59" t="s">
+      <c r="P49" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="Q49" s="59" t="s">
+      <c r="Q49" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R49" s="59" t="s">
+      <c r="R49" s="39" t="s">
         <v>23</v>
       </c>
       <c r="S49" s="20"/>
@@ -9220,20 +9161,20 @@
         <v>1227</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="J50" s="51" t="s">
         <v>1234</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1236</v>
+        <v>1268</v>
       </c>
       <c r="L50" s="51" t="s">
         <v>1258</v>
@@ -9246,10 +9187,10 @@
         <v>437</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>338</v>
+        <v>1266</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
@@ -9258,13 +9199,13 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52"/>
@@ -9277,23 +9218,23 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="G52" s="60" t="s">
+      <c r="G52" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
@@ -9310,25 +9251,25 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="39" t="s">
         <v>1187</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="39" t="s">
         <v>1188</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="39" t="s">
         <v>1200</v>
       </c>
-      <c r="I53" s="59" t="s">
+      <c r="I53" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="59" t="str">
+      <c r="J53" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9356,10 +9297,10 @@
         <v>1221</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>440</v>
+        <v>1274</v>
       </c>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -9377,7 +9318,7 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="61"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
@@ -9396,7 +9337,7 @@
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -9419,7 +9360,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="39"/>
@@ -48040,7 +47981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -48209,7 +48150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -52272,7 +52213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
